--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>tktk02/Fire7</t>
   </si>
   <si>
-    <t>NA_Effekseer/NA_net_001</t>
+    <t>Maker/ThunderOne2</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_status_005</t>
@@ -122,7 +122,7 @@
     <t>tktk01/Blow10</t>
   </si>
   <si>
-    <t>NA_Effekseer/NA_net_002</t>
+    <t>Maker/ThunderAll3</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_magic_006_c5</t>
@@ -1014,23 +1014,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1043,9 +1035,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,60 +1133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1121,22 +1141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,14 +1151,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1165,8 +1164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,31 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,13 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,91 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,13 +1265,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,15 +1381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1401,24 +1392,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,6 +1422,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1460,6 +1442,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,145 +1486,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2351,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2361,7 +2361,7 @@
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
     <col min="3" max="3" width="19.7272727272727" customWidth="1"/>
     <col min="6" max="6" width="30.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="9.45454545454546" customWidth="1"/>
+    <col min="7" max="7" width="17.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="6.45454545454545" customWidth="1"/>
     <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
     <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
@@ -4529,11 +4529,11 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="str">
         <f>INDEX(Define!B:B,MATCH(H30,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J30">
         <v>26</v>
@@ -13791,7 +13791,7 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -107,7 +107,7 @@
     <t>tktk02/Fire7</t>
   </si>
   <si>
-    <t>Maker/ThunderOne2</t>
+    <t>NA_Effekseer/NA_net_001</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_status_005</t>
@@ -122,7 +122,7 @@
     <t>tktk01/Blow10</t>
   </si>
   <si>
-    <t>Maker/ThunderAll3</t>
+    <t>NA_Effekseer/NA_net_002</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_magic_006_c5</t>
@@ -1015,8 +1015,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1028,8 +1028,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,15 +1058,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,16 +1080,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1096,14 +1103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,9 +1124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,14 +1158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,19 +1187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,73 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1277,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,25 +1355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,13 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,37 +1396,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,6 +1423,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1457,9 +1455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,7 +1486,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,7 +1495,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,127 +1504,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
     <t>メルトバースト</t>
   </si>
   <si>
-    <t>敵一列に火傷付与</t>
+    <t>敵一列に10ダメージの火傷付与</t>
   </si>
   <si>
     <t>ウルフソウル</t>
@@ -350,7 +350,7 @@
     <t>ショックインパルス</t>
   </si>
   <si>
-    <t>敵単体に1ターンのスタン付与</t>
+    <t>敵単体にスタン付与</t>
   </si>
   <si>
     <t>トラストチェイン</t>
@@ -653,7 +653,7 @@
     <t>ダークネス</t>
   </si>
   <si>
-    <t>敵単体に暗闇を付与</t>
+    <t>敵単体に暗闇を付与(永続)</t>
   </si>
   <si>
     <t>イーグルアイ</t>
@@ -1016,8 +1016,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1028,105 +1028,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,10 +1044,101 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1158,15 +1152,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,6 +1187,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1199,7 +1331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,157 +1361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,6 +1381,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1392,15 +1412,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,26 +1455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1478,6 +1469,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1486,7 +1486,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,7 +1495,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,124 +1507,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2351,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -10639,8 +10639,8 @@
   <sheetPr/>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11210,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D25,[1]TextData!A:A))</f>
@@ -11303,7 +11303,7 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -11640,7 +11640,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D43,[1]TextData!A:A))</f>
@@ -12049,7 +12049,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D60,[1]TextData!A:A))</f>
@@ -12584,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
@@ -13003,7 +13003,7 @@
         <v>24</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="F101">
         <v>50</v>
@@ -13177,7 +13177,7 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D108,[1]TextData!A:A))</f>
@@ -14248,8 +14248,8 @@
   <sheetPr/>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1030,9 +1030,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -1045,30 +1045,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,23 +1065,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,9 +1081,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,6 +1114,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,14 +1143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1167,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1203,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,139 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,31 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,15 +1394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1417,6 +1408,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,32 +1454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,6 +1467,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,16 +1502,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,25 +1520,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1547,100 +1547,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2367,7 +2367,7 @@
   <sheetPr/>
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
@@ -10727,7 +10727,7 @@
   <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -13898,10 +13898,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14054,10 +14054,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14071,33 +14071,33 @@
         <v>211</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -14108,16 +14108,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -14128,13 +14128,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -14148,36 +14148,36 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -14188,16 +14188,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -14228,16 +14228,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -14248,16 +14248,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -14268,36 +14268,36 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>532</v>
+        <v>411</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -14308,16 +14308,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -14328,36 +14328,36 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -14368,21 +14368,101 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
+        <v>532</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>533</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>534</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>535</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
         <v>536</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>42</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1030,10 +1030,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1045,45 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,7 +1060,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,45 +1172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1160,29 +1183,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,25 +1203,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,31 +1233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,13 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,37 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,19 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,41 +1397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,6 +1417,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,15 +1456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1494,6 +1470,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1502,145 +1502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2367,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3079,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <v>3</v>
@@ -6838,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
         <v>4</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69">
         <v>5</v>
@@ -13900,7 +13900,7 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -370,7 +370,7 @@
   </si>
   <si>
     <t>(条件)拘束解除攻撃を3回成功
-拘束ダメージ効果アップ 神化状態に移行</t>
+拘束成功値拘束ダメージアップ 神化状態に移行</t>
   </si>
   <si>
     <t>ユビサキデカラメトル</t>
@@ -436,7 +436,7 @@
     <t>カウンターオーラ</t>
   </si>
   <si>
-    <t>自身にCAを付与</t>
+    <t>自身にCA(DEF値ダメージ反射)を付与</t>
   </si>
   <si>
     <t>シールドスペル</t>
@@ -660,7 +660,7 @@
     <t>ダークネス</t>
   </si>
   <si>
-    <t>敵単体に暗闇を付与(永続)</t>
+    <t>敵単体に暗闇(命中率33%ダウン)を付与(永続)</t>
   </si>
   <si>
     <t>イーグルアイ</t>
@@ -1031,9 +1031,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1045,37 +1045,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,16 +1065,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,8 +1087,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,15 +1126,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1149,7 +1165,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1166,25 +1182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1203,174 +1203,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1383,7 +1215,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,9 +1399,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,21 +1453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1447,10 +1464,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1466,21 +1481,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1502,16 +1502,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,127 +1520,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2367,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4617,11 +4617,11 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="str">
         <f>INDEX(Define!B:B,MATCH(H31,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J31">
         <v>26</v>
@@ -10727,8 +10727,8 @@
   <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -13115,7 +13115,7 @@
         <v>999</v>
       </c>
       <c r="F102">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
@@ -14477,8 +14477,8 @@
   <sheetPr/>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
   <si>
     <t>Id</t>
   </si>
@@ -474,7 +474,7 @@
   </si>
   <si>
     <t>(条件)神化状態
-敵全体に鈍足付与 神化解除</t>
+敵全体に鈍足付与(永続) 神化解除</t>
   </si>
   <si>
     <t>バブルブロウ</t>
@@ -927,6 +927,9 @@
   </si>
   <si>
     <t>パーティ</t>
+  </si>
+  <si>
+    <t>単体・自身を除く</t>
   </si>
   <si>
     <t>Mp回復</t>
@@ -1043,9 +1046,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1063,48 +1066,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1117,21 +1082,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1147,6 +1121,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1154,11 +1158,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,11 +1180,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,14 +1197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,7 +1218,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,43 +1284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,19 +1302,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,6 +1362,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1317,85 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,8 +1426,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,11 +1456,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,45 +1509,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1514,7 +1517,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1523,7 +1526,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1532,127 +1535,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2387,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4593,11 +4596,11 @@
         <v>味方</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T30" t="str">
         <f>INDEX(Define!N:N,MATCH(S30,Define!M:M))</f>
-        <v>単体</v>
+        <v>単体・自身を除く</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -4638,7 +4641,7 @@
         <v>単体</v>
       </c>
       <c r="J31">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -10891,8 +10894,8 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11893,7 +11896,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B44">
         <v>21</v>
@@ -12148,7 +12151,7 @@
         <v>21</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -13006,7 +13009,7 @@
         <v>Hpダメージ</v>
       </c>
       <c r="D91">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -14171,10 +14174,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14281,16 +14284,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -14301,16 +14304,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14321,7 +14324,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -14341,16 +14344,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -14361,16 +14364,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -14381,10 +14384,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -14396,21 +14399,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -14421,36 +14424,36 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -14461,13 +14464,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -14476,18 +14479,18 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -14501,16 +14504,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -14521,16 +14524,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -14541,16 +14544,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -14561,16 +14564,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -14581,16 +14584,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="B21">
         <v>42</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -14601,13 +14604,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -14621,10 +14624,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -14641,36 +14644,36 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>511</v>
+        <v>332</v>
       </c>
       <c r="B24">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -14681,16 +14684,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>532</v>
+        <v>334</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -14701,16 +14704,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>533</v>
+        <v>336</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -14721,16 +14724,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>534</v>
+        <v>336</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -14741,16 +14744,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>535</v>
+        <v>336</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -14761,21 +14764,321 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
+        <v>411</v>
+      </c>
+      <c r="B30">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>411</v>
+      </c>
+      <c r="B31">
+        <v>104</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>431</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>432</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>433</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>434</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>435</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>436</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>511</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>511</v>
+      </c>
+      <c r="B39">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>531</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>532</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>533</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>534</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>535</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
         <v>536</v>
       </c>
-      <c r="B30">
+      <c r="B45">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>42</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
     </row>
@@ -14790,8 +15093,8 @@
   <sheetPr/>
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -16076,8 +16379,8 @@
   <sheetPr/>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -16383,23 +16686,29 @@
       <c r="K7" t="s">
         <v>291</v>
       </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>292</v>
+      </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="7:24">
@@ -16407,25 +16716,25 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="16:24">
@@ -16433,19 +16742,19 @@
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="16:24">
@@ -16453,19 +16762,19 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="16:24">
@@ -16473,13 +16782,13 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W11">
         <v>11</v>
@@ -16493,13 +16802,13 @@
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="16:22">
@@ -16507,13 +16816,13 @@
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="16:22">
@@ -16521,13 +16830,13 @@
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="16:22">
@@ -16535,13 +16844,13 @@
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="16:22">
@@ -16549,13 +16858,13 @@
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="16:22">
@@ -16563,13 +16872,13 @@
         <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="16:22">
@@ -16577,13 +16886,13 @@
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="16:17">
@@ -16591,7 +16900,7 @@
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="16:17">
@@ -16599,7 +16908,7 @@
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="16:17">
@@ -16607,7 +16916,7 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="16:17">
@@ -16615,7 +16924,7 @@
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="16:17">
@@ -16623,7 +16932,7 @@
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="16:17">
@@ -16631,7 +16940,7 @@
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="16:17">
@@ -16639,7 +16948,7 @@
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1045,15 +1045,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1067,7 +1075,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,22 +1090,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,62 +1104,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,9 +1127,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,8 +1165,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1218,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,13 +1374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,151 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,35 +1409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1457,6 +1428,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1467,6 +1453,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,23 +1484,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,145 +1517,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2390,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2575,7 +2575,7 @@
         <v>単体</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>単体</v>
       </c>
       <c r="J4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>単体</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -4491,7 +4491,7 @@
         <v>単体</v>
       </c>
       <c r="J29">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -4566,7 +4566,7 @@
         <v>単体</v>
       </c>
       <c r="J30">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -4791,7 +4791,7 @@
         <v>単体</v>
       </c>
       <c r="J33">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -5370,7 +5370,7 @@
         <v>単体</v>
       </c>
       <c r="J41">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>単体</v>
       </c>
       <c r="J42">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>単体</v>
       </c>
       <c r="J47">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>単体</v>
       </c>
       <c r="J48">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -7578,7 +7578,7 @@
         <v>単体</v>
       </c>
       <c r="J71">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>全体</v>
       </c>
       <c r="J72">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -7728,7 +7728,7 @@
         <v>単体</v>
       </c>
       <c r="J73">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -10894,7 +10894,7 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -14176,8 +14176,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14413,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -15093,8 +15093,8 @@
   <sheetPr/>
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="332">
   <si>
     <t>Id</t>
   </si>
@@ -242,7 +242,11 @@
     <t>拘束制御</t>
   </si>
   <si>
-    <t>アンデッド状態</t>
+    <t>アンデッド</t>
+  </si>
+  <si>
+    <t>アンデッド特性
+毎ターンHpが5回復</t>
   </si>
   <si>
     <t>アンデッド回復</t>
@@ -420,7 +424,7 @@
     <t>ヘブンリーラック</t>
   </si>
   <si>
-    <t>常時自身の回避率を20アップ</t>
+    <t>常時自身の回避率を33%アップ</t>
   </si>
   <si>
     <t>クイックアクト</t>
@@ -467,7 +471,7 @@
   </si>
   <si>
     <t>(条件)敵の行動で味方が戦闘不能
-味方全員にシールドを付与 神化状態に移行</t>
+味方全員に攻撃無効1回を付与 神化状態に移行</t>
   </si>
   <si>
     <t>ノロマナカメニナレ</t>
@@ -615,6 +619,12 @@
   <si>
     <t>(条件)自身以外のHpを回復する
 自身のHpを4回復</t>
+  </si>
+  <si>
+    <t>ホーミングクルセイド</t>
+  </si>
+  <si>
+    <t>全ての魔法が回避されなくなる</t>
   </si>
   <si>
     <t>ホーリーエンチャント</t>
@@ -1045,10 +1055,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1059,8 +1069,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1068,7 +1099,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,10 +1128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,15 +1146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,7 +1159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1128,7 +1167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,29 +1176,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,6 +1190,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1183,21 +1207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,13 +1228,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,37 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1306,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,13 +1348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,61 +1402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1419,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1442,6 +1461,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1460,8 +1499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,35 +1519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1517,154 +1527,157 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2057,41 +2070,49 @@
         </row>
         <row r="40">
           <cell r="A40">
-            <v>201</v>
+            <v>118</v>
           </cell>
           <cell r="B40" t="str">
-            <v>炎適正</v>
+            <v>必中</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B41" t="str">
-            <v>雷適性</v>
+            <v>炎適正</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B42" t="str">
-            <v>氷適性</v>
+            <v>雷適性</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B43" t="str">
-            <v>光適性</v>
+            <v>氷適性</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
+            <v>204</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>光適性</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
             <v>205</v>
           </cell>
-          <cell r="B44" t="str">
+          <cell r="B45" t="str">
             <v>闇適性</v>
           </cell>
         </row>
@@ -2388,10 +2409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2405,8 +2426,8 @@
     <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
     <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
     <col min="11" max="12" width="6.63636363636364" customWidth="1"/>
-    <col min="13" max="13" width="4.54545454545455" style="3" customWidth="1"/>
-    <col min="14" max="14" width="4.90909090909091" style="3" customWidth="1"/>
+    <col min="13" max="13" width="4.54545454545455" style="4" customWidth="1"/>
+    <col min="14" max="14" width="4.90909090909091" style="4" customWidth="1"/>
     <col min="15" max="15" width="4.72727272727273" customWidth="1"/>
     <col min="16" max="16" width="5.54545454545455" customWidth="1"/>
     <col min="17" max="17" width="4.90909090909091" customWidth="1"/>
@@ -2998,7 +3019,7 @@
       </c>
       <c r="C9" t="str">
         <f>INDEX(TextData!B:B,MATCH(B9,TextData!A:A))</f>
-        <v>アンデッド状態</v>
+        <v>アンデッド</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -3027,11 +3048,11 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9" t="str">
         <f>INDEX(Define!E:E,MATCH(M9,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -3099,11 +3120,11 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX(Define!E:E,MATCH(M10,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -7375,11 +7396,11 @@
         <v>光</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P68" t="str">
         <f>INDEX(Define!H:H,MATCH(O68,Define!G:G))</f>
-        <v>使い切りパッシブ</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -7476,21 +7497,21 @@
     </row>
     <row r="70" ht="12" customHeight="1" spans="1:22">
       <c r="A70">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B70">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>ホーリーエンチャント</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" t="str">
         <f>INDEX(Define!X:X,MATCH(D70,Define!W:W))</f>
-        <v>工作</v>
+        <v>自己強化</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -7548,24 +7569,21 @@
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:22">
       <c r="A71">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B71">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ホーリーエンチャント</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E71" t="str">
         <f>INDEX(Define!X:X,MATCH(D71,Define!W:W))</f>
-        <v>超次元</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
+        <v>工作</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7578,41 +7596,41 @@
         <v>単体</v>
       </c>
       <c r="J71">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="str">
         <f>INDEX(Define!E:E,MATCH(M71,Define!D:D))</f>
-        <v>闇</v>
+        <v>光</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" t="str">
         <f>INDEX(Define!H:H,MATCH(O71,Define!G:G))</f>
-        <v>魔法</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R71" t="str">
         <f>INDEX(Define!K:K,MATCH(Q71,Define!J:J))</f>
-        <v>相手</v>
+        <v>自身</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T71" t="str">
         <f>INDEX(Define!N:N,MATCH(S71,Define!M:M))</f>
-        <v>単体</v>
+        <v>自身</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -7623,14 +7641,14 @@
     </row>
     <row r="72" ht="12" customHeight="1" spans="1:22">
       <c r="A72">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B72">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -7640,23 +7658,23 @@
         <v>超次元</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="str">
         <f>INDEX(Define!B:B,MATCH(H72,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J72">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -7683,14 +7701,14 @@
         <v>相手</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T72" t="str">
         <f>INDEX(Define!N:N,MATCH(S72,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -7698,14 +7716,14 @@
     </row>
     <row r="73" ht="12" customHeight="1" spans="1:22">
       <c r="A73">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B73">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -7715,20 +7733,20 @@
         <v>超次元</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="str">
         <f>INDEX(Define!B:B,MATCH(H73,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J73">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -7758,14 +7776,14 @@
         <v>相手</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T73" t="str">
         <f>INDEX(Define!N:N,MATCH(S73,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -7773,14 +7791,14 @@
     </row>
     <row r="74" ht="12" customHeight="1" spans="1:22">
       <c r="A74">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B74">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -7790,7 +7808,7 @@
         <v>超次元</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7803,7 +7821,7 @@
         <v>単体</v>
       </c>
       <c r="J74">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7848,24 +7866,24 @@
     </row>
     <row r="75" ht="12" customHeight="1" spans="1:22">
       <c r="A75">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B75">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" t="str">
         <f>INDEX(Define!X:X,MATCH(D75,Define!W:W))</f>
-        <v>理術</v>
+        <v>超次元</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7923,24 +7941,24 @@
     </row>
     <row r="76" ht="12" customHeight="1" spans="1:22">
       <c r="A76">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B76">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E76" t="str">
         <f>INDEX(Define!X:X,MATCH(D76,Define!W:W))</f>
-        <v>半神</v>
+        <v>理術</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7953,10 +7971,10 @@
         <v>単体</v>
       </c>
       <c r="J76">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L76">
         <v>2</v>
@@ -7969,11 +7987,11 @@
         <v>闇</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P76" t="str">
         <f>INDEX(Define!H:H,MATCH(O76,Define!G:G))</f>
-        <v>神化</v>
+        <v>魔法</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -7983,14 +8001,14 @@
         <v>相手</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T76" t="str">
         <f>INDEX(Define!N:N,MATCH(S76,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>1</v>
@@ -7998,24 +8016,24 @@
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:22">
       <c r="A77">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(TextData!B:B,MATCH(B77,TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" t="str">
         <f>INDEX(Define!X:X,MATCH(D77,Define!W:W))</f>
-        <v>覚醒</v>
+        <v>半神</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -8028,7 +8046,7 @@
         <v>単体</v>
       </c>
       <c r="J77">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -8044,11 +8062,11 @@
         <v>闇</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P77" t="str">
         <f>INDEX(Define!H:H,MATCH(O77,Define!G:G))</f>
-        <v>覚醒</v>
+        <v>神化</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -8058,14 +8076,14 @@
         <v>相手</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T77" t="str">
         <f>INDEX(Define!N:N,MATCH(S77,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V77">
         <v>1</v>
@@ -8073,24 +8091,24 @@
     </row>
     <row r="78" ht="12" customHeight="1" spans="1:22">
       <c r="A78">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B78">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(TextData!B:B,MATCH(B78,TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E78" t="str">
         <f>INDEX(Define!X:X,MATCH(D78,Define!W:W))</f>
-        <v>理術</v>
+        <v>覚醒</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -8103,13 +8121,13 @@
         <v>単体</v>
       </c>
       <c r="J78">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <v>5</v>
@@ -8119,11 +8137,11 @@
         <v>闇</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P78" t="str">
         <f>INDEX(Define!H:H,MATCH(O78,Define!G:G))</f>
-        <v>魔法</v>
+        <v>覚醒</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -8148,21 +8166,24 @@
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:22">
       <c r="A79">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B79">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(TextData!B:B,MATCH(B79,TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ダークネス</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E79" t="str">
         <f>INDEX(Define!X:X,MATCH(D79,Define!W:W))</f>
-        <v>自己強化</v>
+        <v>理術</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8175,10 +8196,10 @@
         <v>単体</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -8191,25 +8212,25 @@
         <v>闇</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="str">
         <f>INDEX(Define!H:H,MATCH(O79,Define!G:G))</f>
-        <v>パッシブ</v>
+        <v>魔法</v>
       </c>
       <c r="Q79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R79" t="str">
         <f>INDEX(Define!K:K,MATCH(Q79,Define!J:J))</f>
-        <v>自身</v>
+        <v>相手</v>
       </c>
       <c r="S79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T79" t="str">
         <f>INDEX(Define!N:N,MATCH(S79,Define!M:M))</f>
-        <v>自身</v>
+        <v>単体</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -8220,14 +8241,14 @@
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:22">
       <c r="A80">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(TextData!B:B,MATCH(B80,TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -8292,14 +8313,14 @@
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:22">
       <c r="A81">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(TextData!B:B,MATCH(B81,TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -8364,14 +8385,14 @@
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:22">
       <c r="A82">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B82">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(TextData!B:B,MATCH(B82,TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -8436,14 +8457,14 @@
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:22">
       <c r="A83">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B83">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(TextData!B:B,MATCH(B83,TextData!A:A))</f>
-        <v>クリープアウト</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -8479,11 +8500,11 @@
         <v>闇</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P83" t="str">
         <f>INDEX(Define!H:H,MATCH(O83,Define!G:G))</f>
-        <v>使い切りパッシブ</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -8508,14 +8529,14 @@
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:22">
       <c r="A84">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B84">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(TextData!B:B,MATCH(B84,TextData!A:A))</f>
-        <v>カタストロフ</v>
+        <v>クリープアウト</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -8551,11 +8572,11 @@
         <v>闇</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P84" t="str">
         <f>INDEX(Define!H:H,MATCH(O84,Define!G:G))</f>
-        <v>パッシブ</v>
+        <v>使い切りパッシブ</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -8580,21 +8601,21 @@
     </row>
     <row r="85" ht="12" customHeight="1" spans="1:22">
       <c r="A85">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B85">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>ダークエンチャント</v>
+        <v>カタストロフ</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" t="str">
         <f>INDEX(Define!X:X,MATCH(D85,Define!W:W))</f>
-        <v>工作</v>
+        <v>自己強化</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -8652,31 +8673,31 @@
     </row>
     <row r="86" ht="12" customHeight="1" spans="1:22">
       <c r="A86">
-        <v>1000</v>
+        <v>541</v>
       </c>
       <c r="B86">
-        <v>1000</v>
+        <v>541</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX(TextData!B:B,MATCH(B86,TextData!A:A))</f>
-        <v>愚者</v>
+        <v>ダークエンチャント</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E86" t="str">
         <f>INDEX(Define!X:X,MATCH(D86,Define!W:W))</f>
-        <v>元素</v>
+        <v>工作</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="str">
         <f>INDEX(Define!B:B,MATCH(H86,Define!A:A))</f>
-        <v>なし</v>
+        <v>単体</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -8685,35 +8706,35 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N86" t="str">
         <f>INDEX(Define!E:E,MATCH(M86,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O86">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P86" t="str">
         <f>INDEX(Define!H:H,MATCH(O86,Define!G:G))</f>
-        <v>アルカナ使用</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q86">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="R86" t="str">
         <f>INDEX(Define!K:K,MATCH(Q86,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>自身</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T86" t="str">
         <f>INDEX(Define!N:N,MATCH(S86,Define!M:M))</f>
-        <v>全体</v>
+        <v>自身</v>
       </c>
       <c r="U86">
         <v>1</v>
@@ -8724,14 +8745,14 @@
     </row>
     <row r="87" ht="12" customHeight="1" spans="1:22">
       <c r="A87">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B87">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>魔術師</v>
+        <v>愚者</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -8774,11 +8795,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R87" t="str">
         <f>INDEX(Define!K:K,MATCH(Q87,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S87">
         <v>3</v>
@@ -8796,14 +8817,14 @@
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:22">
       <c r="A88">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B88">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>女帝</v>
+        <v>魔術師</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -8868,14 +8889,14 @@
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:22">
       <c r="A89">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B89">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>女教皇</v>
+        <v>女帝</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -8940,14 +8961,14 @@
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:22">
       <c r="A90">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B90">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>皇帝</v>
+        <v>女教皇</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -9012,14 +9033,14 @@
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:22">
       <c r="A91">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B91">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>法王</v>
+        <v>皇帝</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -9062,11 +9083,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q91">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R91" t="str">
         <f>INDEX(Define!K:K,MATCH(Q91,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S91">
         <v>3</v>
@@ -9084,14 +9105,14 @@
     </row>
     <row r="92" ht="12" customHeight="1" spans="1:22">
       <c r="A92">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B92">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>恋愛</v>
+        <v>法王</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -9134,11 +9155,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R92" t="str">
         <f>INDEX(Define!K:K,MATCH(Q92,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S92">
         <v>3</v>
@@ -9156,14 +9177,14 @@
     </row>
     <row r="93" ht="12" customHeight="1" spans="1:22">
       <c r="A93">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B93">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>戦車</v>
+        <v>恋愛</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -9228,14 +9249,14 @@
     </row>
     <row r="94" ht="12" customHeight="1" spans="1:22">
       <c r="A94">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B94">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>正義</v>
+        <v>戦車</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -9278,18 +9299,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q94">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R94" t="str">
         <f>INDEX(Define!K:K,MATCH(Q94,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T94" t="str">
         <f>INDEX(Define!N:N,MATCH(S94,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -9300,14 +9321,14 @@
     </row>
     <row r="95" ht="12" customHeight="1" spans="1:22">
       <c r="A95">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B95">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>隠者</v>
+        <v>正義</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -9350,18 +9371,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R95" t="str">
         <f>INDEX(Define!K:K,MATCH(Q95,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T95" t="str">
         <f>INDEX(Define!N:N,MATCH(S95,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U95">
         <v>1</v>
@@ -9372,14 +9393,14 @@
     </row>
     <row r="96" ht="12" customHeight="1" spans="1:22">
       <c r="A96">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B96">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>運命</v>
+        <v>隠者</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9422,18 +9443,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q96">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R96" t="str">
         <f>INDEX(Define!K:K,MATCH(Q96,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T96" t="str">
         <f>INDEX(Define!N:N,MATCH(S96,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U96">
         <v>1</v>
@@ -9444,14 +9465,14 @@
     </row>
     <row r="97" ht="12" customHeight="1" spans="1:22">
       <c r="A97">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B97">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>剛毅</v>
+        <v>運命</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -9494,18 +9515,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R97" t="str">
         <f>INDEX(Define!K:K,MATCH(Q97,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T97" t="str">
         <f>INDEX(Define!N:N,MATCH(S97,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9516,14 +9537,14 @@
     </row>
     <row r="98" ht="12" customHeight="1" spans="1:22">
       <c r="A98">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B98">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>刑死者</v>
+        <v>剛毅</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -9566,11 +9587,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R98" t="str">
         <f>INDEX(Define!K:K,MATCH(Q98,Define!J:J))</f>
-        <v>相手</v>
+        <v>味方</v>
       </c>
       <c r="S98">
         <v>3</v>
@@ -9588,14 +9609,14 @@
     </row>
     <row r="99" ht="12" customHeight="1" spans="1:22">
       <c r="A99">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B99">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>死神</v>
+        <v>刑死者</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9638,18 +9659,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q99">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R99" t="str">
         <f>INDEX(Define!K:K,MATCH(Q99,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>相手</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T99" t="str">
         <f>INDEX(Define!N:N,MATCH(S99,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U99">
         <v>1</v>
@@ -9660,14 +9681,14 @@
     </row>
     <row r="100" ht="12" customHeight="1" spans="1:22">
       <c r="A100">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B100">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>節制</v>
+        <v>死神</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -9710,18 +9731,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R100" t="str">
         <f>INDEX(Define!K:K,MATCH(Q100,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T100" t="str">
         <f>INDEX(Define!N:N,MATCH(S100,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U100">
         <v>1</v>
@@ -9732,14 +9753,14 @@
     </row>
     <row r="101" ht="12" customHeight="1" spans="1:22">
       <c r="A101">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B101">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>悪魔</v>
+        <v>節制</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -9782,18 +9803,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q101">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R101" t="str">
         <f>INDEX(Define!K:K,MATCH(Q101,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T101" t="str">
         <f>INDEX(Define!N:N,MATCH(S101,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U101">
         <v>1</v>
@@ -9804,14 +9825,14 @@
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:22">
       <c r="A102">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B102">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>塔</v>
+        <v>悪魔</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -9854,18 +9875,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R102" t="str">
         <f>INDEX(Define!K:K,MATCH(Q102,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T102" t="str">
         <f>INDEX(Define!N:N,MATCH(S102,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -9876,14 +9897,14 @@
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:22">
       <c r="A103">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B103">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>星</v>
+        <v>塔</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -9926,11 +9947,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q103">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R103" t="str">
         <f>INDEX(Define!K:K,MATCH(Q103,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S103">
         <v>3</v>
@@ -9948,14 +9969,14 @@
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:22">
       <c r="A104">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B104">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>月</v>
+        <v>星</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -10020,14 +10041,14 @@
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:22">
       <c r="A105">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B105">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>太陽</v>
+        <v>月</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10077,11 +10098,11 @@
         <v>パーティ</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105" t="str">
         <f>INDEX(Define!N:N,MATCH(S105,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -10092,14 +10113,14 @@
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:22">
       <c r="A106">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B106">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
-        <v>審判</v>
+        <v>太陽</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10149,11 +10170,11 @@
         <v>パーティ</v>
       </c>
       <c r="S106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T106" t="str">
         <f>INDEX(Define!N:N,MATCH(S106,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U106">
         <v>1</v>
@@ -10164,14 +10185,14 @@
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:22">
       <c r="A107">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B107">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
-        <v>杖</v>
+        <v>審判</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10221,11 +10242,11 @@
         <v>パーティ</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T107" t="str">
         <f>INDEX(Define!N:N,MATCH(S107,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -10236,14 +10257,14 @@
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:22">
       <c r="A108">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B108">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
-        <v>器</v>
+        <v>杖</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10308,14 +10329,14 @@
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:22">
       <c r="A109">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B109">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
-        <v>剣</v>
+        <v>器</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -10358,18 +10379,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R109" t="str">
         <f>INDEX(Define!K:K,MATCH(Q109,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T109" t="str">
         <f>INDEX(Define!N:N,MATCH(S109,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U109">
         <v>1</v>
@@ -10380,14 +10401,14 @@
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:22">
       <c r="A110">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B110">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
-        <v>貨幣</v>
+        <v>剣</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -10430,18 +10451,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q110">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R110" t="str">
         <f>INDEX(Define!K:K,MATCH(Q110,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T110" t="str">
         <f>INDEX(Define!N:N,MATCH(S110,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -10450,16 +10471,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" ht="12" customHeight="1" spans="1:22">
       <c r="A111">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="B111">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
-        <v>元素術・炎</v>
+        <v>貨幣</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -10472,11 +10493,11 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="str">
         <f>INDEX(Define!B:B,MATCH(H111,Define!A:A))</f>
-        <v>単体</v>
+        <v>なし</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -10488,32 +10509,32 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" t="str">
         <f>INDEX(Define!E:E,MATCH(M111,Define!D:D))</f>
-        <v>炎</v>
+        <v>なし</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P111" t="str">
         <f>INDEX(Define!H:H,MATCH(O111,Define!G:G))</f>
-        <v>なし</v>
+        <v>アルカナ使用</v>
       </c>
       <c r="Q111">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="R111" t="str">
         <f>INDEX(Define!K:K,MATCH(Q111,Define!J:J))</f>
-        <v>自身</v>
+        <v>パーティ</v>
       </c>
       <c r="S111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T111" t="str">
         <f>INDEX(Define!N:N,MATCH(S111,Define!M:M))</f>
-        <v>自身</v>
+        <v>なし</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -10524,14 +10545,14 @@
     </row>
     <row r="112" spans="1:22">
       <c r="A112">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B112">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
-        <v>元素術・雷</v>
+        <v>元素術・炎</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -10560,11 +10581,11 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N112" t="str">
         <f>INDEX(Define!E:E,MATCH(M112,Define!D:D))</f>
-        <v>雷</v>
+        <v>炎</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -10596,14 +10617,14 @@
     </row>
     <row r="113" spans="1:22">
       <c r="A113">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B113">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
-        <v>元素術・氷</v>
+        <v>元素術・雷</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -10632,11 +10653,11 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N113" t="str">
         <f>INDEX(Define!E:E,MATCH(M113,Define!D:D))</f>
-        <v>氷</v>
+        <v>雷</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -10668,21 +10689,21 @@
     </row>
     <row r="114" spans="1:22">
       <c r="A114">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B114">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
-        <v>光魔術</v>
+        <v>元素術・氷</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="str">
         <f>INDEX(Define!X:X,MATCH(D114,Define!W:W))</f>
-        <v>光</v>
+        <v>元素</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10704,11 +10725,11 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N114" t="str">
         <f>INDEX(Define!E:E,MATCH(M114,Define!D:D))</f>
-        <v>光</v>
+        <v>氷</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -10740,21 +10761,21 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B115">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
-        <v>超次元術</v>
+        <v>光魔術</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" t="str">
         <f>INDEX(Define!X:X,MATCH(D115,Define!W:W))</f>
-        <v>超次元</v>
+        <v>光</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10776,11 +10797,11 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N115" t="str">
         <f>INDEX(Define!E:E,MATCH(M115,Define!D:D))</f>
-        <v>闇</v>
+        <v>光</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -10812,21 +10833,21 @@
     </row>
     <row r="116" spans="1:22">
       <c r="A116">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B116">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>はずす</v>
+        <v>超次元術</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E116" t="str">
         <f>INDEX(Define!X:X,MATCH(D116,Define!W:W))</f>
-        <v>元素</v>
+        <v>超次元</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10848,11 +10869,11 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N116" t="str">
         <f>INDEX(Define!E:E,MATCH(M116,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -10879,6 +10900,78 @@
         <v>1</v>
       </c>
       <c r="V116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117">
+        <v>2009</v>
+      </c>
+      <c r="B117">
+        <v>2009</v>
+      </c>
+      <c r="C117" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
+        <v>はずす</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="str">
+        <f>INDEX(Define!X:X,MATCH(D117,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="str">
+        <f>INDEX(Define!B:B,MATCH(H117,Define!A:A))</f>
+        <v>単体</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="str">
+        <f>INDEX(Define!E:E,MATCH(M117,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="str">
+        <f>INDEX(Define!H:H,MATCH(O117,Define!G:G))</f>
+        <v>なし</v>
+      </c>
+      <c r="Q117">
+        <v>4</v>
+      </c>
+      <c r="R117" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q117,Define!J:J))</f>
+        <v>自身</v>
+      </c>
+      <c r="S117">
+        <v>4</v>
+      </c>
+      <c r="T117" t="str">
+        <f>INDEX(Define!N:N,MATCH(S117,Define!M:M))</f>
+        <v>自身</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
         <v>1</v>
       </c>
     </row>
@@ -10892,10 +10985,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11912,7 +12005,7 @@
         <v>999</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
@@ -12953,53 +13046,57 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B89">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B89,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>ステート付与</v>
       </c>
       <c r="D89">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
-        <v>光適性</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>必中</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B90,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D90">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G90" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D90,[1]TextData!A:A))</f>
+        <v>光適性</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -13020,14 +13117,14 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B92,Define!P:P))</f>
-        <v>Hp吸収ダメージ</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D92">
         <v>150</v>
@@ -13036,32 +13133,28 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B93,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hp吸収ダメージ</v>
       </c>
       <c r="D93">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D93,[1]TextData!A:A))</f>
-        <v>攻撃アップ</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13076,7 +13169,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D94">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -13086,7 +13179,7 @@
       </c>
       <c r="G94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D94,[1]TextData!A:A))</f>
-        <v>防御アップ</v>
+        <v>攻撃アップ</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13101,7 +13194,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D95">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -13111,7 +13204,7 @@
       </c>
       <c r="G95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D95,[1]TextData!A:A))</f>
-        <v>ダメージ威力アップ</v>
+        <v>防御アップ</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13126,7 +13219,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D96">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -13136,7 +13229,7 @@
       </c>
       <c r="G96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D96,[1]TextData!A:A))</f>
-        <v>回避アップ</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -13151,7 +13244,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D97">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13161,7 +13254,7 @@
       </c>
       <c r="G97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D97,[1]TextData!A:A))</f>
-        <v>CA</v>
+        <v>回避アップ</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13176,7 +13269,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D98">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -13186,7 +13279,7 @@
       </c>
       <c r="G98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
-        <v>攻撃無効</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13201,7 +13294,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D99">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -13211,7 +13304,7 @@
       </c>
       <c r="G99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D99,[1]TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13226,7 +13319,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D100">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -13236,7 +13329,7 @@
       </c>
       <c r="G100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D100,[1]TextData!A:A))</f>
-        <v>バニッシュ</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13251,7 +13344,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D101">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -13261,22 +13354,22 @@
       </c>
       <c r="G101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D101,[1]TextData!A:A))</f>
-        <v>祝福</v>
+        <v>バニッシュ</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B102,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステート解除</v>
       </c>
       <c r="D102">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -13286,28 +13379,32 @@
       </c>
       <c r="G102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
-        <v>呪い</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>祝福</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B103,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D103">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
+        <v>呪い</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -13315,14 +13412,14 @@
         <v>511</v>
       </c>
       <c r="B104">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B104,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -13333,17 +13430,17 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B105,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D105">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -13357,14 +13454,14 @@
         <v>512</v>
       </c>
       <c r="B106">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B106,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -13373,34 +13470,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:6">
       <c r="A107">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B107,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D107">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E107">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>33</v>
-      </c>
-      <c r="G107" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D107,[1]TextData!A:A))</f>
-        <v>暗闇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B108">
         <v>21</v>
@@ -13410,22 +13503,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D108">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E108">
         <v>999</v>
       </c>
       <c r="F108">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D108,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -13441,7 +13534,7 @@
         <v>999</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D109,[1]TextData!A:A))</f>
@@ -13450,7 +13543,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -13460,22 +13553,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D110">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E110">
         <v>999</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D110,[1]TextData!A:A))</f>
-        <v>ドレイン</v>
+        <v>クリティカル発生率アップ</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B111">
         <v>21</v>
@@ -13485,124 +13578,128 @@
         <v>ステート付与</v>
       </c>
       <c r="D111">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E111">
         <v>999</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D111,[1]TextData!A:A))</f>
-        <v>攻撃で即死</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>ドレイン</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B112,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G112" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D112,[1]TextData!A:A))</f>
+        <v>攻撃で即死</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B113,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hp回復</v>
       </c>
       <c r="D113">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>25</v>
-      </c>
-      <c r="G113" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D113,[1]TextData!A:A))</f>
-        <v>攻撃で即死</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B114">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B114,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>ステート付与</v>
       </c>
       <c r="D114">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="F114">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D114,[1]TextData!A:A))</f>
-        <v>闇適性</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>攻撃で即死</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
-        <v>1000</v>
+        <v>541</v>
       </c>
       <c r="B115">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B115,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G115" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D115,[1]TextData!A:A))</f>
+        <v>闇適性</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B116">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B116,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -13613,17 +13710,17 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B117,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D117">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13637,11 +13734,11 @@
         <v>1002</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B118,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>Hp回復</v>
       </c>
       <c r="D118">
         <v>30</v>
@@ -13655,17 +13752,17 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B119,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Mp回復</v>
       </c>
       <c r="D119">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -13676,17 +13773,17 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B120">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B120,Define!P:P))</f>
-        <v>Numinouse消費率</v>
+        <v>Hp回復</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -13697,17 +13794,17 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B121">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B121,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>Numinouse消費率</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -13716,19 +13813,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B122">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B122,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -13736,45 +13833,45 @@
       <c r="F122">
         <v>0</v>
       </c>
-      <c r="G122" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D122,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B123">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B123,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>ステート解除</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
+      </c>
+      <c r="G123" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D123,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B124">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B124,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D124">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -13785,17 +13882,17 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B125">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B125,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>隷従属度</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -13806,17 +13903,17 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B126">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B126,Define!P:P))</f>
-        <v>アルカナ変更</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -13827,17 +13924,17 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B127">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B127,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>アルカナ変更</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -13848,17 +13945,17 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B128">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B128,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D128">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -13867,19 +13964,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="12" customHeight="1" spans="1:6">
+    <row r="129" spans="1:6">
       <c r="A129">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B129">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B129,Define!P:P))</f>
-        <v>敵前衛消滅</v>
+        <v>隷従属度</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -13888,55 +13985,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="12" customHeight="1" spans="1:7">
+    <row r="130" ht="12" customHeight="1" spans="1:6">
       <c r="A130">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B130">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B130,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>敵前衛消滅</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D130,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" ht="12" customHeight="1" spans="1:7">
       <c r="A131">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B131">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B131,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>ステート付与</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" ht="12" customHeight="1" spans="1:6">
+      <c r="G131" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D131,[1]TextData!A:A))</f>
+        <v>状態異常無効</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B132">
         <v>307</v>
@@ -13946,7 +14043,7 @@
         <v>ステータスコスト減算</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -13955,19 +14052,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" ht="12" customHeight="1" spans="1:6">
       <c r="A133">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B133">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B133,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -13981,14 +14078,14 @@
         <v>1017</v>
       </c>
       <c r="B134">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B134,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -13999,17 +14096,17 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B135">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B135,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -14023,14 +14120,14 @@
         <v>1018</v>
       </c>
       <c r="B136">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B136,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>SP加算</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -14041,17 +14138,17 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B137">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B137,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14060,16 +14157,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="12" customHeight="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B138">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B138,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>SP加算</v>
       </c>
       <c r="D138">
         <v>10</v>
@@ -14081,19 +14178,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" ht="12" customHeight="1" spans="1:6">
       <c r="A139">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B139">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B139,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14104,17 +14201,17 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B140,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -14125,14 +14222,14 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Mp回復</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -14146,22 +14243,43 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B142">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
+        <v>Hp回復</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>1025</v>
+      </c>
+      <c r="B143">
+        <v>301</v>
+      </c>
+      <c r="C143" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
         <v>Numinous加算</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
         <v>0</v>
       </c>
     </row>
@@ -14174,10 +14292,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14924,22 +15042,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -14947,30 +15065,30 @@
         <v>511</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -14984,16 +15102,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -15004,7 +15122,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -15013,7 +15131,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -15024,16 +15142,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -15044,16 +15162,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -15064,21 +15182,41 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
+        <v>535</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
         <v>536</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>3</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>42</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>0</v>
       </c>
     </row>
@@ -15091,10 +15229,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -15180,15 +15318,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="26" spans="1:3">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -15196,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -15207,10 +15345,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15218,10 +15356,10 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15229,10 +15367,10 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15240,10 +15378,10 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:3">
@@ -15251,10 +15389,10 @@
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:3">
@@ -15262,10 +15400,10 @@
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15273,10 +15411,10 @@
         <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -15284,10 +15422,10 @@
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:3">
@@ -15295,10 +15433,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -15306,10 +15444,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:3">
@@ -15317,10 +15455,10 @@
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" ht="26" spans="1:3">
@@ -15328,10 +15466,10 @@
         <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="26" spans="1:3">
@@ -15339,10 +15477,10 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:3">
@@ -15350,10 +15488,10 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -15361,10 +15499,10 @@
         <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -15372,10 +15510,10 @@
         <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -15383,10 +15521,10 @@
         <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -15394,10 +15532,10 @@
         <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15405,10 +15543,10 @@
         <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15416,10 +15554,10 @@
         <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" ht="26" spans="1:3">
@@ -15427,10 +15565,10 @@
         <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>115</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" ht="28" customHeight="1" spans="1:3">
@@ -15438,10 +15576,10 @@
         <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -15449,10 +15587,10 @@
         <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15460,10 +15598,10 @@
         <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15471,10 +15609,10 @@
         <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15482,10 +15620,10 @@
         <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" ht="26" spans="1:3">
@@ -15493,10 +15631,10 @@
         <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15504,10 +15642,10 @@
         <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" ht="26" spans="1:3">
@@ -15515,10 +15653,10 @@
         <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15526,10 +15664,10 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>133</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15537,10 +15675,10 @@
         <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15548,10 +15686,10 @@
         <v>302</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15559,10 +15697,10 @@
         <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15570,10 +15708,10 @@
         <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15581,10 +15719,10 @@
         <v>305</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="26" spans="1:3">
@@ -15592,10 +15730,10 @@
         <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="26" spans="1:3">
@@ -15603,10 +15741,10 @@
         <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15614,10 +15752,10 @@
         <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15625,10 +15763,10 @@
         <v>331</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15636,10 +15774,10 @@
         <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="26" spans="1:3">
@@ -15647,10 +15785,10 @@
         <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -15658,10 +15796,10 @@
         <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>156</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="26" spans="1:3">
@@ -15669,10 +15807,10 @@
         <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>158</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="26" spans="1:3">
@@ -15680,10 +15818,10 @@
         <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>160</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -15691,10 +15829,10 @@
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>162</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -15702,10 +15840,10 @@
         <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -15713,10 +15851,10 @@
         <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="26" spans="1:3">
@@ -15724,10 +15862,10 @@
         <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>168</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -15735,10 +15873,10 @@
         <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -15746,10 +15884,10 @@
         <v>405</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="26" spans="1:3">
@@ -15757,10 +15895,10 @@
         <v>411</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="2" t="s">
         <v>174</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" ht="26" spans="1:3">
@@ -15768,10 +15906,10 @@
         <v>412</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -15779,10 +15917,10 @@
         <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="2" t="s">
         <v>178</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -15790,10 +15928,10 @@
         <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -15801,10 +15939,10 @@
         <v>432</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -15812,10 +15950,10 @@
         <v>433</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -15823,10 +15961,10 @@
         <v>434</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" ht="26" spans="1:3">
@@ -15834,10 +15972,10 @@
         <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="26" spans="1:3">
@@ -15845,205 +15983,205 @@
         <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>190</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="2" t="s">
         <v>192</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" t="s">
-        <v>76</v>
+        <v>194</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
+        <v>501</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
         <v>502</v>
       </c>
-      <c r="B71" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" ht="26" spans="1:3">
-      <c r="A72">
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" ht="26" spans="1:3">
+      <c r="A73">
         <v>503</v>
       </c>
-      <c r="B72" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="B73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
         <v>504</v>
       </c>
-      <c r="B73" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" ht="26" spans="1:3">
-      <c r="A74">
-        <v>505</v>
-      </c>
       <c r="B74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="2" t="s">
         <v>201</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" ht="26" spans="1:3">
       <c r="A75">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="2" t="s">
         <v>203</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" ht="26" spans="1:3">
       <c r="A76">
+        <v>511</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" ht="26" spans="1:3">
+      <c r="A77">
         <v>512</v>
       </c>
-      <c r="B76" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>521</v>
-      </c>
       <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
+        <v>521</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
         <v>531</v>
       </c>
-      <c r="B78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" ht="26" spans="1:3">
-      <c r="A79">
-        <v>532</v>
-      </c>
       <c r="B79" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="2" t="s">
         <v>211</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="80" ht="26" spans="1:3">
       <c r="A80">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" s="2" t="s">
         <v>213</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="81" ht="26" spans="1:3">
       <c r="A81">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" s="2" t="s">
         <v>215</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="82" ht="26" spans="1:3">
       <c r="A82">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="2" t="s">
         <v>217</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" ht="26" spans="1:3">
       <c r="A83">
+        <v>535</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" ht="26" spans="1:3">
+      <c r="A84">
         <v>536</v>
       </c>
-      <c r="B83" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>541</v>
-      </c>
       <c r="B84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1000</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
+        <v>223</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -16051,10 +16189,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -16062,10 +16200,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -16073,10 +16211,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -16084,10 +16222,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -16095,10 +16233,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -16106,10 +16244,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -16117,10 +16255,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -16128,10 +16266,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -16139,10 +16277,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -16150,10 +16288,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -16161,21 +16299,21 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" ht="12" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -16183,21 +16321,21 @@
     </row>
     <row r="99" ht="12" customHeight="1" spans="1:3">
       <c r="A99">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="12" customHeight="1" spans="1:3">
       <c r="A100">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -16205,10 +16343,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -16216,10 +16354,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -16227,10 +16365,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -16238,10 +16376,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -16249,10 +16387,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -16260,10 +16398,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -16271,10 +16409,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -16282,10 +16420,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -16293,10 +16431,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -16304,67 +16442,78 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
+        <v>2005</v>
+      </c>
+      <c r="B115" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
         <v>2009</v>
       </c>
-      <c r="B115" t="s">
-        <v>257</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16411,16 +16560,16 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="U1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="W1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -16428,49 +16577,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -16478,49 +16627,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>267</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>264</v>
-      </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -16528,49 +16677,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>274</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>271</v>
-      </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -16578,13 +16727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -16596,31 +16745,31 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="4:24">
@@ -16628,43 +16777,43 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="4:24">
@@ -16672,43 +16821,43 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="7:24">
@@ -16716,25 +16865,25 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="16:24">
@@ -16742,19 +16891,19 @@
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="16:24">
@@ -16762,19 +16911,19 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="16:24">
@@ -16782,19 +16931,19 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="16:22">
@@ -16802,13 +16951,13 @@
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="16:22">
@@ -16816,13 +16965,13 @@
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="16:22">
@@ -16830,13 +16979,13 @@
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="16:22">
@@ -16844,13 +16993,13 @@
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="16:22">
@@ -16858,13 +17007,13 @@
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="16:22">
@@ -16872,13 +17021,13 @@
         <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="16:22">
@@ -16886,13 +17035,13 @@
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="16:17">
@@ -16900,7 +17049,7 @@
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="16:17">
@@ -16908,7 +17057,7 @@
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="16:17">
@@ -16916,7 +17065,7 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="16:17">
@@ -16924,7 +17073,7 @@
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="16:17">
@@ -16932,7 +17081,7 @@
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="16:17">
@@ -16940,7 +17089,7 @@
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="16:17">
@@ -16948,7 +17097,7 @@
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   </si>
   <si>
     <t>(条件)敵の行動で味方が戦闘不能
-味方全員に攻撃無効1回を付与 神化状態に移行</t>
+味方全員に攻撃無効2回を付与 神化状態に移行</t>
   </si>
   <si>
     <t>ノロマナカメニナレ</t>
@@ -1055,10 +1055,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1070,7 +1070,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,28 +1086,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,9 +1099,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,10 +1130,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1166,8 +1151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,22 +1162,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,6 +1182,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1228,7 +1228,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,43 +1384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,127 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,15 +1419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1463,10 +1454,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1477,6 +1466,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,7 +1500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,157 +1527,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2426,8 +2423,8 @@
     <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
     <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
     <col min="11" max="12" width="6.63636363636364" customWidth="1"/>
-    <col min="13" max="13" width="4.54545454545455" style="4" customWidth="1"/>
-    <col min="14" max="14" width="4.90909090909091" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.54545454545455" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4.90909090909091" style="3" customWidth="1"/>
     <col min="15" max="15" width="4.72727272727273" customWidth="1"/>
     <col min="16" max="16" width="5.54545454545455" customWidth="1"/>
     <col min="17" max="17" width="4.90909090909091" customWidth="1"/>
@@ -10987,8 +10984,8 @@
   <sheetPr/>
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -12198,7 +12195,7 @@
         <v>104</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -15231,7 +15228,7 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -15391,7 +15388,7 @@
       <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -15402,7 +15399,7 @@
       <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -15413,7 +15410,7 @@
       <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15424,7 +15421,7 @@
       <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15435,7 +15432,7 @@
       <c r="B18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15446,7 +15443,7 @@
       <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -15457,7 +15454,7 @@
       <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15468,7 +15465,7 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -15479,7 +15476,7 @@
       <c r="B22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15490,7 +15487,7 @@
       <c r="B23" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -15501,7 +15498,7 @@
       <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15567,7 +15564,7 @@
       <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15578,7 +15575,7 @@
       <c r="B31" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15633,7 +15630,7 @@
       <c r="B36" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15644,7 +15641,7 @@
       <c r="B37" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15655,7 +15652,7 @@
       <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -15666,7 +15663,7 @@
       <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -15732,7 +15729,7 @@
       <c r="B45" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15743,7 +15740,7 @@
       <c r="B46" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15754,7 +15751,7 @@
       <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15787,7 +15784,7 @@
       <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -15798,7 +15795,7 @@
       <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -15809,7 +15806,7 @@
       <c r="B52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -15820,7 +15817,7 @@
       <c r="B53" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -15831,7 +15828,7 @@
       <c r="B54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -15864,7 +15861,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -15897,7 +15894,7 @@
       <c r="B60" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15908,7 +15905,7 @@
       <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -15919,7 +15916,7 @@
       <c r="B62" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -15974,7 +15971,7 @@
       <c r="B67" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -15985,7 +15982,7 @@
       <c r="B68" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -15996,7 +15993,7 @@
       <c r="B69" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -16007,7 +16004,7 @@
       <c r="B70" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16029,7 +16026,7 @@
       <c r="B72" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16040,7 +16037,7 @@
       <c r="B73" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16051,7 +16048,7 @@
       <c r="B74" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16062,7 +16059,7 @@
       <c r="B75" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -16073,7 +16070,7 @@
       <c r="B76" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16084,7 +16081,7 @@
       <c r="B77" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -16095,7 +16092,7 @@
       <c r="B78" t="s">
         <v>209</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -16106,7 +16103,7 @@
       <c r="B79" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -16117,7 +16114,7 @@
       <c r="B80" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -16128,7 +16125,7 @@
       <c r="B81" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16139,7 +16136,7 @@
       <c r="B82" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -16150,7 +16147,7 @@
       <c r="B83" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16161,7 +16158,7 @@
       <c r="B84" t="s">
         <v>221</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -16172,7 +16169,7 @@
       <c r="B85" t="s">
         <v>223</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>224</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   </si>
   <si>
     <t>(条件)拘束解除攻撃を3回成功
-拘束成功値拘束ダメージアップ 神化状態に移行</t>
+拘束成功数分拘束ダメージアップ 神化状態に移行</t>
   </si>
   <si>
     <t>ユビサキデカラメトル</t>
@@ -574,7 +574,7 @@
   </si>
   <si>
     <t>(条件)神化状態
-味方全員に10回復のリジェネ付与 神化解除</t>
+味方全員に10回復のリジェネ付与(永続) 神化解除</t>
   </si>
   <si>
     <t>ホーリーグレイス</t>
@@ -1055,10 +1055,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1069,8 +1069,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,15 +1093,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,6 +1135,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1121,57 +1189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,32 +1206,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1228,7 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1246,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,91 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,55 +1402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,17 +1422,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,11 +1446,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,6 +1466,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,30 +1519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1527,145 +1527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1838,7 +1838,7 @@
             <v>32</v>
           </cell>
           <cell r="B11" t="str">
-            <v>攻撃範囲延長</v>
+            <v>対象範囲延長</v>
           </cell>
         </row>
         <row r="12">
@@ -2038,7 +2038,7 @@
             <v>114</v>
           </cell>
           <cell r="B36" t="str">
-            <v>攻撃で即死</v>
+            <v>即死</v>
           </cell>
         </row>
         <row r="37">
@@ -2408,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -5257,11 +5257,11 @@
         <v>雷</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P39" t="str">
         <f>INDEX(Define!H:H,MATCH(O39,Define!G:G))</f>
-        <v>使い切りパッシブ</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8569,11 +8569,11 @@
         <v>闇</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P84" t="str">
         <f>INDEX(Define!H:H,MATCH(O84,Define!G:G))</f>
-        <v>使い切りパッシブ</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -10982,10 +10982,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A101" sqref="$A101:$XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="G40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D40,[1]TextData!A:A))</f>
-        <v>攻撃範囲延長</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -13341,7 +13341,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D101">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -13351,22 +13351,22 @@
       </c>
       <c r="G101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D101,[1]TextData!A:A))</f>
-        <v>バニッシュ</v>
+        <v>祝福</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B102,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステート付与</v>
       </c>
       <c r="D102">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -13376,32 +13376,28 @@
       </c>
       <c r="G102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
-        <v>祝福</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>呪い</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B103,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D103">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
-      </c>
-      <c r="G103" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
-        <v>呪い</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -13409,14 +13405,14 @@
         <v>511</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B104,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D104">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -13427,17 +13423,17 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B105">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B105,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -13451,14 +13447,14 @@
         <v>512</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B106,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D106">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -13467,30 +13463,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="A107">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B107">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B107,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>ステート付与</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G107" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D107,[1]TextData!A:A))</f>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B108">
         <v>21</v>
@@ -13500,22 +13500,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E108">
         <v>999</v>
       </c>
       <c r="F108">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D108,[1]TextData!A:A))</f>
-        <v>暗闇</v>
+        <v>クリティカル発生率アップ</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -13531,7 +13531,7 @@
         <v>999</v>
       </c>
       <c r="F109">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D109,[1]TextData!A:A))</f>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -13550,22 +13550,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D110">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E110">
         <v>999</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D110,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B111">
         <v>21</v>
@@ -13575,128 +13575,124 @@
         <v>ステート付与</v>
       </c>
       <c r="D111">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E111">
         <v>999</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D111,[1]TextData!A:A))</f>
-        <v>ドレイン</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>即死</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B112,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hp回復</v>
       </c>
       <c r="D112">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>5</v>
-      </c>
-      <c r="G112" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D112,[1]TextData!A:A))</f>
-        <v>攻撃で即死</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B113,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G113" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D113,[1]TextData!A:A))</f>
+        <v>即死</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B114,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D114">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="E114">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="F114">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D114,[1]TextData!A:A))</f>
-        <v>攻撃で即死</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>闇適性</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
-        <v>541</v>
+        <v>1000</v>
       </c>
       <c r="B115">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B115,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D115">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>20</v>
-      </c>
-      <c r="G115" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D115,[1]TextData!A:A))</f>
-        <v>闇適性</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B116">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B116,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>SP加算</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -13707,17 +13703,17 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B117">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B117,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>Hp回復</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13731,11 +13727,11 @@
         <v>1002</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B118,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Mp回復</v>
       </c>
       <c r="D118">
         <v>30</v>
@@ -13749,17 +13745,17 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B119,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>Hp回復</v>
       </c>
       <c r="D119">
-        <v>30</v>
+        <v>999</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -13770,17 +13766,17 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B120,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Numinouse消費率</v>
       </c>
       <c r="D120">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -13791,17 +13787,17 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B121">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B121,Define!P:P))</f>
-        <v>Numinouse消費率</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -13810,19 +13806,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7">
       <c r="A122">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B122">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B122,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>ステート解除</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -13830,45 +13826,45 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="G122" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D122,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B123">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B123,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
-      </c>
-      <c r="G123" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D123,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B124">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B124,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>隷従属度</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -13879,17 +13875,17 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B125">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B125,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D125">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -13900,17 +13896,17 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B126">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B126,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>アルカナ変更</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -13921,17 +13917,17 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B127">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B127,Define!P:P))</f>
-        <v>アルカナ変更</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -13942,17 +13938,17 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B128">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B128,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>隷従属度</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>-30</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -13961,19 +13957,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" ht="12" customHeight="1" spans="1:6">
       <c r="A129">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B129">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B129,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>敵前衛消滅</v>
       </c>
       <c r="D129">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -13982,55 +13978,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="12" customHeight="1" spans="1:6">
+    <row r="130" ht="12" customHeight="1" spans="1:7">
       <c r="A130">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B130">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B130,Define!P:P))</f>
-        <v>敵前衛消滅</v>
+        <v>ステート付与</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" ht="12" customHeight="1" spans="1:7">
+      <c r="G130" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D130,[1]TextData!A:A))</f>
+        <v>状態異常無効</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B131,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D131">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D131,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" ht="12" customHeight="1" spans="1:6">
       <c r="A132">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B132">
         <v>307</v>
@@ -14040,7 +14036,7 @@
         <v>ステータスコスト減算</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -14049,19 +14045,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="12" customHeight="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B133">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B133,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14075,14 +14071,14 @@
         <v>1017</v>
       </c>
       <c r="B134">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B134,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -14093,17 +14089,17 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B135">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B135,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>SP加算</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -14117,14 +14113,14 @@
         <v>1018</v>
       </c>
       <c r="B136">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B136,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -14135,17 +14131,17 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B137">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B137,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>SP加算</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14154,16 +14150,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" ht="12" customHeight="1" spans="1:6">
       <c r="A138">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B138">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B138,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D138">
         <v>10</v>
@@ -14175,19 +14171,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="12" customHeight="1" spans="1:6">
+    <row r="139" spans="1:6">
       <c r="A139">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B139">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B139,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>SP加算</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14198,17 +14194,17 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B140">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B140,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>Mp回復</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -14219,14 +14215,14 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>Hp回復</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -14240,43 +14236,22 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>1025</v>
-      </c>
-      <c r="B143">
-        <v>301</v>
-      </c>
-      <c r="C143" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
-        <v>Numinous加算</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
         <v>0</v>
       </c>
     </row>
@@ -15228,8 +15203,8 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -15557,7 +15532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" ht="26" spans="1:3">
+    <row r="30" ht="39" spans="1:3">
       <c r="A30">
         <v>211</v>
       </c>
@@ -15898,7 +15873,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" ht="26" spans="1:3">
+    <row r="61" ht="39" spans="1:3">
       <c r="A61">
         <v>412</v>
       </c>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   </si>
   <si>
     <t>(条件)神化状態
-敵全体に1ダメージの拘束付与 神化解除</t>
+敵全体に5ダメージの拘束付与 神化解除</t>
   </si>
   <si>
     <t>アクセラレイト</t>
@@ -1077,6 +1077,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1086,12 +1140,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1162,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,94 +1207,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1234,7 +1234,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1288,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,79 +1378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,73 +1402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,26 +1446,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1485,11 +1470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,16 +1496,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1527,7 +1527,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1536,7 +1536,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,49 +1545,49 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1596,76 +1596,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10984,8 +10984,8 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="$A101:$XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11810,7 +11810,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D36,[1]TextData!A:A))</f>
@@ -15203,8 +15203,8 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <t>ヒーリング</t>
   </si>
   <si>
-    <t>敵味方一人のHpを回復
+    <t>敵味方一人のHpを25回復
 アンデッドにはダメージ アンデッド特攻</t>
   </si>
   <si>
@@ -567,7 +567,7 @@
   </si>
   <si>
     <t>(条件)自身のみが生存
-味方全員を蘇生する 神化状態に移行</t>
+味方全員を蘇生してHpを50回復 神化状態に移行</t>
   </si>
   <si>
     <t>エンジェルフェザー</t>
@@ -580,7 +580,7 @@
     <t>ホーリーグレイス</t>
   </si>
   <si>
-    <t>味方一人を蘇生する</t>
+    <t>味方一人を蘇生してHpを25回復</t>
   </si>
   <si>
     <t>ディバインシールド</t>
@@ -1055,10 +1055,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1066,6 +1066,51 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,9 +1122,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,36 +1176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1131,16 +1183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,14 +1200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,44 +1208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,7 +1228,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1264,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,163 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,11 +1422,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,48 +1470,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1499,8 +1488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,6 +1508,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1527,145 +1527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2408,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3117,11 +3117,11 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX(Define!E:E,MATCH(M10,Define!D:D))</f>
-        <v>闇</v>
+        <v>なし</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -10984,7 +10984,7 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -15203,8 +15203,8 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <t>メルトバースト</t>
   </si>
   <si>
-    <t>敵一列に10ダメージの火傷付与</t>
+    <t>敵一列に10ダメージの火傷付与(永続)</t>
   </si>
   <si>
     <t>ウルフソウル</t>
@@ -1057,8 +1057,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1069,16 +1069,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,26 +1114,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,9 +1136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,16 +1151,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,7 +1184,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,20 +1208,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,7 +1228,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,13 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,61 +1366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,61 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,21 +1419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1476,6 +1461,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1490,21 +1505,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,16 +1527,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,127 +1545,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2408,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6867,7 +6867,7 @@
         <v>単体</v>
       </c>
       <c r="J61">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -6942,7 +6942,7 @@
         <v>単体</v>
       </c>
       <c r="J62">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -10984,8 +10984,8 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11406,7 +11406,7 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -15203,8 +15203,8 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,7 @@
     <t>ヒーリング</t>
   </si>
   <si>
-    <t>敵味方一人のHpを25回復
-アンデッドにはダメージ アンデッド特攻</t>
+    <t>敵味方一人のHpを25回復 アンデッド特攻</t>
   </si>
   <si>
     <t>リフレッシュ</t>
@@ -1057,8 +1056,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1069,17 +1068,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,6 +1104,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1099,8 +1112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,6 +1125,14 @@
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1137,7 +1159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,39 +1173,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1198,18 +1204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1223,96 +1222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,7 +1275,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,13 +1341,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,37 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,6 +1418,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1433,6 +1447,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,61 +1510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,16 +1526,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,127 +1544,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2408,7 +2407,7 @@
   <sheetPr/>
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
@@ -15203,8 +15202,8 @@
   <sheetPr/>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -15829,7 +15828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" ht="26" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>403</v>
       </c>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
   <si>
     <t>Id</t>
   </si>
@@ -657,7 +657,7 @@
     <t>ディプラヴィティ</t>
   </si>
   <si>
-    <t>敵単体に呪いを付与
+    <t>敵単体に呪いを付与(永続)
 自身のダメージを付与者にも与える</t>
   </si>
   <si>
@@ -715,17 +715,22 @@
 Hpが10回復</t>
   </si>
   <si>
-    <t>カタストロフ</t>
-  </si>
-  <si>
-    <t>(条件)Hpが42の時
-25%の確率で即死付与</t>
+    <t>アンデッドペイン</t>
+  </si>
+  <si>
+    <t>常時アンデット状態になる</t>
   </si>
   <si>
     <t>ダークエンチャント</t>
   </si>
   <si>
     <t>味方全員の闇属性適性がアップ</t>
+  </si>
+  <si>
+    <t>エンドオブライフ</t>
+  </si>
+  <si>
+    <t>魂を浄化する</t>
   </si>
   <si>
     <t>愚者</t>
@@ -1054,8 +1059,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -1069,90 +1074,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,31 +1094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1204,11 +1110,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1227,13 +1232,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,43 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,31 +1370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,25 +1394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,49 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,17 +1426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,17 +1450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1473,15 +1461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,6 +1483,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1512,9 +1515,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1526,7 +1531,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1535,7 +1540,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,127 +1549,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2405,10 +2410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -8604,7 +8609,7 @@
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>カタストロフ</v>
+        <v>アンデッドペイン</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -8741,61 +8746,64 @@
     </row>
     <row r="87" ht="12" customHeight="1" spans="1:22">
       <c r="A87">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="B87">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>愚者</v>
+        <v>エンドオブライフ</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" t="str">
         <f>INDEX(Define!X:X,MATCH(D87,Define!W:W))</f>
-        <v>元素</v>
+        <v>超次元</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87" t="str">
         <f>INDEX(Define!B:B,MATCH(H87,Define!A:A))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N87" t="str">
         <f>INDEX(Define!E:E,MATCH(M87,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O87">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P87" t="str">
         <f>INDEX(Define!H:H,MATCH(O87,Define!G:G))</f>
-        <v>アルカナ使用</v>
+        <v>魔法</v>
       </c>
       <c r="Q87">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R87" t="str">
         <f>INDEX(Define!K:K,MATCH(Q87,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>相手</v>
       </c>
       <c r="S87">
         <v>3</v>
@@ -8813,14 +8821,14 @@
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:22">
       <c r="A88">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B88">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>魔術師</v>
+        <v>愚者</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -8863,11 +8871,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R88" t="str">
         <f>INDEX(Define!K:K,MATCH(Q88,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S88">
         <v>3</v>
@@ -8885,14 +8893,14 @@
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:22">
       <c r="A89">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B89">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>女帝</v>
+        <v>魔術師</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -8957,14 +8965,14 @@
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:22">
       <c r="A90">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B90">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>女教皇</v>
+        <v>女帝</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -9029,14 +9037,14 @@
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:22">
       <c r="A91">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B91">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>皇帝</v>
+        <v>女教皇</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -9101,14 +9109,14 @@
     </row>
     <row r="92" ht="12" customHeight="1" spans="1:22">
       <c r="A92">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B92">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>法王</v>
+        <v>皇帝</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -9151,11 +9159,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q92">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R92" t="str">
         <f>INDEX(Define!K:K,MATCH(Q92,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S92">
         <v>3</v>
@@ -9173,14 +9181,14 @@
     </row>
     <row r="93" ht="12" customHeight="1" spans="1:22">
       <c r="A93">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B93">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>恋愛</v>
+        <v>法王</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -9223,11 +9231,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R93" t="str">
         <f>INDEX(Define!K:K,MATCH(Q93,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S93">
         <v>3</v>
@@ -9245,14 +9253,14 @@
     </row>
     <row r="94" ht="12" customHeight="1" spans="1:22">
       <c r="A94">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B94">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>戦車</v>
+        <v>恋愛</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -9317,14 +9325,14 @@
     </row>
     <row r="95" ht="12" customHeight="1" spans="1:22">
       <c r="A95">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B95">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>正義</v>
+        <v>戦車</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -9367,18 +9375,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q95">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R95" t="str">
         <f>INDEX(Define!K:K,MATCH(Q95,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T95" t="str">
         <f>INDEX(Define!N:N,MATCH(S95,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U95">
         <v>1</v>
@@ -9389,14 +9397,14 @@
     </row>
     <row r="96" ht="12" customHeight="1" spans="1:22">
       <c r="A96">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B96">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>隠者</v>
+        <v>正義</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9439,18 +9447,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R96" t="str">
         <f>INDEX(Define!K:K,MATCH(Q96,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T96" t="str">
         <f>INDEX(Define!N:N,MATCH(S96,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U96">
         <v>1</v>
@@ -9461,14 +9469,14 @@
     </row>
     <row r="97" ht="12" customHeight="1" spans="1:22">
       <c r="A97">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B97">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>運命</v>
+        <v>隠者</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -9511,18 +9519,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q97">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R97" t="str">
         <f>INDEX(Define!K:K,MATCH(Q97,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T97" t="str">
         <f>INDEX(Define!N:N,MATCH(S97,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U97">
         <v>1</v>
@@ -9533,14 +9541,14 @@
     </row>
     <row r="98" ht="12" customHeight="1" spans="1:22">
       <c r="A98">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B98">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>剛毅</v>
+        <v>運命</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -9583,18 +9591,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R98" t="str">
         <f>INDEX(Define!K:K,MATCH(Q98,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T98" t="str">
         <f>INDEX(Define!N:N,MATCH(S98,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U98">
         <v>1</v>
@@ -9605,14 +9613,14 @@
     </row>
     <row r="99" ht="12" customHeight="1" spans="1:22">
       <c r="A99">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B99">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>刑死者</v>
+        <v>剛毅</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9655,11 +9663,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R99" t="str">
         <f>INDEX(Define!K:K,MATCH(Q99,Define!J:J))</f>
-        <v>相手</v>
+        <v>味方</v>
       </c>
       <c r="S99">
         <v>3</v>
@@ -9677,14 +9685,14 @@
     </row>
     <row r="100" ht="12" customHeight="1" spans="1:22">
       <c r="A100">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B100">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>死神</v>
+        <v>刑死者</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -9727,18 +9735,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q100">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R100" t="str">
         <f>INDEX(Define!K:K,MATCH(Q100,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>相手</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T100" t="str">
         <f>INDEX(Define!N:N,MATCH(S100,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U100">
         <v>1</v>
@@ -9749,14 +9757,14 @@
     </row>
     <row r="101" ht="12" customHeight="1" spans="1:22">
       <c r="A101">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B101">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>節制</v>
+        <v>死神</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -9799,18 +9807,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R101" t="str">
         <f>INDEX(Define!K:K,MATCH(Q101,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T101" t="str">
         <f>INDEX(Define!N:N,MATCH(S101,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U101">
         <v>1</v>
@@ -9821,14 +9829,14 @@
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:22">
       <c r="A102">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B102">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>悪魔</v>
+        <v>節制</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -9871,18 +9879,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q102">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R102" t="str">
         <f>INDEX(Define!K:K,MATCH(Q102,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T102" t="str">
         <f>INDEX(Define!N:N,MATCH(S102,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -9893,14 +9901,14 @@
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:22">
       <c r="A103">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B103">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>塔</v>
+        <v>悪魔</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -9943,18 +9951,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R103" t="str">
         <f>INDEX(Define!K:K,MATCH(Q103,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T103" t="str">
         <f>INDEX(Define!N:N,MATCH(S103,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U103">
         <v>1</v>
@@ -9965,14 +9973,14 @@
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:22">
       <c r="A104">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B104">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>星</v>
+        <v>塔</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -10015,11 +10023,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q104">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R104" t="str">
         <f>INDEX(Define!K:K,MATCH(Q104,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S104">
         <v>3</v>
@@ -10037,14 +10045,14 @@
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:22">
       <c r="A105">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B105">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>月</v>
+        <v>星</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10109,14 +10117,14 @@
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:22">
       <c r="A106">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B106">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
-        <v>太陽</v>
+        <v>月</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10166,11 +10174,11 @@
         <v>パーティ</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T106" t="str">
         <f>INDEX(Define!N:N,MATCH(S106,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U106">
         <v>1</v>
@@ -10181,14 +10189,14 @@
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:22">
       <c r="A107">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B107">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
-        <v>審判</v>
+        <v>太陽</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10238,11 +10246,11 @@
         <v>パーティ</v>
       </c>
       <c r="S107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T107" t="str">
         <f>INDEX(Define!N:N,MATCH(S107,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -10253,14 +10261,14 @@
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:22">
       <c r="A108">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B108">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
-        <v>杖</v>
+        <v>審判</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10310,11 +10318,11 @@
         <v>パーティ</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T108" t="str">
         <f>INDEX(Define!N:N,MATCH(S108,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U108">
         <v>1</v>
@@ -10325,14 +10333,14 @@
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:22">
       <c r="A109">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B109">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
-        <v>器</v>
+        <v>杖</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -10397,14 +10405,14 @@
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:22">
       <c r="A110">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B110">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
-        <v>剣</v>
+        <v>器</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -10447,18 +10455,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R110" t="str">
         <f>INDEX(Define!K:K,MATCH(Q110,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T110" t="str">
         <f>INDEX(Define!N:N,MATCH(S110,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -10469,14 +10477,14 @@
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:22">
       <c r="A111">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B111">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
-        <v>貨幣</v>
+        <v>剣</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -10519,18 +10527,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q111">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R111" t="str">
         <f>INDEX(Define!K:K,MATCH(Q111,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T111" t="str">
         <f>INDEX(Define!N:N,MATCH(S111,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -10539,16 +10547,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" ht="12" customHeight="1" spans="1:22">
       <c r="A112">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="B112">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
-        <v>元素術・炎</v>
+        <v>貨幣</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -10561,11 +10569,11 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="str">
         <f>INDEX(Define!B:B,MATCH(H112,Define!A:A))</f>
-        <v>単体</v>
+        <v>なし</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -10577,32 +10585,32 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="str">
         <f>INDEX(Define!E:E,MATCH(M112,Define!D:D))</f>
-        <v>炎</v>
+        <v>なし</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P112" t="str">
         <f>INDEX(Define!H:H,MATCH(O112,Define!G:G))</f>
-        <v>なし</v>
+        <v>アルカナ使用</v>
       </c>
       <c r="Q112">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="R112" t="str">
         <f>INDEX(Define!K:K,MATCH(Q112,Define!J:J))</f>
-        <v>自身</v>
+        <v>パーティ</v>
       </c>
       <c r="S112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T112" t="str">
         <f>INDEX(Define!N:N,MATCH(S112,Define!M:M))</f>
-        <v>自身</v>
+        <v>なし</v>
       </c>
       <c r="U112">
         <v>1</v>
@@ -10613,14 +10621,14 @@
     </row>
     <row r="113" spans="1:22">
       <c r="A113">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B113">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
-        <v>元素術・雷</v>
+        <v>元素術・炎</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -10649,11 +10657,11 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113" t="str">
         <f>INDEX(Define!E:E,MATCH(M113,Define!D:D))</f>
-        <v>雷</v>
+        <v>炎</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -10685,14 +10693,14 @@
     </row>
     <row r="114" spans="1:22">
       <c r="A114">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B114">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
-        <v>元素術・氷</v>
+        <v>元素術・雷</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -10721,11 +10729,11 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N114" t="str">
         <f>INDEX(Define!E:E,MATCH(M114,Define!D:D))</f>
-        <v>氷</v>
+        <v>雷</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -10757,21 +10765,21 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B115">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
-        <v>光魔術</v>
+        <v>元素術・氷</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="str">
         <f>INDEX(Define!X:X,MATCH(D115,Define!W:W))</f>
-        <v>光</v>
+        <v>元素</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10793,11 +10801,11 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N115" t="str">
         <f>INDEX(Define!E:E,MATCH(M115,Define!D:D))</f>
-        <v>光</v>
+        <v>氷</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -10829,21 +10837,21 @@
     </row>
     <row r="116" spans="1:22">
       <c r="A116">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B116">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>超次元術</v>
+        <v>光魔術</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E116" t="str">
         <f>INDEX(Define!X:X,MATCH(D116,Define!W:W))</f>
-        <v>超次元</v>
+        <v>光</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10865,11 +10873,11 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N116" t="str">
         <f>INDEX(Define!E:E,MATCH(M116,Define!D:D))</f>
-        <v>闇</v>
+        <v>光</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -10901,21 +10909,21 @@
     </row>
     <row r="117" spans="1:22">
       <c r="A117">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B117">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
-        <v>はずす</v>
+        <v>超次元術</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117" t="str">
         <f>INDEX(Define!X:X,MATCH(D117,Define!W:W))</f>
-        <v>元素</v>
+        <v>超次元</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10937,11 +10945,11 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N117" t="str">
         <f>INDEX(Define!E:E,MATCH(M117,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -10968,6 +10976,78 @@
         <v>1</v>
       </c>
       <c r="V117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118">
+        <v>2009</v>
+      </c>
+      <c r="B118">
+        <v>2009</v>
+      </c>
+      <c r="C118" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
+        <v>はずす</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="str">
+        <f>INDEX(Define!X:X,MATCH(D118,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="str">
+        <f>INDEX(Define!B:B,MATCH(H118,Define!A:A))</f>
+        <v>単体</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="str">
+        <f>INDEX(Define!E:E,MATCH(M118,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="str">
+        <f>INDEX(Define!H:H,MATCH(O118,Define!G:G))</f>
+        <v>なし</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q118,Define!J:J))</f>
+        <v>自身</v>
+      </c>
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118" t="str">
+        <f>INDEX(Define!N:N,MATCH(S118,Define!M:M))</f>
+        <v>自身</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
         <v>1</v>
       </c>
     </row>
@@ -10981,10 +11061,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -13368,7 +13448,7 @@
         <v>110</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13620,99 +13700,103 @@
         <v>ステート付与</v>
       </c>
       <c r="D113">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E113">
         <v>999</v>
       </c>
       <c r="F113">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D113,[1]TextData!A:A))</f>
-        <v>即死</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>アンデッド</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B114">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B114,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>Hp回復</v>
       </c>
       <c r="D114">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>20</v>
-      </c>
-      <c r="G114" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D114,[1]TextData!A:A))</f>
-        <v>闇適性</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
-        <v>1000</v>
+        <v>541</v>
       </c>
       <c r="B115">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B115,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G115" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D115,[1]TextData!A:A))</f>
+        <v>闇適性</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
-        <v>1001</v>
+        <v>601</v>
       </c>
       <c r="B116">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B116,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>ステート付与</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F116">
         <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D116,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B117,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D117">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13723,17 +13807,17 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B118,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -13744,7 +13828,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -13754,7 +13838,7 @@
         <v>Hp回復</v>
       </c>
       <c r="D119">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -13765,17 +13849,17 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B120">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B120,Define!P:P))</f>
-        <v>Numinouse消費率</v>
+        <v>Mp回復</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -13786,17 +13870,17 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B121">
-        <v>309</v>
+        <v>2</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B121,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>Hp回復</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -13805,44 +13889,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B122">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B122,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Numinouse消費率</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
-      </c>
-      <c r="G122" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D122,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B123">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B123,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -13851,30 +13931,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:7">
       <c r="A124">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B124">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B124,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステート解除</v>
       </c>
       <c r="D124">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
+      </c>
+      <c r="G124" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D124,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B125">
         <v>307</v>
@@ -13884,7 +13968,7 @@
         <v>ステータスコスト減算</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -13895,17 +13979,17 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B126">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B126,Define!P:P))</f>
-        <v>アルカナ変更</v>
+        <v>隷従属度</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -13916,7 +14000,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B127">
         <v>307</v>
@@ -13926,7 +14010,7 @@
         <v>ステータスコスト減算</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -13937,17 +14021,17 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B128">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B128,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>アルカナ変更</v>
       </c>
       <c r="D128">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -13956,19 +14040,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="12" customHeight="1" spans="1:6">
+    <row r="129" spans="1:6">
       <c r="A129">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B129">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B129,Define!P:P))</f>
-        <v>敵前衛消滅</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -13977,44 +14061,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="12" customHeight="1" spans="1:7">
+    <row r="130" spans="1:6">
       <c r="A130">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B130">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B130,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>隷従属度</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>-30</v>
       </c>
       <c r="E130">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D130,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" ht="12" customHeight="1" spans="1:6">
       <c r="A131">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B131">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B131,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>敵前衛消滅</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -14023,40 +14103,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="12" customHeight="1" spans="1:6">
+    <row r="132" ht="12" customHeight="1" spans="1:7">
       <c r="A132">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B132">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B132,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>ステート付与</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F132">
         <v>0</v>
+      </c>
+      <c r="G132" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D132,[1]TextData!A:A))</f>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B133">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B133,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14065,19 +14149,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" ht="12" customHeight="1" spans="1:6">
       <c r="A134">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B134">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B134,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -14088,14 +14172,14 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B135">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B135,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D135">
         <v>20</v>
@@ -14109,7 +14193,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B136">
         <v>311</v>
@@ -14130,7 +14214,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B137">
         <v>304</v>
@@ -14140,7 +14224,7 @@
         <v>SP加算</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14149,19 +14233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="12" customHeight="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B138">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B138,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>命令不可</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -14172,7 +14256,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B139">
         <v>304</v>
@@ -14182,7 +14266,7 @@
         <v>SP加算</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14191,16 +14275,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" ht="12" customHeight="1" spans="1:6">
       <c r="A140">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B140,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D140">
         <v>10</v>
@@ -14214,17 +14298,17 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -14235,22 +14319,64 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B142">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
+        <v>Mp回復</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>1024</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
+        <v>Hp回復</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>1025</v>
+      </c>
+      <c r="B144">
+        <v>301</v>
+      </c>
+      <c r="C144" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B144,Define!P:P))</f>
         <v>Numinous加算</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
         <v>0</v>
       </c>
     </row>
@@ -14265,8 +14391,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -15176,13 +15302,13 @@
         <v>536</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -15200,10 +15326,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -16125,7 +16251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" ht="26" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>536</v>
       </c>
@@ -16149,21 +16275,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s">
         <v>225</v>
       </c>
-      <c r="C86" t="s">
-        <v>68</v>
+      <c r="C86" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -16171,10 +16297,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -16182,10 +16308,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -16193,10 +16319,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -16204,10 +16330,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -16215,10 +16341,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -16226,10 +16352,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -16237,10 +16363,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -16248,10 +16374,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -16259,10 +16385,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -16270,10 +16396,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -16281,21 +16407,21 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" ht="12" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -16303,21 +16429,21 @@
     </row>
     <row r="100" ht="12" customHeight="1" spans="1:3">
       <c r="A100">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" ht="12" customHeight="1" spans="1:3">
       <c r="A101">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -16325,10 +16451,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -16336,10 +16462,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -16347,10 +16473,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -16358,10 +16484,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -16369,10 +16495,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -16380,10 +16506,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -16391,10 +16517,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -16402,10 +16528,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -16413,10 +16539,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -16424,18 +16550,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B112" t="s">
         <v>252</v>
@@ -16446,7 +16572,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B113" t="s">
         <v>254</v>
@@ -16457,7 +16583,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B114" t="s">
         <v>256</v>
@@ -16468,7 +16594,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B115" t="s">
         <v>258</v>
@@ -16479,12 +16605,23 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B116" t="s">
         <v>260</v>
       </c>
       <c r="C116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>2009</v>
+      </c>
+      <c r="B117" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16531,16 +16668,16 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -16548,49 +16685,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -16598,49 +16735,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>269</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>267</v>
-      </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -16648,49 +16785,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>276</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>274</v>
-      </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -16698,13 +16835,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -16716,31 +16853,31 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="4:24">
@@ -16748,43 +16885,43 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="4:24">
@@ -16792,43 +16929,43 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="7:24">
@@ -16836,25 +16973,25 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="16:24">
@@ -16862,19 +16999,19 @@
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="16:24">
@@ -16882,19 +17019,19 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="16:24">
@@ -16902,19 +17039,19 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="16:22">
@@ -16922,13 +17059,13 @@
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="16:22">
@@ -16936,13 +17073,13 @@
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="16:22">
@@ -16950,13 +17087,13 @@
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="16:22">
@@ -16964,13 +17101,13 @@
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="16:22">
@@ -16978,13 +17115,13 @@
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="16:22">
@@ -16992,13 +17129,13 @@
         <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="16:22">
@@ -17006,13 +17143,13 @@
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="16:17">
@@ -17020,7 +17157,7 @@
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="16:17">
@@ -17028,7 +17165,7 @@
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="16:17">
@@ -17036,7 +17173,7 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="16:17">
@@ -17044,7 +17181,7 @@
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="16:17">
@@ -17052,7 +17189,7 @@
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="16:17">
@@ -17060,7 +17197,7 @@
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="16:17">
@@ -17068,7 +17205,7 @@
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -665,14 +665,14 @@
   </si>
   <si>
     <t>(条件)自身が戦闘不能になる
-敵全体にダメージ 神化状態に移行</t>
+敵全体に大ダメージ 神化状態に移行</t>
   </si>
   <si>
     <t>カオスペイン</t>
   </si>
   <si>
     <t>(条件)神化状態
-敵単体にダメージ 神化解除</t>
+敵単体に特大ダメージ 神化解除</t>
   </si>
   <si>
     <t>ダークネス</t>
@@ -1059,9 +1059,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -1074,14 +1074,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,8 +1155,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1118,77 +1193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,16 +1209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1232,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,145 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,7 +1382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,7 +1400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,6 +1435,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1446,6 +1455,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1482,8 +1500,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1503,26 +1523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1531,145 +1531,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11063,8 +11063,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11440,7 +11440,7 @@
         <v>Hpダメージ</v>
       </c>
       <c r="D17">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -13470,7 +13470,7 @@
         <v>Hpダメージ</v>
       </c>
       <c r="D103">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -13512,7 +13512,7 @@
         <v>Hpダメージ</v>
       </c>
       <c r="D105">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -15328,8 +15328,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1059,9 +1059,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -1074,7 +1074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,20 +1089,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1110,23 +1096,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,7 +1126,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,15 +1169,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1185,9 +1201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,22 +1212,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,13 +1232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,31 +1244,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,7 +1298,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,37 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,31 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,31 +1382,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,24 +1423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1455,30 +1437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,11 +1458,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,6 +1512,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1531,7 +1531,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1540,7 +1540,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1549,127 +1549,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2412,8 +2412,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4731,11 +4731,11 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="str">
         <f>INDEX(Define!B:B,MATCH(H32,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J32">
         <v>26</v>
@@ -11063,7 +11063,7 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -361,7 +361,7 @@
     <t>シャープコード</t>
   </si>
   <si>
-    <t>味方一人に回避率40%アップを付与(永続)</t>
+    <t>味方一人に回避率33%アップを付与(永続)</t>
   </si>
   <si>
     <t>ショックインパルス</t>
@@ -464,7 +464,7 @@
     <t>ディープフリーズ</t>
   </si>
   <si>
-    <t>敵単体に凍結付与</t>
+    <t>敵一列に凍結付与</t>
   </si>
   <si>
     <t>フリジットシェル</t>
@@ -553,7 +553,7 @@
     <t>リフレッシュ</t>
   </si>
   <si>
-    <t>味方一人の状態異常を回復</t>
+    <t>味方一列の状態異常を回復</t>
   </si>
   <si>
     <t>べネディクション</t>
@@ -594,10 +594,10 @@
     <t>行動後自身以外のHpを回復する</t>
   </si>
   <si>
-    <t>アフェクション</t>
-  </si>
-  <si>
-    <t>バトル開始時最大HpとHpが4アップ</t>
+    <t>エイミングスコープ</t>
+  </si>
+  <si>
+    <t>バトル開始時味方全員の命中率が50%アップ</t>
   </si>
   <si>
     <t>リジェネレーション</t>
@@ -1060,9 +1060,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1073,8 +1073,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,14 +1119,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,23 +1172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,10 +1187,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1171,47 +1211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,13 +1250,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1316,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,121 +1358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,6 +1426,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1437,6 +1455,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,54 +1513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1531,145 +1531,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1903,217 +1903,225 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>52</v>
+            <v>51</v>
           </cell>
           <cell r="B19" t="str">
-            <v>回避アップ</v>
+            <v>命中アップ</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>53</v>
+            <v>52</v>
           </cell>
           <cell r="B20" t="str">
-            <v>アクセル</v>
+            <v>回避アップ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>61</v>
+            <v>53</v>
           </cell>
           <cell r="B21" t="str">
-            <v>狙われ率アップ</v>
+            <v>アクセル</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>62</v>
+            <v>61</v>
           </cell>
           <cell r="B22" t="str">
-            <v>狙われ率ダウン</v>
+            <v>狙われ率アップ</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>101</v>
+            <v>62</v>
           </cell>
           <cell r="B23" t="str">
-            <v>拘束</v>
+            <v>狙われ率ダウン</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="B24" t="str">
-            <v>拘束ダメージ</v>
+            <v>拘束</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="B25" t="str">
-            <v>CA</v>
+            <v>拘束ダメージ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>104</v>
+            <v>103</v>
           </cell>
           <cell r="B26" t="str">
-            <v>攻撃無効</v>
+            <v>CA</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>105</v>
+            <v>104</v>
           </cell>
           <cell r="B27" t="str">
-            <v>リジェネ</v>
+            <v>攻撃無効</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>106</v>
+            <v>105</v>
           </cell>
           <cell r="B28" t="str">
-            <v>行動後AP設定</v>
+            <v>リジェネ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>107</v>
+            <v>106</v>
           </cell>
           <cell r="B29" t="str">
-            <v>挑発</v>
+            <v>行動後AP設定</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>108</v>
+            <v>107</v>
           </cell>
           <cell r="B30" t="str">
-            <v>バニッシュ</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>109</v>
+            <v>108</v>
           </cell>
           <cell r="B31" t="str">
-            <v>祝福</v>
+            <v>バニッシュ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>110</v>
+            <v>109</v>
           </cell>
           <cell r="B32" t="str">
-            <v>呪い</v>
+            <v>祝福</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>111</v>
+            <v>110</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ドレイン</v>
+            <v>呪い</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B34" t="str">
-            <v>アフターヒール</v>
+            <v>ドレイン</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>113</v>
+            <v>112</v>
           </cell>
           <cell r="B35" t="str">
-            <v>CAダメージ</v>
+            <v>アフターヒール</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>114</v>
+            <v>113</v>
           </cell>
           <cell r="B36" t="str">
-            <v>即死</v>
+            <v>CAダメージ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>115</v>
+            <v>114</v>
           </cell>
           <cell r="B37" t="str">
-            <v>CA回復</v>
+            <v>即死</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>116</v>
+            <v>115</v>
           </cell>
           <cell r="B38" t="str">
-            <v>同時回復</v>
+            <v>CA回復</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>117</v>
+            <v>116</v>
           </cell>
           <cell r="B39" t="str">
-            <v>アンデッド</v>
+            <v>同時回復</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>118</v>
+            <v>117</v>
           </cell>
           <cell r="B40" t="str">
-            <v>必中</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>201</v>
+            <v>118</v>
           </cell>
           <cell r="B41" t="str">
-            <v>炎適正</v>
+            <v>必中</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B42" t="str">
-            <v>雷適性</v>
+            <v>炎適正</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B43" t="str">
-            <v>氷適性</v>
+            <v>雷適性</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B44" t="str">
-            <v>光適性</v>
+            <v>氷適性</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
+            <v>204</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>光適性</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
             <v>205</v>
           </cell>
-          <cell r="B45" t="str">
+          <cell r="B46" t="str">
             <v>闇適性</v>
           </cell>
         </row>
@@ -2412,8 +2420,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -5722,11 +5730,11 @@
         <v>相手</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="str">
         <f>INDEX(Define!N:N,MATCH(S45,Define!M:M))</f>
-        <v>単体</v>
+        <v>列</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -6751,11 +6759,11 @@
         <v>味方</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T59" t="str">
         <f>INDEX(Define!N:N,MATCH(S59,Define!M:M))</f>
-        <v>単体</v>
+        <v>列</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -7217,7 +7225,7 @@
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>アフェクション</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -7260,18 +7268,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R66" t="str">
         <f>INDEX(Define!K:K,MATCH(Q66,Define!J:J))</f>
-        <v>自身</v>
+        <v>味方</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T66" t="str">
         <f>INDEX(Define!N:N,MATCH(S66,Define!M:M))</f>
-        <v>自身</v>
+        <v>全体</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -11063,8 +11071,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11772,7 +11780,7 @@
         <v>999</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D31,[1]TextData!A:A))</f>
@@ -13032,17 +13040,17 @@
         <v>ステート付与</v>
       </c>
       <c r="D85">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E85">
         <v>999</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D85,[1]TextData!A:A))</f>
-        <v>最大Hpアップ</v>
+        <v>命中アップ</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -14391,8 +14399,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -15328,8 +15336,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -312,28 +312,28 @@
     <t>アサルトシフト</t>
   </si>
   <si>
-    <t>DEFが12ダウンしATKが6アップ</t>
+    <t>DEFが10ダウンしATKが10アップ</t>
   </si>
   <si>
     <t>スタートダッシュ</t>
   </si>
   <si>
     <t>(条件)3ターン以内
-ATKが6アップ</t>
+ATKが20アップ</t>
   </si>
   <si>
     <t>ライズアップマインド</t>
   </si>
   <si>
     <t>(条件)戦闘開始時
-MPが4回復</t>
+MPが12回復</t>
   </si>
   <si>
     <t>イグナイテッド</t>
   </si>
   <si>
     <t>(条件)神化状態になった時
-MPが4回復</t>
+MPが12回復</t>
   </si>
   <si>
     <t>アフターバーナー</t>
@@ -408,32 +408,32 @@
     <t>敵から狙われにくくなる</t>
   </si>
   <si>
-    <t>スウィートボイス</t>
-  </si>
-  <si>
-    <t>常時SPDが4アップ</t>
+    <t>スウィフトカレント</t>
+  </si>
+  <si>
+    <t>常時SPDが8アップ</t>
   </si>
   <si>
     <t>ファストキャスター</t>
   </si>
   <si>
     <t>(条件)Hpが25%以下
+SPDが20アップ</t>
+  </si>
+  <si>
+    <t>ヘブンリーラック</t>
+  </si>
+  <si>
+    <t>常時自身の回避率を33%アップ</t>
+  </si>
+  <si>
+    <t>クイックアクト</t>
+  </si>
+  <si>
+    <t>(条件)戦闘開始時味方より敵が少ない
 SPDが8アップ</t>
   </si>
   <si>
-    <t>ヘブンリーラック</t>
-  </si>
-  <si>
-    <t>常時自身の回避率を33%アップ</t>
-  </si>
-  <si>
-    <t>クイックアクト</t>
-  </si>
-  <si>
-    <t>(条件)戦闘開始時味方より敵が多い
-SPDが8アップ</t>
-  </si>
-  <si>
     <t>サンダーエンチャント</t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>ディープフリーズ</t>
   </si>
   <si>
-    <t>敵一列に凍結付与</t>
+    <t>敵一体に凍結付与</t>
   </si>
   <si>
     <t>フリジットシェル</t>
@@ -496,14 +496,14 @@
     <t>アーマーコード</t>
   </si>
   <si>
-    <t>常時DEFが4アップ</t>
+    <t>常時DEFが8アップ</t>
   </si>
   <si>
     <t>ガードシフト</t>
   </si>
   <si>
     <t>(条件)Hpが25%以下
-DEFが8アップ</t>
+DEFが20アップ</t>
   </si>
   <si>
     <t>ノーリミット</t>
@@ -522,7 +522,7 @@
     <t>ペイシャンス</t>
   </si>
   <si>
-    <t>(条件)鈍足・スタン・火傷状態で行動後
+    <t>(条件)鈍足・火傷・暗闇状態で行動後
 Hpが8回復</t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>メディケーション</t>
   </si>
   <si>
-    <t>行動後自身以外のHpを回復する</t>
+    <t>行動後自身以外のHpを10回復する</t>
   </si>
   <si>
     <t>エイミングスコープ</t>
@@ -603,21 +603,21 @@
     <t>リジェネレーション</t>
   </si>
   <si>
-    <t>行動後自身のHpを回復する</t>
+    <t>行動後自身のHpを10回復する</t>
   </si>
   <si>
     <t>アライアンス</t>
   </si>
   <si>
-    <t>(条件)戦闘開始時味方より敵が少ない
-最大HpとHpが4アップ</t>
+    <t>(条件)戦闘開始時味方より敵が多い
+最大HpとHpが20アップ</t>
   </si>
   <si>
     <t>スペクトルマイン</t>
   </si>
   <si>
-    <t>(条件)自身以外のHpを回復する
-自身のHpを4回復</t>
+    <t>自身以外のHpを回復すると
+同じ分だけ自身のHpも回復する</t>
   </si>
   <si>
     <t>ホーミングクルセイド</t>
@@ -691,7 +691,7 @@
   </si>
   <si>
     <t>(条件)Hpが25%以下
-クリティカル発生率が50%アップ</t>
+クリティカル発生率が75%アップ</t>
   </si>
   <si>
     <t>ネガティブドレイン</t>
@@ -712,7 +712,7 @@
   </si>
   <si>
     <t>(条件)戦闘開始時Hpが50%以下
-Hpが10回復</t>
+Hpが20回復</t>
   </si>
   <si>
     <t>アンデッドペイン</t>
@@ -727,10 +727,10 @@
     <t>味方全員の闇属性適性がアップ</t>
   </si>
   <si>
-    <t>エンドオブライフ</t>
-  </si>
-  <si>
-    <t>魂を浄化する</t>
+    <t>エンドオブサイクル</t>
+  </si>
+  <si>
+    <t>魂を浄化し存在を消滅する</t>
   </si>
   <si>
     <t>愚者</t>
@@ -1059,10 +1059,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1070,58 +1070,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1141,26 +1089,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1173,9 +1113,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,9 +1134,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,6 +1165,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1211,7 +1180,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,13 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1256,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,19 +1352,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,19 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,103 +1406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,60 +1431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,6 +1459,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1520,6 +1505,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,145 +1531,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2420,8 +2420,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C36" t="str">
         <f>INDEX(TextData!B:B,MATCH(B36,TextData!A:A))</f>
-        <v>スウィートボイス</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -5553,7 +5553,7 @@
         <v>26</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -5628,7 +5628,7 @@
         <v>26</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -5730,11 +5730,11 @@
         <v>相手</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="str">
         <f>INDEX(Define!N:N,MATCH(S45,Define!M:M))</f>
-        <v>列</v>
+        <v>単体</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>4</v>
@@ -7833,7 +7833,7 @@
         <v>36</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>エンドオブライフ</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -11071,8 +11071,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11571,7 +11571,7 @@
         <v>999</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D22,[1]TextData!A:A))</f>
@@ -11596,7 +11596,7 @@
         <v>999</v>
       </c>
       <c r="F23">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
@@ -11621,7 +11621,7 @@
         <v>999</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D24,[1]TextData!A:A))</f>
@@ -11640,7 +11640,7 @@
         <v>Mp回復</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>Mp回復</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -12039,7 +12039,7 @@
         <v>999</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D42,[1]TextData!A:A))</f>
@@ -12064,7 +12064,7 @@
         <v>999</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D43,[1]TextData!A:A))</f>
@@ -12257,7 +12257,7 @@
         <v>26</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -12427,7 +12427,7 @@
         <v>999</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D58,[1]TextData!A:A))</f>
@@ -12452,7 +12452,7 @@
         <v>999</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
@@ -13071,7 +13071,7 @@
         <v>999</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D86,[1]TextData!A:A))</f>
@@ -13096,7 +13096,7 @@
         <v>999</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D87,[1]TextData!A:A))</f>
@@ -13618,7 +13618,7 @@
         <v>999</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D109,[1]TextData!A:A))</f>
@@ -13687,7 +13687,7 @@
         <v>Hp回復</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -14399,8 +14399,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14790,7 +14790,7 @@
         <v>236</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -14976,7 +14976,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -15110,7 +15110,7 @@
         <v>435</v>
       </c>
       <c r="B36">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -15336,8 +15336,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF144751-29CC-47C8-B636-18C4FB26976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,23 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="335">
   <si>
     <t>Id</t>
   </si>
@@ -267,9 +284,6 @@
     <t>ヒートスタンプ</t>
   </si>
   <si>
-    <t>味方一人のMpを5回復</t>
-  </si>
-  <si>
     <t>ソードアダプト</t>
   </si>
   <si>
@@ -299,27 +313,13 @@
     <t>ウルフソウル</t>
   </si>
   <si>
-    <t>常時ATK4がアップ</t>
-  </si>
-  <si>
     <t>プリディカメント</t>
   </si>
   <si>
-    <t>(条件)Hpが25%以下
-ATKが8アップ</t>
-  </si>
-  <si>
     <t>アサルトシフト</t>
   </si>
   <si>
-    <t>DEFが10ダウンしATKが10アップ</t>
-  </si>
-  <si>
     <t>スタートダッシュ</t>
-  </si>
-  <si>
-    <t>(条件)3ターン以内
-ATKが20アップ</t>
   </si>
   <si>
     <t>ライズアップマインド</t>
@@ -373,9 +373,6 @@
     <t>トラストチェイン</t>
   </si>
   <si>
-    <t>味方一人を次に行動する状態にする</t>
-  </si>
-  <si>
     <t>ステップリーダー</t>
   </si>
   <si>
@@ -1052,19 +1049,64 @@
   </si>
   <si>
     <t>命令不可</t>
+  </si>
+  <si>
+    <t>自身以外の行動順までの時間を短縮する</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウドウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体・自信を除く</t>
+    <rPh sb="3" eb="5">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常時ATK8がアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(条件)Hpが25%以下
+ATKが16アップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(条件)3ターン以内
+ATKが24アップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFが12ダウンしATKが12アップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方一人のMpを8回復</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,151 +1115,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,198 +1139,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1425,255 +1152,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1686,69 +1171,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="States"/>
@@ -2412,42 +1859,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.54545454545455" customWidth="1"/>
-    <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
-    <col min="3" max="3" width="19.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="30.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="17.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="6.45454545454545" customWidth="1"/>
-    <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
-    <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
-    <col min="11" max="12" width="6.63636363636364" customWidth="1"/>
-    <col min="13" max="13" width="4.54545454545455" style="3" customWidth="1"/>
-    <col min="14" max="14" width="4.90909090909091" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.72727272727273" customWidth="1"/>
-    <col min="16" max="16" width="5.54545454545455" customWidth="1"/>
-    <col min="17" max="17" width="4.90909090909091" customWidth="1"/>
-    <col min="18" max="18" width="5.54545454545455" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="12" width="6.6328125" customWidth="1"/>
+    <col min="13" max="13" width="4.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4.90625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" customWidth="1"/>
+    <col min="17" max="17" width="4.90625" customWidth="1"/>
+    <col min="18" max="18" width="5.54296875" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.54545454545455" customWidth="1"/>
-    <col min="21" max="21" width="4.72727272727273" customWidth="1"/>
-    <col min="22" max="22" width="7.90909090909091" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" customWidth="1"/>
+    <col min="21" max="21" width="4.7265625" customWidth="1"/>
+    <col min="22" max="22" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2573,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2648,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2723,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2798,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
@@ -2873,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>31</v>
       </c>
@@ -2948,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -3019,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="12" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>41</v>
       </c>
@@ -3091,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>42</v>
       </c>
@@ -3163,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>101</v>
       </c>
@@ -3238,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>102</v>
       </c>
@@ -3313,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>103</v>
       </c>
@@ -3388,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>104</v>
       </c>
@@ -3463,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -3538,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3613,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>121</v>
       </c>
@@ -3688,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>131</v>
       </c>
@@ -3760,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>132</v>
       </c>
@@ -3832,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>133</v>
       </c>
@@ -3904,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>134</v>
       </c>
@@ -3976,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>135</v>
       </c>
@@ -4048,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>136</v>
       </c>
@@ -4120,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>137</v>
       </c>
@@ -4192,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>141</v>
       </c>
@@ -4264,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>201</v>
       </c>
@@ -4339,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>202</v>
       </c>
@@ -4414,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>203</v>
       </c>
@@ -4489,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>204</v>
       </c>
@@ -4564,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>205</v>
       </c>
@@ -4626,11 +4073,11 @@
         <v>味方</v>
       </c>
       <c r="S30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T30" t="str">
         <f>INDEX(Define!N:N,MATCH(S30,Define!M:M))</f>
-        <v>単体・自身を除く</v>
+        <v>全体・自信を除く</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -4639,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>211</v>
       </c>
@@ -4714,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>212</v>
       </c>
@@ -4789,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>221</v>
       </c>
@@ -4864,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>231</v>
       </c>
@@ -4936,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>232</v>
       </c>
@@ -5008,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>233</v>
       </c>
@@ -5080,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>234</v>
       </c>
@@ -5152,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>235</v>
       </c>
@@ -5224,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>236</v>
       </c>
@@ -5296,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>241</v>
       </c>
@@ -5368,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>301</v>
       </c>
@@ -5443,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>302</v>
       </c>
@@ -5518,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>303</v>
       </c>
@@ -5593,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>304</v>
       </c>
@@ -5655,11 +5102,11 @@
         <v>相手</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T44" t="str">
         <f>INDEX(Define!N:N,MATCH(S44,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -5668,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>305</v>
       </c>
@@ -5743,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>311</v>
       </c>
@@ -5818,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>312</v>
       </c>
@@ -5843,11 +5290,11 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="str">
         <f>INDEX(Define!B:B,MATCH(H47,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J47">
         <v>48</v>
@@ -5893,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>321</v>
       </c>
@@ -5968,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>331</v>
       </c>
@@ -6040,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>332</v>
       </c>
@@ -6112,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>333</v>
       </c>
@@ -6184,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>334</v>
       </c>
@@ -6256,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>335</v>
       </c>
@@ -6328,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>336</v>
       </c>
@@ -6400,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>341</v>
       </c>
@@ -6472,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="12" customHeight="1" spans="1:22">
+    <row r="56" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>401</v>
       </c>
@@ -6547,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="12" customHeight="1" spans="1:22">
+    <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>402</v>
       </c>
@@ -6622,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="12" customHeight="1" spans="1:22">
+    <row r="58" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>403</v>
       </c>
@@ -6697,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="12" customHeight="1" spans="1:22">
+    <row r="59" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>404</v>
       </c>
@@ -6772,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="12" customHeight="1" spans="1:22">
+    <row r="60" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>405</v>
       </c>
@@ -6847,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>411</v>
       </c>
@@ -6922,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>412</v>
       </c>
@@ -6997,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>421</v>
       </c>
@@ -7072,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="12" customHeight="1" spans="1:22">
+    <row r="64" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>431</v>
       </c>
@@ -7144,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="12" customHeight="1" spans="1:22">
+    <row r="65" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>432</v>
       </c>
@@ -7216,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="12" customHeight="1" spans="1:22">
+    <row r="66" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>433</v>
       </c>
@@ -7288,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="12" customHeight="1" spans="1:22">
+    <row r="67" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>434</v>
       </c>
@@ -7360,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="12" customHeight="1" spans="1:22">
+    <row r="68" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>435</v>
       </c>
@@ -7432,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="12" customHeight="1" spans="1:22">
+    <row r="69" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>436</v>
       </c>
@@ -7504,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="12" customHeight="1" spans="1:22">
+    <row r="70" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>437</v>
       </c>
@@ -7576,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="12" customHeight="1" spans="1:22">
+    <row r="71" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>441</v>
       </c>
@@ -7648,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="12" customHeight="1" spans="1:22">
+    <row r="72" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>501</v>
       </c>
@@ -7723,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="12" customHeight="1" spans="1:22">
+    <row r="73" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>502</v>
       </c>
@@ -7798,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="12" customHeight="1" spans="1:22">
+    <row r="74" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>503</v>
       </c>
@@ -7873,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="12" customHeight="1" spans="1:22">
+    <row r="75" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>504</v>
       </c>
@@ -7948,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="12" customHeight="1" spans="1:22">
+    <row r="76" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>505</v>
       </c>
@@ -8023,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="12" customHeight="1" spans="1:22">
+    <row r="77" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>511</v>
       </c>
@@ -8048,11 +7495,11 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="str">
         <f>INDEX(Define!B:B,MATCH(H77,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J77">
         <v>110</v>
@@ -8098,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="12" customHeight="1" spans="1:22">
+    <row r="78" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>512</v>
       </c>
@@ -8173,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="12" customHeight="1" spans="1:22">
+    <row r="79" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>521</v>
       </c>
@@ -8248,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="12" customHeight="1" spans="1:22">
+    <row r="80" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>531</v>
       </c>
@@ -8320,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="12" customHeight="1" spans="1:22">
+    <row r="81" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>532</v>
       </c>
@@ -8392,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="12" customHeight="1" spans="1:22">
+    <row r="82" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>533</v>
       </c>
@@ -8464,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="12" customHeight="1" spans="1:22">
+    <row r="83" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>534</v>
       </c>
@@ -8536,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="12" customHeight="1" spans="1:22">
+    <row r="84" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>535</v>
       </c>
@@ -8608,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="12" customHeight="1" spans="1:22">
+    <row r="85" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>536</v>
       </c>
@@ -8680,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="12" customHeight="1" spans="1:22">
+    <row r="86" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>541</v>
       </c>
@@ -8752,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="12" customHeight="1" spans="1:22">
+    <row r="87" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>601</v>
       </c>
@@ -8827,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="12" customHeight="1" spans="1:22">
+    <row r="88" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1000</v>
       </c>
@@ -8899,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="12" customHeight="1" spans="1:22">
+    <row r="89" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1001</v>
       </c>
@@ -8971,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="12" customHeight="1" spans="1:22">
+    <row r="90" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1002</v>
       </c>
@@ -9043,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="12" customHeight="1" spans="1:22">
+    <row r="91" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1003</v>
       </c>
@@ -9115,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="12" customHeight="1" spans="1:22">
+    <row r="92" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1004</v>
       </c>
@@ -9187,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="12" customHeight="1" spans="1:22">
+    <row r="93" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1005</v>
       </c>
@@ -9259,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="12" customHeight="1" spans="1:22">
+    <row r="94" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1006</v>
       </c>
@@ -9331,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="12" customHeight="1" spans="1:22">
+    <row r="95" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1007</v>
       </c>
@@ -9403,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="12" customHeight="1" spans="1:22">
+    <row r="96" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1008</v>
       </c>
@@ -9475,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="12" customHeight="1" spans="1:22">
+    <row r="97" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1009</v>
       </c>
@@ -9547,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="12" customHeight="1" spans="1:22">
+    <row r="98" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1010</v>
       </c>
@@ -9619,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="12" customHeight="1" spans="1:22">
+    <row r="99" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1011</v>
       </c>
@@ -9691,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="12" customHeight="1" spans="1:22">
+    <row r="100" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1012</v>
       </c>
@@ -9763,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="12" customHeight="1" spans="1:22">
+    <row r="101" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1013</v>
       </c>
@@ -9835,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="12" customHeight="1" spans="1:22">
+    <row r="102" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1014</v>
       </c>
@@ -9907,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="12" customHeight="1" spans="1:22">
+    <row r="103" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1015</v>
       </c>
@@ -9979,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="12" customHeight="1" spans="1:22">
+    <row r="104" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1016</v>
       </c>
@@ -10051,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="12" customHeight="1" spans="1:22">
+    <row r="105" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1017</v>
       </c>
@@ -10123,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="12" customHeight="1" spans="1:22">
+    <row r="106" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1018</v>
       </c>
@@ -10195,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="12" customHeight="1" spans="1:22">
+    <row r="107" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1019</v>
       </c>
@@ -10267,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" ht="12" customHeight="1" spans="1:22">
+    <row r="108" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1020</v>
       </c>
@@ -10339,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="12" customHeight="1" spans="1:22">
+    <row r="109" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1022</v>
       </c>
@@ -10411,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="12" customHeight="1" spans="1:22">
+    <row r="110" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1023</v>
       </c>
@@ -10483,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="12" customHeight="1" spans="1:22">
+    <row r="111" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1024</v>
       </c>
@@ -10555,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="12" customHeight="1" spans="1:22">
+    <row r="112" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1025</v>
       </c>
@@ -10627,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2001</v>
       </c>
@@ -10699,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -10771,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2003</v>
       </c>
@@ -10843,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -10915,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2005</v>
       </c>
@@ -10987,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -11060,27 +10507,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -11097,7 +10543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11118,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11139,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -11164,7 +10610,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21</v>
       </c>
@@ -11189,7 +10635,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>31</v>
       </c>
@@ -11210,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>31</v>
       </c>
@@ -11235,7 +10681,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -11260,7 +10706,7 @@
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>41</v>
       </c>
@@ -11285,7 +10731,7 @@
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>42</v>
       </c>
@@ -11306,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>101</v>
       </c>
@@ -11327,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>102</v>
       </c>
@@ -11348,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>103</v>
       </c>
@@ -11360,7 +10806,7 @@
         <v>Mp回復</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -11369,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>104</v>
       </c>
@@ -11394,7 +10840,7 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -11415,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>111</v>
       </c>
@@ -11436,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>112</v>
       </c>
@@ -11457,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>112</v>
       </c>
@@ -11478,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>121</v>
       </c>
@@ -11503,7 +10949,7 @@
         <v>火傷</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>131</v>
       </c>
@@ -11521,14 +10967,14 @@
         <v>999</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>132</v>
       </c>
@@ -11546,14 +10992,14 @@
         <v>999</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D21,[1]TextData!A:A))</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>133</v>
       </c>
@@ -11571,14 +11017,14 @@
         <v>999</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D22,[1]TextData!A:A))</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>133</v>
       </c>
@@ -11596,14 +11042,14 @@
         <v>999</v>
       </c>
       <c r="F23">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>134</v>
       </c>
@@ -11621,14 +11067,14 @@
         <v>999</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D24,[1]TextData!A:A))</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>135</v>
       </c>
@@ -11649,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>136</v>
       </c>
@@ -11670,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>137</v>
       </c>
@@ -11691,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>141</v>
       </c>
@@ -11716,7 +11162,7 @@
         <v>炎適正</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>201</v>
       </c>
@@ -11737,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>202</v>
       </c>
@@ -11762,7 +11208,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>203</v>
       </c>
@@ -11787,7 +11233,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>204</v>
       </c>
@@ -11812,7 +11258,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>205</v>
       </c>
@@ -11824,7 +11270,7 @@
         <v>Ap回復</v>
       </c>
       <c r="D33">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -11833,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>211</v>
       </c>
@@ -11858,7 +11304,7 @@
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>211</v>
       </c>
@@ -11879,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>212</v>
       </c>
@@ -11904,7 +11350,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>212</v>
       </c>
@@ -11925,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>212</v>
       </c>
@@ -11946,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>221</v>
       </c>
@@ -11971,7 +11417,7 @@
         <v>アクセル</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>231</v>
       </c>
@@ -11996,7 +11442,7 @@
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>232</v>
       </c>
@@ -12021,7 +11467,7 @@
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>233</v>
       </c>
@@ -12046,7 +11492,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>234</v>
       </c>
@@ -12071,7 +11517,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>235</v>
       </c>
@@ -12096,7 +11542,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>236</v>
       </c>
@@ -12121,7 +11567,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>241</v>
       </c>
@@ -12146,7 +11592,7 @@
         <v>雷適性</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>301</v>
       </c>
@@ -12167,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>302</v>
       </c>
@@ -12192,7 +11638,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>303</v>
       </c>
@@ -12217,7 +11663,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>304</v>
       </c>
@@ -12232,17 +11678,17 @@
         <v>107</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>305</v>
       </c>
@@ -12267,7 +11713,7 @@
         <v>凍結</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>311</v>
       </c>
@@ -12292,7 +11738,7 @@
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>311</v>
       </c>
@@ -12313,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>312</v>
       </c>
@@ -12328,7 +11774,7 @@
         <v>21</v>
       </c>
       <c r="E54">
-        <v>999</v>
+        <v>9999999</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -12338,7 +11784,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>312</v>
       </c>
@@ -12359,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>321</v>
       </c>
@@ -12374,7 +11820,7 @@
         <v>21</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -12384,7 +11830,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>331</v>
       </c>
@@ -12409,7 +11855,7 @@
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>332</v>
       </c>
@@ -12434,7 +11880,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>333</v>
       </c>
@@ -12459,7 +11905,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>334</v>
       </c>
@@ -12484,7 +11930,7 @@
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>335</v>
       </c>
@@ -12509,7 +11955,7 @@
         <v>CA回復</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>336</v>
       </c>
@@ -12530,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>341</v>
       </c>
@@ -12555,7 +12001,7 @@
         <v>氷適性</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>401</v>
       </c>
@@ -12576,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>401</v>
       </c>
@@ -12597,7 +12043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>402</v>
       </c>
@@ -12618,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>402</v>
       </c>
@@ -12639,7 +12085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>403</v>
       </c>
@@ -12660,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>403</v>
       </c>
@@ -12681,7 +12127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>403</v>
       </c>
@@ -12702,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>404</v>
       </c>
@@ -12727,7 +12173,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>404</v>
       </c>
@@ -12752,7 +12198,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>404</v>
       </c>
@@ -12777,7 +12223,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>404</v>
       </c>
@@ -12802,7 +12248,7 @@
         <v>呪い</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>405</v>
       </c>
@@ -12827,7 +12273,7 @@
         <v>祝福</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>411</v>
       </c>
@@ -12848,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>411</v>
       </c>
@@ -12869,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>411</v>
       </c>
@@ -12890,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>412</v>
       </c>
@@ -12915,7 +12361,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>412</v>
       </c>
@@ -12936,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>421</v>
       </c>
@@ -12957,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>421</v>
       </c>
@@ -12978,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>431</v>
       </c>
@@ -13003,7 +12449,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>432</v>
       </c>
@@ -13028,7 +12474,7 @@
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>433</v>
       </c>
@@ -13053,7 +12499,7 @@
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>434</v>
       </c>
@@ -13078,7 +12524,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>435</v>
       </c>
@@ -13103,7 +12549,7 @@
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>436</v>
       </c>
@@ -13128,7 +12574,7 @@
         <v>同時回復</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>437</v>
       </c>
@@ -13153,7 +12599,7 @@
         <v>必中</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>441</v>
       </c>
@@ -13178,7 +12624,7 @@
         <v>光適性</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>501</v>
       </c>
@@ -13199,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>502</v>
       </c>
@@ -13220,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>503</v>
       </c>
@@ -13241,7 +12687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>504</v>
       </c>
@@ -13266,7 +12712,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>504</v>
       </c>
@@ -13291,7 +12737,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>504</v>
       </c>
@@ -13316,7 +12762,7 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>504</v>
       </c>
@@ -13341,7 +12787,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>504</v>
       </c>
@@ -13366,7 +12812,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>504</v>
       </c>
@@ -13391,7 +12837,7 @@
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>504</v>
       </c>
@@ -13416,7 +12862,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>504</v>
       </c>
@@ -13441,7 +12887,7 @@
         <v>祝福</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>505</v>
       </c>
@@ -13466,7 +12912,7 @@
         <v>呪い</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>511</v>
       </c>
@@ -13487,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>511</v>
       </c>
@@ -13508,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>512</v>
       </c>
@@ -13529,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>512</v>
       </c>
@@ -13550,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>521</v>
       </c>
@@ -13575,7 +13021,7 @@
         <v>暗闇</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>531</v>
       </c>
@@ -13600,7 +13046,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>532</v>
       </c>
@@ -13625,7 +13071,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>533</v>
       </c>
@@ -13650,7 +13096,7 @@
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>534</v>
       </c>
@@ -13675,7 +13121,7 @@
         <v>即死</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>535</v>
       </c>
@@ -13696,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>536</v>
       </c>
@@ -13721,7 +13167,7 @@
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>536</v>
       </c>
@@ -13742,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>541</v>
       </c>
@@ -13767,7 +13213,7 @@
         <v>闇適性</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>601</v>
       </c>
@@ -13792,7 +13238,7 @@
         <v>戦闘不能</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1000</v>
       </c>
@@ -13813,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1001</v>
       </c>
@@ -13834,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1002</v>
       </c>
@@ -13855,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1002</v>
       </c>
@@ -13876,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1003</v>
       </c>
@@ -13897,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1004</v>
       </c>
@@ -13918,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1005</v>
       </c>
@@ -13939,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1006</v>
       </c>
@@ -13964,7 +13410,7 @@
         <v>戦闘不能</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1007</v>
       </c>
@@ -13985,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1008</v>
       </c>
@@ -14006,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1009</v>
       </c>
@@ -14027,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1010</v>
       </c>
@@ -14048,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1011</v>
       </c>
@@ -14069,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1012</v>
       </c>
@@ -14090,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="12" customHeight="1" spans="1:6">
+    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1013</v>
       </c>
@@ -14111,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="12" customHeight="1" spans="1:7">
+    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1014</v>
       </c>
@@ -14136,7 +13582,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1015</v>
       </c>
@@ -14157,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="12" customHeight="1" spans="1:6">
+    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1016</v>
       </c>
@@ -14178,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1017</v>
       </c>
@@ -14199,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1017</v>
       </c>
@@ -14220,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1018</v>
       </c>
@@ -14241,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1018</v>
       </c>
@@ -14262,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1019</v>
       </c>
@@ -14283,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="12" customHeight="1" spans="1:6">
+    <row r="140" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1020</v>
       </c>
@@ -14304,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1022</v>
       </c>
@@ -14325,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1023</v>
       </c>
@@ -14346,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1024</v>
       </c>
@@ -14367,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1025</v>
       </c>
@@ -14389,23 +13835,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -14425,7 +13870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>41</v>
       </c>
@@ -14445,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>42</v>
       </c>
@@ -14465,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>111</v>
       </c>
@@ -14485,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>111</v>
       </c>
@@ -14505,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>131</v>
       </c>
@@ -14525,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>132</v>
       </c>
@@ -14545,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>133</v>
       </c>
@@ -14565,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>134</v>
       </c>
@@ -14585,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>135</v>
       </c>
@@ -14605,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>136</v>
       </c>
@@ -14625,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>137</v>
       </c>
@@ -14645,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>211</v>
       </c>
@@ -14665,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>211</v>
       </c>
@@ -14685,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>231</v>
       </c>
@@ -14705,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>232</v>
       </c>
@@ -14725,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>233</v>
       </c>
@@ -14745,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>234</v>
       </c>
@@ -14765,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>235</v>
       </c>
@@ -14785,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>236</v>
       </c>
@@ -14805,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>311</v>
       </c>
@@ -14825,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>311</v>
       </c>
@@ -14845,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>331</v>
       </c>
@@ -14865,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>332</v>
       </c>
@@ -14885,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>333</v>
       </c>
@@ -14905,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>334</v>
       </c>
@@ -14925,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>336</v>
       </c>
@@ -14945,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>336</v>
       </c>
@@ -14965,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>336</v>
       </c>
@@ -14985,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>411</v>
       </c>
@@ -15005,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>411</v>
       </c>
@@ -15025,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>431</v>
       </c>
@@ -15045,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>432</v>
       </c>
@@ -15065,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>433</v>
       </c>
@@ -15085,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>434</v>
       </c>
@@ -15105,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>435</v>
       </c>
@@ -15125,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>436</v>
       </c>
@@ -15145,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>437</v>
       </c>
@@ -15165,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>511</v>
       </c>
@@ -15185,7 +14630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>511</v>
       </c>
@@ -15205,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>531</v>
       </c>
@@ -15225,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>532</v>
       </c>
@@ -15245,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>533</v>
       </c>
@@ -15265,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>534</v>
       </c>
@@ -15285,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>535</v>
       </c>
@@ -15305,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>536</v>
       </c>
@@ -15326,27 +14771,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="42.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15357,7 +14801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15368,7 +14812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15379,7 +14823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -15390,7 +14834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21</v>
       </c>
@@ -15401,7 +14845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>31</v>
       </c>
@@ -15412,7 +14856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -15423,7 +14867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" ht="26" spans="1:3">
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>41</v>
       </c>
@@ -15434,7 +14878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>42</v>
       </c>
@@ -15445,7 +14889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>101</v>
       </c>
@@ -15456,7 +14900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>102</v>
       </c>
@@ -15467,1199 +14911,1199 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>104</v>
       </c>
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" ht="26" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>111</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" ht="26" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>112</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>121</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" ht="26" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" ht="26" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" ht="26" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" ht="26" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" ht="39" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" ht="28" customHeight="1" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" ht="26" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" ht="26" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>302</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>305</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" ht="26" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" ht="26" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>331</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" ht="26" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" ht="26" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" ht="26" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>405</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" ht="26" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>411</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" ht="39" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="39" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>412</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>432</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>433</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>434</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" ht="26" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" ht="26" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>437</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>441</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>502</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" ht="26" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" ht="26" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" ht="26" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>511</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" ht="26" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>512</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>521</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>531</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" ht="26" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>532</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" ht="26" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>533</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" ht="26" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>534</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" ht="26" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>535</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>536</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>541</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>601</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1000</v>
       </c>
       <c r="B87" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1001</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1002</v>
       </c>
       <c r="B89" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1003</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1004</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1005</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1006</v>
       </c>
       <c r="B93" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1007</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1008</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1009</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1010</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1011</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1012</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" ht="12" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1013</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" ht="12" customHeight="1" spans="1:3">
+    <row r="101" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1014</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1015</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1016</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1017</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1018</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1019</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1020</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1022</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1023</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1024</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1025</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2001</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2002</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2003</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2004</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2005</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2009</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="1.72727272727273" customWidth="1"/>
-    <col min="6" max="6" width="1.53636363636364" customWidth="1"/>
-    <col min="9" max="9" width="1.63636363636364" customWidth="1"/>
-    <col min="12" max="12" width="2.27272727272727" customWidth="1"/>
-    <col min="15" max="15" width="2.54545454545455" customWidth="1"/>
-    <col min="18" max="18" width="2.45454545454545" customWidth="1"/>
-    <col min="22" max="22" width="37.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.54296875" customWidth="1"/>
+    <col min="9" max="9" width="1.6328125" customWidth="1"/>
+    <col min="12" max="12" width="2.26953125" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.54296875" customWidth="1"/>
+    <col min="18" max="18" width="2.453125" customWidth="1"/>
+    <col min="22" max="22" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -16676,180 +16120,180 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>263</v>
       </c>
-      <c r="S1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>264</v>
       </c>
-      <c r="U1" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>265</v>
       </c>
-      <c r="W1" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>267</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>267</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
         <v>268</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
         <v>269</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>270</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>271</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>272</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>273</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
         <v>274</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
         <v>276</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>280</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>281</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -16861,363 +16305,369 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="4:24">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="4:24">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="7:24">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="16:24">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P9">
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="16:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P10">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="16:24">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P11">
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="16:22">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P12">
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="16:22">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P13">
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="16:22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P14">
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="16:22">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P15">
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="16:22">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P16">
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="16:22">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P17" s="1">
         <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="16:22">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P18">
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="16:17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P19">
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="16:17">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P20">
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="16:17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P21">
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="16:17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P22">
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="16:17">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P23">
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="16:17">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P24">
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="16:17">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="16:22" x14ac:dyDescent="0.2">
       <c r="P25">
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF144751-29CC-47C8-B636-18C4FB26976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -22,23 +16,12 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
   <si>
     <t>Id</t>
   </si>
@@ -109,7 +92,7 @@
     <t>NA_Effekseer/NA_Fire_001</t>
   </si>
   <si>
-    <t>tktk02/Gun5</t>
+    <t>NA_Effekseer/NA_aura_003_c1</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_sword_001</t>
@@ -121,7 +104,7 @@
     <t>NA_Effekseer/NA_magic_004_c1</t>
   </si>
   <si>
-    <t>tktk02/Fire7</t>
+    <t>NA_Effekseer_Vol_2/NA_v2_2.5d_element reservoir_fire</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_net_001</t>
@@ -193,7 +176,7 @@
     <t>tktk01/Cure1</t>
   </si>
   <si>
-    <t>tktk01/Dark1</t>
+    <t>NA_Effekseer/NA_wave_003</t>
   </si>
   <si>
     <t>tktk01/Dark3</t>
@@ -284,10 +267,13 @@
     <t>ヒートスタンプ</t>
   </si>
   <si>
+    <t>味方一人のMpを8回復</t>
+  </si>
+  <si>
     <t>ソードアダプト</t>
   </si>
   <si>
-    <t>1ターン自身のダメージ効果を100%アップ</t>
+    <t>与ダメージを10%アップ 効果重複可能(永続)</t>
   </si>
   <si>
     <t>インフェルノ</t>
@@ -313,13 +299,27 @@
     <t>ウルフソウル</t>
   </si>
   <si>
+    <t>常時ATK8がアップ</t>
+  </si>
+  <si>
     <t>プリディカメント</t>
   </si>
   <si>
+    <t>(条件)Hpが25%以下
+ATKが16アップ</t>
+  </si>
+  <si>
     <t>アサルトシフト</t>
   </si>
   <si>
+    <t>DEFが12ダウンしATKが12アップ</t>
+  </si>
+  <si>
     <t>スタートダッシュ</t>
+  </si>
+  <si>
+    <t>(条件)3ターン以内
+ATKが24アップ</t>
   </si>
   <si>
     <t>ライズアップマインド</t>
@@ -333,7 +333,7 @@
   </si>
   <si>
     <t>(条件)神化状態になった時
-MPが12回復</t>
+MPが12回復 バトル中１回のみ</t>
   </si>
   <si>
     <t>アフターバーナー</t>
@@ -373,6 +373,9 @@
     <t>トラストチェイン</t>
   </si>
   <si>
+    <t>自身以外の行動順までの時間を短縮する</t>
+  </si>
+  <si>
     <t>ステップリーダー</t>
   </si>
   <si>
@@ -934,9 +937,6 @@
     <t>闇</t>
   </si>
   <si>
-    <t>使い切りパッシブ</t>
-  </si>
-  <si>
     <t>パーティ</t>
   </si>
   <si>
@@ -955,6 +955,9 @@
     <t>アルカナ使用</t>
   </si>
   <si>
+    <t>全体・自信を除く</t>
+  </si>
+  <si>
     <t>効果無視Hpダメージ</t>
   </si>
   <si>
@@ -1049,64 +1052,19 @@
   </si>
   <si>
     <t>命令不可</t>
-  </si>
-  <si>
-    <t>自身以外の行動順までの時間を短縮する</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>コウドウジュン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンシュク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体・自信を除く</t>
-    <rPh sb="3" eb="5">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノゾ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常時ATK8がアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(条件)Hpが25%以下
-ATKが16アップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(条件)3ターン以内
-ATKが24アップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEFが12ダウンしATKが12アップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>味方一人のMpを8回復</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,22 +1073,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,8 +1237,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1152,14 +1432,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1168,34 +1693,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="States"/>
@@ -1859,42 +2425,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="12" width="6.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.54296875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="4.90625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.7265625" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" customWidth="1"/>
-    <col min="17" max="17" width="4.90625" customWidth="1"/>
-    <col min="18" max="18" width="5.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.54545454545455" customWidth="1"/>
+    <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
+    <col min="3" max="3" width="19.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="17.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="6.45454545454545" customWidth="1"/>
+    <col min="9" max="9" width="5.54545454545455" customWidth="1"/>
+    <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
+    <col min="11" max="12" width="6.63636363636364" customWidth="1"/>
+    <col min="13" max="13" width="4.54545454545455" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.90909090909091" style="5" customWidth="1"/>
+    <col min="15" max="15" width="4.72727272727273" customWidth="1"/>
+    <col min="16" max="16" width="5.54545454545455" customWidth="1"/>
+    <col min="17" max="17" width="4.90909090909091" customWidth="1"/>
+    <col min="18" max="18" width="5.54545454545455" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" customWidth="1"/>
-    <col min="21" max="21" width="4.7265625" customWidth="1"/>
-    <col min="22" max="22" width="7.90625" customWidth="1"/>
+    <col min="20" max="20" width="5.54545454545455" customWidth="1"/>
+    <col min="21" max="21" width="4.72727272727273" customWidth="1"/>
+    <col min="22" max="22" width="7.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2020,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2095,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2170,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2245,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>21</v>
       </c>
@@ -2320,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>31</v>
       </c>
@@ -2395,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>32</v>
       </c>
@@ -2466,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="12" customHeight="1" spans="1:22">
       <c r="A9">
         <v>41</v>
       </c>
@@ -2538,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="12" customHeight="1" spans="1:22">
       <c r="A10">
         <v>42</v>
       </c>
@@ -2610,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2685,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2760,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2835,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2910,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>111</v>
       </c>
@@ -2985,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3060,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>121</v>
       </c>
@@ -3085,11 +3651,11 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="str">
         <f>INDEX(Define!B:B,MATCH(H17,Define!A:A))</f>
-        <v>列</v>
+        <v>全体</v>
       </c>
       <c r="J17">
         <v>48</v>
@@ -3135,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>131</v>
       </c>
@@ -3207,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>132</v>
       </c>
@@ -3279,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>133</v>
       </c>
@@ -3351,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>134</v>
       </c>
@@ -3423,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>135</v>
       </c>
@@ -3495,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>136</v>
       </c>
@@ -3540,11 +4106,11 @@
         <v>炎</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" t="str">
         <f>INDEX(Define!H:H,MATCH(O23,Define!G:G))</f>
-        <v>使い切りパッシブ</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -3567,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>137</v>
       </c>
@@ -3639,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>141</v>
       </c>
@@ -3711,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>201</v>
       </c>
@@ -3786,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>202</v>
       </c>
@@ -3861,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>203</v>
       </c>
@@ -3936,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>204</v>
       </c>
@@ -4011,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>205</v>
       </c>
@@ -4086,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>211</v>
       </c>
@@ -4161,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>212</v>
       </c>
@@ -4236,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>221</v>
       </c>
@@ -4311,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>231</v>
       </c>
@@ -4383,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>232</v>
       </c>
@@ -4455,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>233</v>
       </c>
@@ -4527,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>234</v>
       </c>
@@ -4599,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>235</v>
       </c>
@@ -4671,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>236</v>
       </c>
@@ -4743,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>241</v>
       </c>
@@ -4815,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>301</v>
       </c>
@@ -4890,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>302</v>
       </c>
@@ -4965,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>303</v>
       </c>
@@ -5040,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>304</v>
       </c>
@@ -5115,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>305</v>
       </c>
@@ -5190,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>311</v>
       </c>
@@ -5265,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>312</v>
       </c>
@@ -5340,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>321</v>
       </c>
@@ -5415,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>331</v>
       </c>
@@ -5487,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>332</v>
       </c>
@@ -5559,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>333</v>
       </c>
@@ -5631,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>334</v>
       </c>
@@ -5703,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>335</v>
       </c>
@@ -5775,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>336</v>
       </c>
@@ -5847,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>341</v>
       </c>
@@ -5919,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="12" customHeight="1" spans="1:22">
       <c r="A56">
         <v>401</v>
       </c>
@@ -5994,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="12" customHeight="1" spans="1:22">
       <c r="A57">
         <v>402</v>
       </c>
@@ -6069,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="12" customHeight="1" spans="1:22">
       <c r="A58">
         <v>403</v>
       </c>
@@ -6144,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="12" customHeight="1" spans="1:22">
       <c r="A59">
         <v>404</v>
       </c>
@@ -6219,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="12" customHeight="1" spans="1:22">
       <c r="A60">
         <v>405</v>
       </c>
@@ -6294,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>411</v>
       </c>
@@ -6319,11 +6885,11 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="str">
         <f>INDEX(Define!B:B,MATCH(H61,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J61">
         <v>40</v>
@@ -6369,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>412</v>
       </c>
@@ -6444,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>421</v>
       </c>
@@ -6519,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="12" customHeight="1" spans="1:22">
       <c r="A64">
         <v>431</v>
       </c>
@@ -6591,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="12" customHeight="1" spans="1:22">
       <c r="A65">
         <v>432</v>
       </c>
@@ -6663,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="12" customHeight="1" spans="1:22">
       <c r="A66">
         <v>433</v>
       </c>
@@ -6735,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="12" customHeight="1" spans="1:22">
       <c r="A67">
         <v>434</v>
       </c>
@@ -6807,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="12" customHeight="1" spans="1:22">
       <c r="A68">
         <v>435</v>
       </c>
@@ -6879,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="12" customHeight="1" spans="1:22">
       <c r="A69">
         <v>436</v>
       </c>
@@ -6951,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="12" customHeight="1" spans="1:22">
       <c r="A70">
         <v>437</v>
       </c>
@@ -7023,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="12" customHeight="1" spans="1:22">
       <c r="A71">
         <v>441</v>
       </c>
@@ -7095,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="12" customHeight="1" spans="1:22">
       <c r="A72">
         <v>501</v>
       </c>
@@ -7170,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="12" customHeight="1" spans="1:22">
       <c r="A73">
         <v>502</v>
       </c>
@@ -7202,7 +7768,7 @@
         <v>全体</v>
       </c>
       <c r="J73">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -7245,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="12" customHeight="1" spans="1:22">
       <c r="A74">
         <v>503</v>
       </c>
@@ -7320,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="12" customHeight="1" spans="1:22">
       <c r="A75">
         <v>504</v>
       </c>
@@ -7395,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="12" customHeight="1" spans="1:22">
       <c r="A76">
         <v>505</v>
       </c>
@@ -7470,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="12" customHeight="1" spans="1:22">
       <c r="A77">
         <v>511</v>
       </c>
@@ -7545,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="12" customHeight="1" spans="1:22">
       <c r="A78">
         <v>512</v>
       </c>
@@ -7620,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="12" customHeight="1" spans="1:22">
       <c r="A79">
         <v>521</v>
       </c>
@@ -7695,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="12" customHeight="1" spans="1:22">
       <c r="A80">
         <v>531</v>
       </c>
@@ -7767,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="12" customHeight="1" spans="1:22">
       <c r="A81">
         <v>532</v>
       </c>
@@ -7839,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="12" customHeight="1" spans="1:22">
       <c r="A82">
         <v>533</v>
       </c>
@@ -7911,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="12" customHeight="1" spans="1:22">
       <c r="A83">
         <v>534</v>
       </c>
@@ -7983,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="12" customHeight="1" spans="1:22">
       <c r="A84">
         <v>535</v>
       </c>
@@ -8055,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="12" customHeight="1" spans="1:22">
       <c r="A85">
         <v>536</v>
       </c>
@@ -8127,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="12" customHeight="1" spans="1:22">
       <c r="A86">
         <v>541</v>
       </c>
@@ -8199,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="12" customHeight="1" spans="1:22">
       <c r="A87">
         <v>601</v>
       </c>
@@ -8274,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="12" customHeight="1" spans="1:22">
       <c r="A88">
         <v>1000</v>
       </c>
@@ -8346,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="12" customHeight="1" spans="1:22">
       <c r="A89">
         <v>1001</v>
       </c>
@@ -8418,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="12" customHeight="1" spans="1:22">
       <c r="A90">
         <v>1002</v>
       </c>
@@ -8490,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="12" customHeight="1" spans="1:22">
       <c r="A91">
         <v>1003</v>
       </c>
@@ -8562,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="12" customHeight="1" spans="1:22">
       <c r="A92">
         <v>1004</v>
       </c>
@@ -8634,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="12" customHeight="1" spans="1:22">
       <c r="A93">
         <v>1005</v>
       </c>
@@ -8706,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="12" customHeight="1" spans="1:22">
       <c r="A94">
         <v>1006</v>
       </c>
@@ -8778,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="12" customHeight="1" spans="1:22">
       <c r="A95">
         <v>1007</v>
       </c>
@@ -8850,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="12" customHeight="1" spans="1:22">
       <c r="A96">
         <v>1008</v>
       </c>
@@ -8922,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="12" customHeight="1" spans="1:22">
       <c r="A97">
         <v>1009</v>
       </c>
@@ -8994,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="12" customHeight="1" spans="1:22">
       <c r="A98">
         <v>1010</v>
       </c>
@@ -9066,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="12" customHeight="1" spans="1:22">
       <c r="A99">
         <v>1011</v>
       </c>
@@ -9138,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="12" customHeight="1" spans="1:22">
       <c r="A100">
         <v>1012</v>
       </c>
@@ -9210,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="12" customHeight="1" spans="1:22">
       <c r="A101">
         <v>1013</v>
       </c>
@@ -9282,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" ht="12" customHeight="1" spans="1:22">
       <c r="A102">
         <v>1014</v>
       </c>
@@ -9354,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" ht="12" customHeight="1" spans="1:22">
       <c r="A103">
         <v>1015</v>
       </c>
@@ -9426,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="12" customHeight="1" spans="1:22">
       <c r="A104">
         <v>1016</v>
       </c>
@@ -9498,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" ht="12" customHeight="1" spans="1:22">
       <c r="A105">
         <v>1017</v>
       </c>
@@ -9570,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="12" customHeight="1" spans="1:22">
       <c r="A106">
         <v>1018</v>
       </c>
@@ -9642,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" ht="12" customHeight="1" spans="1:22">
       <c r="A107">
         <v>1019</v>
       </c>
@@ -9714,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" ht="12" customHeight="1" spans="1:22">
       <c r="A108">
         <v>1020</v>
       </c>
@@ -9786,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" ht="12" customHeight="1" spans="1:22">
       <c r="A109">
         <v>1022</v>
       </c>
@@ -9858,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" ht="12" customHeight="1" spans="1:22">
       <c r="A110">
         <v>1023</v>
       </c>
@@ -9930,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" ht="12" customHeight="1" spans="1:22">
       <c r="A111">
         <v>1024</v>
       </c>
@@ -10002,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" ht="12" customHeight="1" spans="1:22">
       <c r="A112">
         <v>1025</v>
       </c>
@@ -10074,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22">
       <c r="A113">
         <v>2001</v>
       </c>
@@ -10146,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -10218,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22">
       <c r="A115">
         <v>2003</v>
       </c>
@@ -10290,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -10362,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22">
       <c r="A117">
         <v>2005</v>
       </c>
@@ -10434,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -10507,26 +11073,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="12.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -10543,7 +11110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10564,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10585,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>11</v>
       </c>
@@ -10610,7 +11177,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>21</v>
       </c>
@@ -10635,7 +11202,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>31</v>
       </c>
@@ -10656,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>31</v>
       </c>
@@ -10681,7 +11248,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>32</v>
       </c>
@@ -10706,7 +11273,7 @@
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>41</v>
       </c>
@@ -10731,7 +11298,7 @@
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>42</v>
       </c>
@@ -10752,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>101</v>
       </c>
@@ -10773,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>102</v>
       </c>
@@ -10794,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>103</v>
       </c>
@@ -10815,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>104</v>
       </c>
@@ -10830,17 +11397,17 @@
         <v>46</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>111</v>
       </c>
@@ -10861,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>111</v>
       </c>
@@ -10882,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>112</v>
       </c>
@@ -10903,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>112</v>
       </c>
@@ -10924,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>121</v>
       </c>
@@ -10949,7 +11516,7 @@
         <v>火傷</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>131</v>
       </c>
@@ -10974,7 +11541,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>132</v>
       </c>
@@ -10999,7 +11566,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>133</v>
       </c>
@@ -11024,7 +11591,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>133</v>
       </c>
@@ -11049,7 +11616,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>134</v>
       </c>
@@ -11074,7 +11641,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>135</v>
       </c>
@@ -11095,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>136</v>
       </c>
@@ -11116,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>137</v>
       </c>
@@ -11137,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>141</v>
       </c>
@@ -11162,7 +11729,7 @@
         <v>炎適正</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>201</v>
       </c>
@@ -11183,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>202</v>
       </c>
@@ -11208,7 +11775,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>203</v>
       </c>
@@ -11233,7 +11800,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>204</v>
       </c>
@@ -11258,7 +11825,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>205</v>
       </c>
@@ -11279,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>211</v>
       </c>
@@ -11304,7 +11871,7 @@
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>211</v>
       </c>
@@ -11325,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>212</v>
       </c>
@@ -11350,7 +11917,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>212</v>
       </c>
@@ -11371,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>212</v>
       </c>
@@ -11392,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>221</v>
       </c>
@@ -11417,7 +11984,7 @@
         <v>アクセル</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>231</v>
       </c>
@@ -11442,7 +12009,7 @@
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>232</v>
       </c>
@@ -11467,7 +12034,7 @@
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>233</v>
       </c>
@@ -11492,7 +12059,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>234</v>
       </c>
@@ -11517,7 +12084,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>235</v>
       </c>
@@ -11542,7 +12109,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>236</v>
       </c>
@@ -11567,7 +12134,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>241</v>
       </c>
@@ -11592,7 +12159,7 @@
         <v>雷適性</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>301</v>
       </c>
@@ -11613,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>302</v>
       </c>
@@ -11638,7 +12205,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>303</v>
       </c>
@@ -11663,7 +12230,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>304</v>
       </c>
@@ -11688,7 +12255,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>305</v>
       </c>
@@ -11713,7 +12280,7 @@
         <v>凍結</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>311</v>
       </c>
@@ -11738,7 +12305,7 @@
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>311</v>
       </c>
@@ -11759,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>312</v>
       </c>
@@ -11784,7 +12351,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>312</v>
       </c>
@@ -11805,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>321</v>
       </c>
@@ -11830,7 +12397,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>331</v>
       </c>
@@ -11855,7 +12422,7 @@
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>332</v>
       </c>
@@ -11880,7 +12447,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>333</v>
       </c>
@@ -11905,7 +12472,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>334</v>
       </c>
@@ -11930,7 +12497,7 @@
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>335</v>
       </c>
@@ -11955,7 +12522,7 @@
         <v>CA回復</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>336</v>
       </c>
@@ -11976,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>341</v>
       </c>
@@ -12001,7 +12568,7 @@
         <v>氷適性</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>401</v>
       </c>
@@ -12022,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>401</v>
       </c>
@@ -12043,7 +12610,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>402</v>
       </c>
@@ -12064,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>402</v>
       </c>
@@ -12085,7 +12652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>403</v>
       </c>
@@ -12106,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>403</v>
       </c>
@@ -12127,7 +12694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>403</v>
       </c>
@@ -12148,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>404</v>
       </c>
@@ -12173,7 +12740,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>404</v>
       </c>
@@ -12198,7 +12765,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>404</v>
       </c>
@@ -12223,7 +12790,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>404</v>
       </c>
@@ -12248,7 +12815,7 @@
         <v>呪い</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>405</v>
       </c>
@@ -12273,7 +12840,7 @@
         <v>祝福</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>411</v>
       </c>
@@ -12294,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>411</v>
       </c>
@@ -12315,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>411</v>
       </c>
@@ -12336,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>412</v>
       </c>
@@ -12361,7 +12928,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>412</v>
       </c>
@@ -12382,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>421</v>
       </c>
@@ -12403,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>421</v>
       </c>
@@ -12424,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>431</v>
       </c>
@@ -12449,7 +13016,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>432</v>
       </c>
@@ -12474,7 +13041,7 @@
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>433</v>
       </c>
@@ -12499,7 +13066,7 @@
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>434</v>
       </c>
@@ -12524,7 +13091,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>435</v>
       </c>
@@ -12549,7 +13116,7 @@
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>436</v>
       </c>
@@ -12574,7 +13141,7 @@
         <v>同時回復</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>437</v>
       </c>
@@ -12599,7 +13166,7 @@
         <v>必中</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>441</v>
       </c>
@@ -12624,7 +13191,7 @@
         <v>光適性</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>501</v>
       </c>
@@ -12645,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>502</v>
       </c>
@@ -12666,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>503</v>
       </c>
@@ -12687,7 +13254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>504</v>
       </c>
@@ -12712,7 +13279,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>504</v>
       </c>
@@ -12737,7 +13304,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>504</v>
       </c>
@@ -12762,7 +13329,7 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>504</v>
       </c>
@@ -12787,7 +13354,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>504</v>
       </c>
@@ -12812,7 +13379,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>504</v>
       </c>
@@ -12837,7 +13404,7 @@
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>504</v>
       </c>
@@ -12862,7 +13429,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>504</v>
       </c>
@@ -12887,7 +13454,7 @@
         <v>祝福</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>505</v>
       </c>
@@ -12912,7 +13479,7 @@
         <v>呪い</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>511</v>
       </c>
@@ -12933,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>511</v>
       </c>
@@ -12954,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>512</v>
       </c>
@@ -12975,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>512</v>
       </c>
@@ -12996,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>521</v>
       </c>
@@ -13021,7 +13588,7 @@
         <v>暗闇</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>531</v>
       </c>
@@ -13046,7 +13613,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>532</v>
       </c>
@@ -13071,7 +13638,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>533</v>
       </c>
@@ -13096,7 +13663,7 @@
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>534</v>
       </c>
@@ -13121,7 +13688,7 @@
         <v>即死</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>535</v>
       </c>
@@ -13142,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>536</v>
       </c>
@@ -13167,7 +13734,7 @@
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>536</v>
       </c>
@@ -13188,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>541</v>
       </c>
@@ -13213,7 +13780,7 @@
         <v>闇適性</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>601</v>
       </c>
@@ -13238,7 +13805,7 @@
         <v>戦闘不能</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>1000</v>
       </c>
@@ -13259,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>1001</v>
       </c>
@@ -13280,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>1002</v>
       </c>
@@ -13301,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>1002</v>
       </c>
@@ -13322,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>1003</v>
       </c>
@@ -13343,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>1004</v>
       </c>
@@ -13364,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>1005</v>
       </c>
@@ -13385,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>1006</v>
       </c>
@@ -13410,7 +13977,7 @@
         <v>戦闘不能</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>1007</v>
       </c>
@@ -13431,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>1008</v>
       </c>
@@ -13452,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>1009</v>
       </c>
@@ -13473,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>1010</v>
       </c>
@@ -13494,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>1011</v>
       </c>
@@ -13515,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>1012</v>
       </c>
@@ -13536,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" ht="12" customHeight="1" spans="1:6">
       <c r="A131">
         <v>1013</v>
       </c>
@@ -13557,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" ht="12" customHeight="1" spans="1:7">
       <c r="A132">
         <v>1014</v>
       </c>
@@ -13582,7 +14149,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>1015</v>
       </c>
@@ -13603,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" ht="12" customHeight="1" spans="1:6">
       <c r="A134">
         <v>1016</v>
       </c>
@@ -13624,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>1017</v>
       </c>
@@ -13645,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>1017</v>
       </c>
@@ -13666,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>1018</v>
       </c>
@@ -13687,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>1018</v>
       </c>
@@ -13708,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>1019</v>
       </c>
@@ -13729,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" ht="12" customHeight="1" spans="1:6">
       <c r="A140">
         <v>1020</v>
       </c>
@@ -13750,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>1022</v>
       </c>
@@ -13771,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>1023</v>
       </c>
@@ -13792,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>1024</v>
       </c>
@@ -13813,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>1025</v>
       </c>
@@ -13835,22 +14402,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -13870,7 +14438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>41</v>
       </c>
@@ -13890,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>42</v>
       </c>
@@ -13910,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>111</v>
       </c>
@@ -13930,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>111</v>
       </c>
@@ -13950,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>131</v>
       </c>
@@ -13970,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>132</v>
       </c>
@@ -13990,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>133</v>
       </c>
@@ -14010,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>134</v>
       </c>
@@ -14030,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>135</v>
       </c>
@@ -14050,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>136</v>
       </c>
@@ -14064,13 +14632,13 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>137</v>
       </c>
@@ -14090,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>211</v>
       </c>
@@ -14110,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>211</v>
       </c>
@@ -14130,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>231</v>
       </c>
@@ -14150,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>232</v>
       </c>
@@ -14170,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>233</v>
       </c>
@@ -14190,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>234</v>
       </c>
@@ -14210,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>235</v>
       </c>
@@ -14230,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>236</v>
       </c>
@@ -14250,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>311</v>
       </c>
@@ -14270,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>311</v>
       </c>
@@ -14290,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>331</v>
       </c>
@@ -14310,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>332</v>
       </c>
@@ -14330,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>333</v>
       </c>
@@ -14350,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>334</v>
       </c>
@@ -14370,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>336</v>
       </c>
@@ -14390,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>336</v>
       </c>
@@ -14410,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>336</v>
       </c>
@@ -14430,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>411</v>
       </c>
@@ -14450,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>411</v>
       </c>
@@ -14470,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>431</v>
       </c>
@@ -14490,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>432</v>
       </c>
@@ -14510,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>433</v>
       </c>
@@ -14530,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>434</v>
       </c>
@@ -14550,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>435</v>
       </c>
@@ -14570,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>436</v>
       </c>
@@ -14590,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>437</v>
       </c>
@@ -14610,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>511</v>
       </c>
@@ -14630,7 +15198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>511</v>
       </c>
@@ -14650,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>531</v>
       </c>
@@ -14670,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>532</v>
       </c>
@@ -14690,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>533</v>
       </c>
@@ -14710,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>534</v>
       </c>
@@ -14730,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>535</v>
       </c>
@@ -14750,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>536</v>
       </c>
@@ -14771,26 +15339,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="3" max="3" width="42.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14801,7 +15370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14812,7 +15381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14823,7 +15392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -14834,7 +15403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>21</v>
       </c>
@@ -14845,7 +15414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>31</v>
       </c>
@@ -14856,7 +15425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14867,18 +15436,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" ht="26" spans="1:3">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>42</v>
       </c>
@@ -14889,7 +15458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>101</v>
       </c>
@@ -14900,7 +15469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>102</v>
       </c>
@@ -14911,1199 +15480,1200 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="26" spans="1:3">
       <c r="A14">
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="26" spans="1:3">
       <c r="A15">
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" ht="26" spans="1:3">
       <c r="A18">
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" ht="26" spans="1:3">
       <c r="A20">
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:3">
       <c r="A21">
         <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" ht="26" spans="1:3">
       <c r="A22">
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="26" spans="1:3">
       <c r="A23">
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" ht="39" spans="1:3">
       <c r="A30">
         <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" ht="28" customHeight="1" spans="1:3">
       <c r="A31">
         <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="26" spans="1:3">
       <c r="A36">
         <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" ht="26" spans="1:3">
       <c r="A38">
         <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>302</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>305</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" ht="26" spans="1:3">
       <c r="A45">
         <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" ht="26" spans="1:3">
       <c r="A46">
         <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>331</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" ht="26" spans="1:3">
       <c r="A50">
         <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" ht="26" spans="1:3">
       <c r="A52">
         <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" ht="26" spans="1:3">
       <c r="A53">
         <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>405</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" ht="26" spans="1:3">
       <c r="A60">
         <v>411</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" ht="39" spans="1:3">
       <c r="A61">
         <v>412</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>432</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>433</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>434</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" ht="26" spans="1:3">
       <c r="A67">
         <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" ht="26" spans="1:3">
       <c r="A68">
         <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>437</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>441</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>502</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" ht="26" spans="1:3">
       <c r="A73">
         <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" ht="26" spans="1:3">
       <c r="A75">
         <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" ht="26" spans="1:3">
       <c r="A76">
         <v>511</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" ht="26" spans="1:3">
       <c r="A77">
         <v>512</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>521</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>531</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" ht="26" spans="1:3">
       <c r="A80">
         <v>532</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" ht="26" spans="1:3">
       <c r="A81">
         <v>533</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" ht="26" spans="1:3">
       <c r="A82">
         <v>534</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" ht="26" spans="1:3">
       <c r="A83">
         <v>535</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>536</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>541</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>601</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>1000</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>1001</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>1002</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>1003</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>1004</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>1005</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>1006</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>1007</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>1008</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>1009</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>1010</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>1011</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>1012</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="12" customHeight="1" spans="1:3">
       <c r="A100">
         <v>1013</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="12" customHeight="1" spans="1:3">
       <c r="A101">
         <v>1014</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>1015</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>1016</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>1017</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>1018</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>1019</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>1020</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>1022</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>1023</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>1024</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>1025</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>2001</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>2002</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>2003</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>2004</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>2005</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>2009</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="1.7265625" customWidth="1"/>
-    <col min="6" max="6" width="1.54296875" customWidth="1"/>
-    <col min="9" max="9" width="1.6328125" customWidth="1"/>
-    <col min="12" max="12" width="2.26953125" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.54296875" customWidth="1"/>
-    <col min="18" max="18" width="2.453125" customWidth="1"/>
-    <col min="22" max="22" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="1.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="1.54545454545455" customWidth="1"/>
+    <col min="9" max="9" width="1.63636363636364" customWidth="1"/>
+    <col min="12" max="12" width="2.27272727272727" customWidth="1"/>
+    <col min="14" max="14" width="15.4545454545455" customWidth="1"/>
+    <col min="15" max="15" width="2.54545454545455" customWidth="1"/>
+    <col min="18" max="18" width="2.45454545454545" customWidth="1"/>
+    <col min="22" max="22" width="37.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -16120,180 +16690,180 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="W1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -16305,369 +16875,363 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="4:24">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>276</v>
-      </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="4:24">
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="7:24">
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M8">
         <v>13</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>329</v>
+      <c r="N8" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="16:24">
       <c r="P9">
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="16:24">
       <c r="P10">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="16:24">
       <c r="P11">
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="16:22">
       <c r="P12">
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="16:22">
       <c r="P13">
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="16:22">
       <c r="P14">
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="16:22">
       <c r="P15">
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="16:22">
       <c r="P16">
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P17" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="16:22">
+      <c r="P17" s="2">
         <v>303</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>317</v>
+      <c r="Q17" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="16:22" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="16:22">
       <c r="P18">
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="16:22" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17">
       <c r="P19">
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="16:22" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="16:17">
       <c r="P20">
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="16:22" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17">
       <c r="P21">
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="16:22" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17">
       <c r="P22">
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="16:22" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="16:17">
       <c r="P23">
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="16:22" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="16:17">
       <c r="P24">
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="16:22" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="16:17">
       <c r="P25">
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
     <t>ディープフリーズ</t>
   </si>
   <si>
-    <t>敵一体に凍結付与</t>
+    <t>敵一列に凍結付与</t>
   </si>
   <si>
     <t>フリジットシェル</t>
@@ -585,7 +585,7 @@
     <t>ディバインシールド</t>
   </si>
   <si>
-    <t>状態異常にかからなくなる</t>
+    <t>スタン・火傷・鈍足・呪い状態にかからなくなる</t>
   </si>
   <si>
     <t>メディケーション</t>
@@ -1060,9 +1060,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1080,6 +1080,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1087,8 +1119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,6 +1143,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,16 +1164,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,79 +1217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,7 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,13 +1257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,19 +1281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,37 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,19 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +1341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,37 +1377,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,6 +1430,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1458,21 +1502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1483,15 +1512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,26 +1530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1538,145 +1538,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,8 +2433,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4684,7 +4684,7 @@
         <v>単体</v>
       </c>
       <c r="J31">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5743,11 +5743,11 @@
         <v>相手</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="str">
         <f>INDEX(Define!N:N,MATCH(S45,Define!M:M))</f>
-        <v>単体</v>
+        <v>列</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -11084,7 +11084,7 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -15349,8 +15349,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -1060,9 +1060,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1080,9 +1080,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,9 +1118,79 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1113,7 +1203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,97 +1218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,7 +1239,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,13 +1365,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,109 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,31 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,31 +1433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,6 +1465,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1486,17 +1483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,17 +1513,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,145 +1538,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,8 +2433,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4759,7 +4759,7 @@
         <v>全体</v>
       </c>
       <c r="J32">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>単体</v>
       </c>
       <c r="J44">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2</v>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,8 @@
     <t>ウルフソウル</t>
   </si>
   <si>
-    <t>常時ATK8がアップ</t>
+    <t>(条件)バトル開始時
+ATK8がアップ</t>
   </si>
   <si>
     <t>プリディカメント</t>
@@ -411,7 +412,8 @@
     <t>スウィフトカレント</t>
   </si>
   <si>
-    <t>常時SPDが8アップ</t>
+    <t>(条件)バトル開始時
+SPDが8アップ</t>
   </si>
   <si>
     <t>ファストキャスター</t>
@@ -424,7 +426,8 @@
     <t>ヘブンリーラック</t>
   </si>
   <si>
-    <t>常時自身の回避率を33%アップ</t>
+    <t>(条件)バトル開始時
+自身の回避率を33%アップ</t>
   </si>
   <si>
     <t>クイックアクト</t>
@@ -452,7 +455,7 @@
     <t>シールドスペル</t>
   </si>
   <si>
-    <t>味方一人のDEFを4アップ</t>
+    <t>味方一人のDEFを8アップ</t>
   </si>
   <si>
     <t>エスコートソール</t>
@@ -496,7 +499,8 @@
     <t>アーマーコード</t>
   </si>
   <si>
-    <t>常時DEFが8アップ</t>
+    <t>(条件)バトル開始時
+DEFが8アップ</t>
   </si>
   <si>
     <t>ガードシフト</t>
@@ -585,7 +589,8 @@
     <t>ディバインシールド</t>
   </si>
   <si>
-    <t>スタン・火傷・鈍足・呪い状態にかからなくなる</t>
+    <t>(条件)バトル開始時
+スタン・火傷・鈍足・呪い状態にかからなくなる</t>
   </si>
   <si>
     <t>メディケーション</t>
@@ -597,7 +602,8 @@
     <t>エイミングスコープ</t>
   </si>
   <si>
-    <t>バトル開始時味方全員の命中率が50%アップ</t>
+    <t>(条件)バトル開始時
+味方全員の命中率が50%アップ</t>
   </si>
   <si>
     <t>リジェネレーション</t>
@@ -616,7 +622,7 @@
     <t>スペクトルマイン</t>
   </si>
   <si>
-    <t>自身以外のHpを回復すると
+    <t>(条件)自身以外のHpを回復
 同じ分だけ自身のHpも回復する</t>
   </si>
   <si>
@@ -645,7 +651,7 @@
   </si>
   <si>
     <t>敵単体にダメージ
-ダメージの25%をHp回復</t>
+ダメージの50%をHp回復</t>
   </si>
   <si>
     <t>デリートマジック</t>
@@ -684,7 +690,8 @@
     <t>イーグルアイ</t>
   </si>
   <si>
-    <t>常時クリティカル発生率が20%アップ</t>
+    <t>(条件)バトル開始時
+クリティカル発生率が25%アップ</t>
   </si>
   <si>
     <t>ネヴァーエンド</t>
@@ -718,7 +725,8 @@
     <t>アンデッドペイン</t>
   </si>
   <si>
-    <t>常時アンデット状態になる</t>
+    <t>(条件)バトル開始時
+Hpを5回復しアンデット状態になる</t>
   </si>
   <si>
     <t>ダークエンチャント</t>
@@ -1059,9 +1067,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -1081,14 +1089,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,21 +1121,6 @@
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1132,23 +1140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,7 +1195,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1195,23 +1203,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,6 +1220,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,13 +1247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +1301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1331,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,121 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,6 +1438,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1459,26 +1485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,16 +1523,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,19 +1546,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1559,25 +1567,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1586,97 +1594,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,7 +2441,7 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -11082,10 +11090,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -12223,7 +12231,7 @@
         <v>999</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D49,[1]TextData!A:A))</f>
@@ -12777,7 +12785,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D73">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -12787,7 +12795,7 @@
       </c>
       <c r="G73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D73,[1]TextData!A:A))</f>
-        <v>拘束</v>
+        <v>火傷</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -12802,7 +12810,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D74">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -12812,37 +12820,37 @@
       </c>
       <c r="G74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>呪い</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B75,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステート解除</v>
       </c>
       <c r="D75">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D75,[1]TextData!A:A))</f>
-        <v>祝福</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>拘束</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B76">
         <v>22</v>
@@ -12852,7 +12860,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -12860,20 +12868,24 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D76,[1]TextData!A:A))</f>
+        <v>呪い</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B77,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート解除</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -12881,66 +12893,70 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
+        <v>凍結</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B78">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B78,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>ステート付与</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D78,[1]TextData!A:A))</f>
+        <v>祝福</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B79,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステート解除</v>
       </c>
       <c r="D79">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>10</v>
-      </c>
-      <c r="G79" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D79,[1]TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B80">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B80,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>Hp回復</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -12951,17 +12967,17 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B81,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -12970,105 +12986,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B82,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="G82" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D82,[1]TextData!A:A))</f>
+        <v>リジェネ</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B83,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D83">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B84,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステート解除</v>
       </c>
       <c r="D84">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>10</v>
-      </c>
-      <c r="G84" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D84,[1]TextData!A:A))</f>
-        <v>アフターヒール</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B85,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hp回復</v>
       </c>
       <c r="D85">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>50</v>
-      </c>
-      <c r="G85" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D85,[1]TextData!A:A))</f>
-        <v>命中アップ</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B86">
         <v>21</v>
@@ -13078,22 +13086,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D86">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="E86">
         <v>999</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D86,[1]TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B87">
         <v>21</v>
@@ -13103,22 +13111,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E87">
         <v>999</v>
       </c>
       <c r="F87">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D87,[1]TextData!A:A))</f>
-        <v>最大Hpアップ</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B88">
         <v>21</v>
@@ -13128,22 +13136,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D88">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E88">
         <v>999</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D88,[1]TextData!A:A))</f>
-        <v>同時回復</v>
+        <v>命中アップ</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B89">
         <v>21</v>
@@ -13153,120 +13161,132 @@
         <v>ステート付与</v>
       </c>
       <c r="D89">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E89">
         <v>999</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
-        <v>必中</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B90">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B90,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>ステート付与</v>
       </c>
       <c r="D90">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="F90">
         <v>20</v>
       </c>
       <c r="G90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D90,[1]TextData!A:A))</f>
-        <v>光適性</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>最大Hpアップ</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B91,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D91">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G91" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D91,[1]TextData!A:A))</f>
+        <v>同時回復</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B92,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D92">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D92,[1]TextData!A:A))</f>
+        <v>必中</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B93,Define!P:P))</f>
-        <v>Hp吸収ダメージ</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D93">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="G93" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D93,[1]TextData!A:A))</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B94">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B94,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D94">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -13274,24 +13294,20 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D94,[1]TextData!A:A))</f>
-        <v>攻撃アップ</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B95">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B95,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D95">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -13299,34 +13315,26 @@
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D95,[1]TextData!A:A))</f>
-        <v>防御アップ</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B96,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hp吸収ダメージ</v>
       </c>
       <c r="D96">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D96,[1]TextData!A:A))</f>
-        <v>ダメージ威力アップ</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -13341,7 +13349,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D97">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13351,7 +13359,7 @@
       </c>
       <c r="G97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D97,[1]TextData!A:A))</f>
-        <v>回避アップ</v>
+        <v>攻撃アップ</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13366,7 +13374,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D98">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -13376,7 +13384,7 @@
       </c>
       <c r="G98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
-        <v>CA</v>
+        <v>防御アップ</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13391,7 +13399,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D99">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -13401,7 +13409,7 @@
       </c>
       <c r="G99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D99,[1]TextData!A:A))</f>
-        <v>攻撃無効</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13416,7 +13424,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D100">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -13426,7 +13434,7 @@
       </c>
       <c r="G100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D100,[1]TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>回避アップ</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13441,7 +13449,7 @@
         <v>ステート解除</v>
       </c>
       <c r="D101">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -13451,47 +13459,47 @@
       </c>
       <c r="G101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D101,[1]TextData!A:A))</f>
-        <v>祝福</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B102,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステート解除</v>
       </c>
       <c r="D102">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E102">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
-        <v>呪い</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>攻撃無効</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B103,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート解除</v>
       </c>
       <c r="D103">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -13499,20 +13507,24 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
+        <v>リジェネ</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B104">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B104,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>ステート解除</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -13520,41 +13532,49 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D104,[1]TextData!A:A))</f>
+        <v>祝福</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B105,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D105">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F105">
         <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D105,[1]TextData!A:A))</f>
+        <v>呪い</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B106">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B106,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -13563,84 +13583,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:6">
       <c r="A107">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B107,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D107">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>33</v>
-      </c>
-      <c r="G107" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D107,[1]TextData!A:A))</f>
-        <v>暗闇</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B108,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D108">
-        <v>47</v>
+        <v>600</v>
       </c>
       <c r="E108">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>20</v>
-      </c>
-      <c r="G108" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D108,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B109,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D109">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E109">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>75</v>
-      </c>
-      <c r="G109" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D109,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -13650,22 +13658,22 @@
         <v>ステート付与</v>
       </c>
       <c r="D110">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="E110">
         <v>999</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D110,[1]TextData!A:A))</f>
-        <v>ドレイン</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B111">
         <v>21</v>
@@ -13675,43 +13683,47 @@
         <v>ステート付与</v>
       </c>
       <c r="D111">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E111">
         <v>999</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D111,[1]TextData!A:A))</f>
-        <v>即死</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>クリティカル発生率アップ</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B112,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="G112" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D112,[1]TextData!A:A))</f>
+        <v>クリティカル発生率アップ</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B113">
         <v>21</v>
@@ -13721,68 +13733,68 @@
         <v>ステート付与</v>
       </c>
       <c r="D113">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E113">
         <v>999</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D113,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>ドレイン</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B114,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D114">
+        <v>114</v>
+      </c>
+      <c r="E114">
+        <v>999</v>
+      </c>
+      <c r="F114">
         <v>5</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="G114" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D114,[1]TextData!A:A))</f>
+        <v>即死</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B115">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B115,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>Hp回復</v>
       </c>
       <c r="D115">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>20</v>
-      </c>
-      <c r="G115" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D115,[1]TextData!A:A))</f>
-        <v>闇適性</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="B116">
         <v>21</v>
@@ -13792,32 +13804,32 @@
         <v>ステート付与</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E116">
         <v>999</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D116,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1000</v>
+        <v>536</v>
       </c>
       <c r="B117">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B117,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>Hp回復</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13826,61 +13838,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7">
       <c r="A118">
-        <v>1001</v>
+        <v>541</v>
       </c>
       <c r="B118">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B118,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D118">
+        <v>205</v>
+      </c>
+      <c r="E118">
         <v>5</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G118" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D118,[1]TextData!A:A))</f>
+        <v>闇適性</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
-        <v>1002</v>
+        <v>601</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B119,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D119">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F119">
         <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D119,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B120,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D120">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -13891,17 +13911,17 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B121,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D121">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -13912,17 +13932,17 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B122">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B122,Define!P:P))</f>
-        <v>Numinouse消費率</v>
+        <v>Hp回復</v>
       </c>
       <c r="D122">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -13933,17 +13953,17 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B123">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B123,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>Mp回復</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -13952,44 +13972,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:6">
       <c r="A124">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B124">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B124,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hp回復</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
-      </c>
-      <c r="G124" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D124,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B125">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B125,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>Numinouse消費率</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -14000,17 +14016,17 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B126">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B126,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -14019,37 +14035,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7">
       <c r="A127">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B127">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B127,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>ステート解除</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
+      </c>
+      <c r="G127" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D127,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B128">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B128,Define!P:P))</f>
-        <v>アルカナ変更</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -14063,17 +14083,17 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B129">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B129,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>隷従属度</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -14084,17 +14104,17 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B130">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B130,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D130">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -14103,16 +14123,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="12" customHeight="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B131">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B131,Define!P:P))</f>
-        <v>敵前衛消滅</v>
+        <v>アルカナ変更</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -14124,44 +14144,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="12" customHeight="1" spans="1:7">
+    <row r="132" spans="1:6">
       <c r="A132">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B132">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B132,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D132">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
-      </c>
-      <c r="G132" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D132,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B133">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B133,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>隷従属度</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14172,17 +14188,17 @@
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:6">
       <c r="A134">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B134">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B134,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>敵前衛消滅</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -14191,40 +14207,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" ht="12" customHeight="1" spans="1:7">
       <c r="A135">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B135">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B135,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>ステート付与</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F135">
         <v>0</v>
+      </c>
+      <c r="G135" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D135,[1]TextData!A:A))</f>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B136">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B136,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -14233,19 +14253,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" ht="12" customHeight="1" spans="1:6">
       <c r="A137">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B137">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B137,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14256,17 +14276,17 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B138">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B138,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -14277,17 +14297,17 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B139">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B139,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14296,19 +14316,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="12" customHeight="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B140">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B140,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>SP加算</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -14319,17 +14339,17 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B141">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>命令不可</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -14340,14 +14360,14 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>SP加算</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -14359,16 +14379,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" ht="12" customHeight="1" spans="1:6">
       <c r="A143">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D143">
         <v>10</v>
@@ -14382,22 +14402,85 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B144">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B144,Define!P:P))</f>
+        <v>SP加算</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>1023</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B145,Define!P:P))</f>
+        <v>Mp回復</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>1024</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B146,Define!P:P))</f>
+        <v>Hp回復</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>1025</v>
+      </c>
+      <c r="B147">
+        <v>301</v>
+      </c>
+      <c r="C147" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B147,Define!P:P))</f>
         <v>Numinous加算</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>0</v>
       </c>
     </row>
@@ -14410,10 +14493,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -15303,7 +15386,7 @@
         <v>535</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -15323,18 +15406,38 @@
         <v>536</v>
       </c>
       <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>536</v>
+      </c>
+      <c r="B47">
         <v>41</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>117</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
     </row>
@@ -15349,8 +15452,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -15535,7 +15638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="26" spans="1:3">
       <c r="A17">
         <v>131</v>
       </c>
@@ -15733,14 +15836,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="26" spans="1:3">
       <c r="A35">
         <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15755,7 +15858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="26" spans="1:3">
       <c r="A37">
         <v>235</v>
       </c>
@@ -15887,14 +15990,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="26" spans="1:3">
       <c r="A49">
         <v>332</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -16041,14 +16144,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" ht="26" spans="1:3">
       <c r="A63">
         <v>431</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -16063,14 +16166,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" ht="26" spans="1:3">
       <c r="A65">
         <v>433</v>
       </c>
       <c r="B65" t="s">
         <v>184</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -16217,7 +16320,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" ht="26" spans="1:3">
       <c r="A79">
         <v>531</v>
       </c>
@@ -16272,7 +16375,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="26" spans="1:3">
       <c r="A84">
         <v>536</v>
       </c>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
     <t>メディケーション</t>
   </si>
   <si>
-    <t>行動後自身以外のHpを10回復する</t>
+    <t>行動後自身以外のHpを2回復する</t>
   </si>
   <si>
     <t>エイミングスコープ</t>
@@ -1068,9 +1068,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1088,8 +1088,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,23 +1125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,14 +1143,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,9 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,7 +1194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1212,6 +1211,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1220,13 +1227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,7 +1247,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,115 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,13 +1361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,19 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,15 +1450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1474,6 +1465,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1485,21 +1485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,6 +1513,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1546,16 +1546,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,28 +1564,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,97 +1594,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,8 +2441,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -7217,18 +7217,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R65" t="str">
         <f>INDEX(Define!K:K,MATCH(Q65,Define!J:J))</f>
-        <v>自身</v>
+        <v>味方</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T65" t="str">
         <f>INDEX(Define!N:N,MATCH(S65,Define!M:M))</f>
-        <v>自身</v>
+        <v>全体・自信を除く</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -11092,8 +11092,8 @@
   <sheetPr/>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -13117,7 +13117,7 @@
         <v>999</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D87,[1]TextData!A:A))</f>
@@ -14495,7 +14495,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -15452,8 +15452,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1067,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1088,8 +1088,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1097,7 +1105,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,58 +1170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1178,23 +1178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1231,6 +1224,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1247,37 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,19 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,13 +1295,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,91 +1415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,15 +1438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1461,15 +1452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,6 +1482,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,145 +1546,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1964,185 +1964,193 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>101</v>
+            <v>71</v>
           </cell>
           <cell r="B24" t="str">
-            <v>拘束</v>
+            <v>バフ解除</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="B25" t="str">
-            <v>拘束ダメージ</v>
+            <v>拘束</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="B26" t="str">
-            <v>CA</v>
+            <v>拘束ダメージ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>104</v>
+            <v>103</v>
           </cell>
           <cell r="B27" t="str">
-            <v>攻撃無効</v>
+            <v>CA</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>105</v>
+            <v>104</v>
           </cell>
           <cell r="B28" t="str">
-            <v>リジェネ</v>
+            <v>攻撃無効</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>106</v>
+            <v>105</v>
           </cell>
           <cell r="B29" t="str">
-            <v>行動後AP設定</v>
+            <v>リジェネ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>107</v>
+            <v>106</v>
           </cell>
           <cell r="B30" t="str">
-            <v>挑発</v>
+            <v>行動後AP設定</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>108</v>
+            <v>107</v>
           </cell>
           <cell r="B31" t="str">
-            <v>バニッシュ</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>109</v>
+            <v>108</v>
           </cell>
           <cell r="B32" t="str">
-            <v>祝福</v>
+            <v>バニッシュ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>110</v>
+            <v>109</v>
           </cell>
           <cell r="B33" t="str">
-            <v>呪い</v>
+            <v>祝福</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>111</v>
+            <v>110</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ドレイン</v>
+            <v>呪い</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B35" t="str">
-            <v>アフターヒール</v>
+            <v>ドレイン</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>113</v>
+            <v>112</v>
           </cell>
           <cell r="B36" t="str">
-            <v>CAダメージ</v>
+            <v>アフターヒール</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>114</v>
+            <v>113</v>
           </cell>
           <cell r="B37" t="str">
-            <v>即死</v>
+            <v>CAダメージ</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>115</v>
+            <v>114</v>
           </cell>
           <cell r="B38" t="str">
-            <v>CA回復</v>
+            <v>即死</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>116</v>
+            <v>115</v>
           </cell>
           <cell r="B39" t="str">
-            <v>同時回復</v>
+            <v>CA回復</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>117</v>
+            <v>116</v>
           </cell>
           <cell r="B40" t="str">
-            <v>アンデッド</v>
+            <v>同時回復</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>118</v>
+            <v>117</v>
           </cell>
           <cell r="B41" t="str">
-            <v>必中</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>201</v>
+            <v>118</v>
           </cell>
           <cell r="B42" t="str">
-            <v>炎適正</v>
+            <v>必中</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B43" t="str">
-            <v>雷適性</v>
+            <v>炎適正</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B44" t="str">
-            <v>氷適性</v>
+            <v>雷適性</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B45" t="str">
-            <v>光適性</v>
+            <v>氷適性</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
+            <v>204</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>光適性</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
             <v>205</v>
           </cell>
-          <cell r="B46" t="str">
+          <cell r="B47" t="str">
             <v>闇適性</v>
           </cell>
         </row>
@@ -2441,7 +2449,7 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
@@ -11090,10 +11098,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A98" sqref="$A98:$XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -13342,14 +13350,14 @@
         <v>504</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B97,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステート付与</v>
       </c>
       <c r="D97">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13359,47 +13367,47 @@
       </c>
       <c r="G97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D97,[1]TextData!A:A))</f>
-        <v>攻撃アップ</v>
+        <v>バフ解除</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B98,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステート付与</v>
       </c>
       <c r="D98">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
-        <v>防御アップ</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>呪い</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B99,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D99">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -13407,24 +13415,20 @@
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D99,[1]TextData!A:A))</f>
-        <v>ダメージ威力アップ</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B100">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B100,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D100">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -13432,24 +13436,20 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D100,[1]TextData!A:A))</f>
-        <v>回避アップ</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B101,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D101">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -13457,89 +13457,81 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D101,[1]TextData!A:A))</f>
-        <v>CA</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B102">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B102,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>行動後スキル</v>
       </c>
       <c r="D102">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
-      </c>
-      <c r="G102" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
-        <v>攻撃無効</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B103,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステート付与</v>
       </c>
       <c r="D103">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B104,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>ステート付与</v>
       </c>
       <c r="D104">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D104,[1]TextData!A:A))</f>
-        <v>祝福</v>
+        <v>クリティカル発生率アップ</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="B105">
         <v>21</v>
@@ -13549,74 +13541,82 @@
         <v>ステート付与</v>
       </c>
       <c r="D105">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="E105">
         <v>999</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D105,[1]TextData!A:A))</f>
-        <v>呪い</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>クリティカル発生率アップ</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B106,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D106">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G106" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D106,[1]TextData!A:A))</f>
+        <v>ドレイン</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B107">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B107,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>ステート付与</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G107" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D107,[1]TextData!A:A))</f>
+        <v>即死</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B108,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>Hp回復</v>
       </c>
       <c r="D108">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -13625,80 +13625,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7">
       <c r="A109">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="B109">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B109,Define!P:P))</f>
-        <v>行動後スキル</v>
+        <v>ステート付与</v>
       </c>
       <c r="D109">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="G109" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D109,[1]TextData!A:A))</f>
+        <v>アンデッド</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B110,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Hp回復</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>33</v>
-      </c>
-      <c r="G110" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D110,[1]TextData!A:A))</f>
-        <v>暗闇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B111">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B111,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D111">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="E111">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D111,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>闇適性</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="B112">
         <v>21</v>
@@ -13708,72 +13708,64 @@
         <v>ステート付与</v>
       </c>
       <c r="D112">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>999</v>
       </c>
       <c r="F112">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D112,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>戦闘不能</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B113,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D113">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>25</v>
-      </c>
-      <c r="G113" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D113,[1]TextData!A:A))</f>
-        <v>ドレイン</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
-        <v>534</v>
+        <v>1001</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B114,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>SP加算</v>
       </c>
       <c r="D114">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>5</v>
-      </c>
-      <c r="G114" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D114,[1]TextData!A:A))</f>
-        <v>即死</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>535</v>
+        <v>1002</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -13783,7 +13775,7 @@
         <v>Hp回復</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -13792,34 +13784,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:6">
       <c r="A116">
-        <v>536</v>
+        <v>1002</v>
       </c>
       <c r="B116">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B116,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>Mp回復</v>
       </c>
       <c r="D116">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="E116">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>10</v>
-      </c>
-      <c r="G116" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D116,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>536</v>
+        <v>1003</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -13829,7 +13817,7 @@
         <v>Hp回復</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -13838,90 +13826,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:6">
       <c r="A118">
-        <v>541</v>
+        <v>1004</v>
       </c>
       <c r="B118">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B118,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>Numinouse消費率</v>
       </c>
       <c r="D118">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>20</v>
-      </c>
-      <c r="G118" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D118,[1]TextData!A:A))</f>
-        <v>闇適性</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
-        <v>601</v>
+        <v>1005</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B119,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D119,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B120">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B120,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>ステート解除</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D120,[1]TextData!A:A))</f>
+        <v>戦闘不能</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B121">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B121,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -13932,14 +13916,14 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B122,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>隷従属度</v>
       </c>
       <c r="D122">
         <v>30</v>
@@ -13953,17 +13937,17 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B123,Define!P:P))</f>
-        <v>Mp回復</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -13974,17 +13958,17 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B124,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>アルカナ変更</v>
       </c>
       <c r="D124">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -13995,17 +13979,17 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="B125">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B125,Define!P:P))</f>
-        <v>Numinouse消費率</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D125">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -14016,17 +14000,17 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="B126">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B126,Define!P:P))</f>
-        <v>撃破SPアップ</v>
+        <v>隷従属度</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -14035,19 +14019,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" ht="12" customHeight="1" spans="1:6">
       <c r="A127">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B127,Define!P:P))</f>
-        <v>ステート解除</v>
+        <v>敵前衛消滅</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -14055,45 +14039,45 @@
       <c r="F127">
         <v>0</v>
       </c>
-      <c r="G127" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D127,[1]TextData!A:A))</f>
-        <v>戦闘不能</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" ht="12" customHeight="1" spans="1:7">
       <c r="A128">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B128">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B128,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>ステート付与</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F128">
         <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D128,[1]TextData!A:A))</f>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="B129">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B129,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>ステータスコスト減算</v>
       </c>
       <c r="D129">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -14102,9 +14086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" ht="12" customHeight="1" spans="1:6">
       <c r="A130">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="B130">
         <v>307</v>
@@ -14114,7 +14098,7 @@
         <v>ステータスコスト減算</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -14125,17 +14109,17 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="B131">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B131,Define!P:P))</f>
-        <v>アルカナ変更</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -14146,17 +14130,17 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B132">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B132,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>命令不可</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -14167,17 +14151,17 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="B133">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B133,Define!P:P))</f>
-        <v>隷従属度</v>
+        <v>SP加算</v>
       </c>
       <c r="D133">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14186,16 +14170,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="12" customHeight="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="B134">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B134,Define!P:P))</f>
-        <v>敵前衛消滅</v>
+        <v>命令不可</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -14207,44 +14191,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="12" customHeight="1" spans="1:7">
+    <row r="135" spans="1:6">
       <c r="A135">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B135,Define!P:P))</f>
-        <v>ステート付与</v>
+        <v>SP加算</v>
       </c>
       <c r="D135">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E135">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
-      <c r="G135" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D135,[1]TextData!A:A))</f>
-        <v>状態異常無効</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" ht="12" customHeight="1" spans="1:6">
       <c r="A136">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="B136">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B136,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>撃破SPアップ</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -14253,19 +14233,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="12" customHeight="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B137">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B137,Define!P:P))</f>
-        <v>ステータスコスト減算</v>
+        <v>SP加算</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14276,17 +14256,17 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B138">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B138,Define!P:P))</f>
-        <v>Numinous加算</v>
+        <v>Mp回復</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -14297,17 +14277,17 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B139">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B139,Define!P:P))</f>
-        <v>命令不可</v>
+        <v>Hp回復</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14318,169 +14298,22 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B140">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B140,Define!P:P))</f>
-        <v>SP加算</v>
+        <v>Numinous加算</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>1018</v>
-      </c>
-      <c r="B141">
-        <v>311</v>
-      </c>
-      <c r="C141" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
-        <v>命令不可</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>1019</v>
-      </c>
-      <c r="B142">
-        <v>304</v>
-      </c>
-      <c r="C142" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
-        <v>SP加算</v>
-      </c>
-      <c r="D142">
-        <v>10</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="12" customHeight="1" spans="1:6">
-      <c r="A143">
-        <v>1020</v>
-      </c>
-      <c r="B143">
-        <v>309</v>
-      </c>
-      <c r="C143" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
-        <v>撃破SPアップ</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>1022</v>
-      </c>
-      <c r="B144">
-        <v>304</v>
-      </c>
-      <c r="C144" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B144,Define!P:P))</f>
-        <v>SP加算</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>1023</v>
-      </c>
-      <c r="B145">
-        <v>7</v>
-      </c>
-      <c r="C145" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B145,Define!P:P))</f>
-        <v>Mp回復</v>
-      </c>
-      <c r="D145">
-        <v>10</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>1024</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B146,Define!P:P))</f>
-        <v>Hp回復</v>
-      </c>
-      <c r="D146">
-        <v>10</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>1025</v>
-      </c>
-      <c r="B147">
-        <v>301</v>
-      </c>
-      <c r="C147" t="str">
-        <f>INDEX(Define!Q:Q,MATCH(B147,Define!P:P))</f>
-        <v>Numinous加算</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
         <v>0</v>
       </c>
     </row>
@@ -14495,7 +14328,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -15452,7 +15285,7 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>(条件)バトル中Mpを15消費する
-敵単体にダメージ 神化状態に移行</t>
+敵全員に10ダメージの火傷付与(永続) 神化状態に移行</t>
   </si>
   <si>
     <t>スベテモヤシツクス</t>
@@ -1088,19 +1088,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1118,13 +1131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1134,8 +1140,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,6 +1172,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,37 +1210,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1196,37 +1226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,13 +1247,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,163 +1421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,6 +1438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1456,32 +1465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,20 +1483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,6 +1523,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1546,7 +1546,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,7 +1555,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,127 +1564,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2449,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3554,11 +3554,11 @@
         <v>相手</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="str">
         <f>INDEX(Define!N:N,MATCH(S15,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -11100,8 +11100,8 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A98" sqref="$A98:$XFD107"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11423,25 +11423,29 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>111</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B15,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>ステート付与</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D15,[1]TextData!A:A))</f>
+        <v>火傷</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -15285,8 +15289,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -15438,7 +15442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" ht="26" spans="1:3">
+    <row r="14" ht="39" spans="1:3">
       <c r="A14">
         <v>111</v>
       </c>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -1067,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1089,14 +1089,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,36 +1150,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1154,9 +1185,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,62 +1226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,7 +1247,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,55 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,97 +1409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,12 +1428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1445,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,20 +1465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,17 +1495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,6 +1529,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1546,145 +1546,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2449,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6833,7 +6833,7 @@
         <v>単体</v>
       </c>
       <c r="J60">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -11100,7 +11100,7 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1067,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1089,24 +1089,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1117,9 +1110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,15 +1126,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1150,7 +1134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,30 +1156,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,18 +1178,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,8 +1201,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,7 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1283,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1337,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,43 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,13 +1397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,61 +1415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,19 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,15 +1438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1461,21 +1452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,6 +1480,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1515,16 +1515,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1546,16 +1546,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,127 +1564,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2449,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -11100,7 +11100,7 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -14330,10 +14330,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -14860,16 +14860,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -14889,7 +14889,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -14920,22 +14920,22 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="B30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -14943,30 +14943,30 @@
         <v>411</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -15000,7 +15000,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -15020,7 +15020,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -15040,10 +15040,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -15060,10 +15060,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -15080,7 +15080,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -15100,22 +15100,22 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -15123,30 +15123,30 @@
         <v>511</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -15160,16 +15160,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15189,7 +15189,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -15200,16 +15200,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -15220,16 +15220,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -15240,16 +15240,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -15263,18 +15263,38 @@
         <v>536</v>
       </c>
       <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>536</v>
+      </c>
+      <c r="B48">
         <v>41</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>117</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
     </row>
@@ -15289,8 +15309,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1068,9 +1068,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1089,7 +1089,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,8 +1140,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,9 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,36 +1194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,23 +1210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,22 +1226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,7 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,13 +1283,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1331,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,133 +1415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,6 +1438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1474,6 +1483,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1491,15 +1509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,15 +1538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1546,19 +1546,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,124 +1567,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2449,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView topLeftCell="D71" workbookViewId="0">
+      <selection activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -8843,14 +8843,14 @@
         <v>相手</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T87" t="str">
         <f>INDEX(Define!N:N,MATCH(S87,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V87">
         <v>1</v>
@@ -11100,8 +11100,8 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -14332,8 +14332,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="$A49:$XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -15309,7 +15309,7 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <t>クイックアクト</t>
   </si>
   <si>
-    <t>(条件)戦闘開始時味方より敵が少ない
+    <t>(条件)バトル開始時味方より敵が少ない
 SPDが8アップ</t>
   </si>
   <si>
@@ -609,14 +609,14 @@
     <t>リジェネレーション</t>
   </si>
   <si>
-    <t>行動後自身のHpを10回復する</t>
+    <t>行動後自身のHpを5回復する</t>
   </si>
   <si>
     <t>アライアンス</t>
   </si>
   <si>
-    <t>(条件)戦闘開始時味方より敵が多い
-最大HpとHpが20アップ</t>
+    <t>(条件)バトル開始時味方より敵が多い
+MaxHpとHpが20アップ</t>
   </si>
   <si>
     <t>スペクトルマイン</t>
@@ -691,14 +691,14 @@
   </si>
   <si>
     <t>(条件)バトル開始時
-クリティカル発生率が25%アップ</t>
+致命攻撃発生率が25%アップ</t>
   </si>
   <si>
     <t>ネヴァーエンド</t>
   </si>
   <si>
     <t>(条件)Hpが25%以下
-クリティカル発生率が75%アップ</t>
+致命攻撃発生率が75%アップ</t>
   </si>
   <si>
     <t>ネガティブドレイン</t>
@@ -1067,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1089,21 +1089,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1111,7 +1126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,26 +1140,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1164,15 +1164,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,14 +1186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1201,10 +1194,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,14 +1221,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1247,19 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,19 +1277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,19 +1295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,13 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,7 +1367,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,73 +1415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,11 +1441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,35 +1471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,6 +1491,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,145 +1546,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1919,7 +1919,7 @@
             <v>47</v>
           </cell>
           <cell r="B18" t="str">
-            <v>クリティカル発生率アップ</v>
+            <v>致命攻撃発生率アップ</v>
           </cell>
         </row>
         <row r="19">
@@ -1972,185 +1972,193 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>101</v>
+            <v>84</v>
           </cell>
           <cell r="B25" t="str">
-            <v>拘束</v>
+            <v>防御ダウン</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="B26" t="str">
-            <v>拘束ダメージ</v>
+            <v>拘束</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="B27" t="str">
-            <v>CA</v>
+            <v>拘束ダメージ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>104</v>
+            <v>103</v>
           </cell>
           <cell r="B28" t="str">
-            <v>攻撃無効</v>
+            <v>CA</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>105</v>
+            <v>104</v>
           </cell>
           <cell r="B29" t="str">
-            <v>リジェネ</v>
+            <v>攻撃無効</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>106</v>
+            <v>105</v>
           </cell>
           <cell r="B30" t="str">
-            <v>行動後AP設定</v>
+            <v>リジェネ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>107</v>
+            <v>106</v>
           </cell>
           <cell r="B31" t="str">
-            <v>挑発</v>
+            <v>行動後AP設定</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>108</v>
+            <v>107</v>
           </cell>
           <cell r="B32" t="str">
-            <v>バニッシュ</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>109</v>
+            <v>108</v>
           </cell>
           <cell r="B33" t="str">
-            <v>祝福</v>
+            <v>バニッシュ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>110</v>
+            <v>109</v>
           </cell>
           <cell r="B34" t="str">
-            <v>呪い</v>
+            <v>祝福</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>111</v>
+            <v>110</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ドレイン</v>
+            <v>呪い</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B36" t="str">
-            <v>アフターヒール</v>
+            <v>ドレイン</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>113</v>
+            <v>112</v>
           </cell>
           <cell r="B37" t="str">
-            <v>CAダメージ</v>
+            <v>アフターヒール</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>114</v>
+            <v>113</v>
           </cell>
           <cell r="B38" t="str">
-            <v>即死</v>
+            <v>CAダメージ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>115</v>
+            <v>114</v>
           </cell>
           <cell r="B39" t="str">
-            <v>CA回復</v>
+            <v>即死</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>116</v>
+            <v>115</v>
           </cell>
           <cell r="B40" t="str">
-            <v>同時回復</v>
+            <v>CA回復</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>117</v>
+            <v>116</v>
           </cell>
           <cell r="B41" t="str">
-            <v>アンデッド</v>
+            <v>同時回復</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>118</v>
+            <v>117</v>
           </cell>
           <cell r="B42" t="str">
-            <v>必中</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>201</v>
+            <v>118</v>
           </cell>
           <cell r="B43" t="str">
-            <v>炎適正</v>
+            <v>必中</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B44" t="str">
-            <v>雷適性</v>
+            <v>炎適正</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B45" t="str">
-            <v>氷適性</v>
+            <v>雷適性</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B46" t="str">
-            <v>光適性</v>
+            <v>氷適性</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
+            <v>204</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>光適性</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
             <v>205</v>
           </cell>
-          <cell r="B47" t="str">
+          <cell r="B48" t="str">
             <v>闇適性</v>
           </cell>
         </row>
@@ -2449,8 +2457,8 @@
   <sheetPr/>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="D71" workbookViewId="0">
-      <selection activeCell="S88" sqref="S88"/>
+    <sheetView topLeftCell="D44" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -7225,18 +7233,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R65" t="str">
         <f>INDEX(Define!K:K,MATCH(Q65,Define!J:J))</f>
-        <v>味方</v>
+        <v>自身</v>
       </c>
       <c r="S65">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T65" t="str">
         <f>INDEX(Define!N:N,MATCH(S65,Define!M:M))</f>
-        <v>全体・自信を除く</v>
+        <v>自身</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -11100,8 +11108,8 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -11623,17 +11631,17 @@
         <v>ステート付与</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>999</v>
       </c>
       <c r="F23">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>防御アップ</v>
+        <v>防御ダウン</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12542,25 +12550,29 @@
         <v>CA回復</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>336</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B62,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>ステート付与</v>
       </c>
       <c r="D62">
+        <v>105</v>
+      </c>
+      <c r="E62">
+        <v>999</v>
+      </c>
+      <c r="F62">
         <v>8</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+      <c r="G62" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -13179,7 +13191,7 @@
         <v>999</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
@@ -13530,7 +13542,7 @@
       </c>
       <c r="G104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D104,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -13555,7 +13567,7 @@
       </c>
       <c r="G105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D105,[1]TextData!A:A))</f>
-        <v>クリティカル発生率アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -14332,8 +14344,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="$A49:$XFD49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -15309,8 +15321,8 @@
   <sheetPr/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="360">
   <si>
     <t>Id</t>
   </si>
@@ -849,6 +849,72 @@
     <t>はずす</t>
   </si>
   <si>
+    <t>人体錬成+\d</t>
+  </si>
+  <si>
+    <t>人体錬成のコマンドLvを\dアップ</t>
+  </si>
+  <si>
+    <t>理性拡張+\d</t>
+  </si>
+  <si>
+    <t>理性拡張のコマンドLvを\dアップ</t>
+  </si>
+  <si>
+    <t>存在修復+\d</t>
+  </si>
+  <si>
+    <t>存在修復のコマンドLvを\dアップ</t>
+  </si>
+  <si>
+    <t>救済執行+\d</t>
+  </si>
+  <si>
+    <t>救済執行のコマンドLvを\dアップ</t>
+  </si>
+  <si>
+    <t>素子補充+\d</t>
+  </si>
+  <si>
+    <t>素子補充のコマンドLvを\dアップ</t>
+  </si>
+  <si>
+    <t>最大Hp+\d</t>
+  </si>
+  <si>
+    <t>ヒロインの最大Hpを\dアップ</t>
+  </si>
+  <si>
+    <t>最大Mp+\d</t>
+  </si>
+  <si>
+    <t>ヒロインの最大Mpを\dアップ</t>
+  </si>
+  <si>
+    <t>ATK+\d</t>
+  </si>
+  <si>
+    <t>ヒロインのATKを\dアップ</t>
+  </si>
+  <si>
+    <t>DEF+\d</t>
+  </si>
+  <si>
+    <t>ヒロインのDEFを\dアップ</t>
+  </si>
+  <si>
+    <t>SPD+\d</t>
+  </si>
+  <si>
+    <t>ヒロインのSPDを\dアップ</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>ステージ開始時に\dを入手する</t>
+  </si>
+  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -975,6 +1041,9 @@
     <t>自己強化</t>
   </si>
   <si>
+    <t>転生</t>
+  </si>
+  <si>
     <t>ステート付与</t>
   </si>
   <si>
@@ -1060,6 +1129,15 @@
   </si>
   <si>
     <t>命令不可</t>
+  </si>
+  <si>
+    <t>コマンドLvアップ</t>
+  </si>
+  <si>
+    <t>ステータスアップ</t>
+  </si>
+  <si>
+    <t>習得魔法追加</t>
   </si>
 </sst>
 </file>
@@ -1068,9 +1146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1089,28 +1167,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1126,15 +1213,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,30 +1296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1180,53 +1304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,7 +1325,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1385,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,163 +1499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,21 +1516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1474,8 +1537,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,50 +1616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1546,16 +1624,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,127 +1642,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2455,10 +2533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -11096,6 +11174,798 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119" spans="1:22">
+      <c r="A119">
+        <v>4001</v>
+      </c>
+      <c r="B119">
+        <v>4001</v>
+      </c>
+      <c r="C119" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
+        <v>人体錬成+\d</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <f>INDEX(Define!X:X,MATCH(D119,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="str">
+        <f>INDEX(Define!B:B,MATCH(H119,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="str">
+        <f>INDEX(Define!E:E,MATCH(M119,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O119">
+        <v>12</v>
+      </c>
+      <c r="P119" t="str">
+        <f>INDEX(Define!H:H,MATCH(O119,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q119">
+        <v>101</v>
+      </c>
+      <c r="R119" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q119,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119" t="str">
+        <f>INDEX(Define!N:N,MATCH(S119,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120">
+        <v>4002</v>
+      </c>
+      <c r="B120">
+        <v>4002</v>
+      </c>
+      <c r="C120" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
+        <v>理性拡張+\d</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <f>INDEX(Define!X:X,MATCH(D120,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="str">
+        <f>INDEX(Define!B:B,MATCH(H120,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="str">
+        <f>INDEX(Define!E:E,MATCH(M120,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O120">
+        <v>12</v>
+      </c>
+      <c r="P120" t="str">
+        <f>INDEX(Define!H:H,MATCH(O120,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q120">
+        <v>101</v>
+      </c>
+      <c r="R120" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q120,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="str">
+        <f>INDEX(Define!N:N,MATCH(S120,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121">
+        <v>4003</v>
+      </c>
+      <c r="B121">
+        <v>4003</v>
+      </c>
+      <c r="C121" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
+        <v>存在修復+\d</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f>INDEX(Define!X:X,MATCH(D121,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="str">
+        <f>INDEX(Define!B:B,MATCH(H121,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="str">
+        <f>INDEX(Define!E:E,MATCH(M121,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O121">
+        <v>12</v>
+      </c>
+      <c r="P121" t="str">
+        <f>INDEX(Define!H:H,MATCH(O121,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q121">
+        <v>101</v>
+      </c>
+      <c r="R121" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q121,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121" t="str">
+        <f>INDEX(Define!N:N,MATCH(S121,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122">
+        <v>4004</v>
+      </c>
+      <c r="B122">
+        <v>4004</v>
+      </c>
+      <c r="C122" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
+        <v>救済執行+\d</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <f>INDEX(Define!X:X,MATCH(D122,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="str">
+        <f>INDEX(Define!B:B,MATCH(H122,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="str">
+        <f>INDEX(Define!E:E,MATCH(M122,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O122">
+        <v>12</v>
+      </c>
+      <c r="P122" t="str">
+        <f>INDEX(Define!H:H,MATCH(O122,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q122">
+        <v>101</v>
+      </c>
+      <c r="R122" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q122,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122" t="str">
+        <f>INDEX(Define!N:N,MATCH(S122,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123">
+        <v>4005</v>
+      </c>
+      <c r="B123">
+        <v>4005</v>
+      </c>
+      <c r="C123" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
+        <v>素子補充+\d</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="str">
+        <f>INDEX(Define!X:X,MATCH(D123,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="str">
+        <f>INDEX(Define!B:B,MATCH(H123,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="str">
+        <f>INDEX(Define!E:E,MATCH(M123,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O123">
+        <v>12</v>
+      </c>
+      <c r="P123" t="str">
+        <f>INDEX(Define!H:H,MATCH(O123,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q123">
+        <v>101</v>
+      </c>
+      <c r="R123" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q123,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123" t="str">
+        <f>INDEX(Define!N:N,MATCH(S123,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="V123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124">
+        <v>4101</v>
+      </c>
+      <c r="B124">
+        <v>4101</v>
+      </c>
+      <c r="C124" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
+        <v>最大Hp+\d</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="str">
+        <f>INDEX(Define!X:X,MATCH(D124,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="str">
+        <f>INDEX(Define!B:B,MATCH(H124,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="str">
+        <f>INDEX(Define!E:E,MATCH(M124,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O124">
+        <v>12</v>
+      </c>
+      <c r="P124" t="str">
+        <f>INDEX(Define!H:H,MATCH(O124,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q124">
+        <v>101</v>
+      </c>
+      <c r="R124" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q124,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124" t="str">
+        <f>INDEX(Define!N:N,MATCH(S124,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125">
+        <v>4102</v>
+      </c>
+      <c r="B125">
+        <v>4102</v>
+      </c>
+      <c r="C125" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
+        <v>最大Mp+\d</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <f>INDEX(Define!X:X,MATCH(D125,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="str">
+        <f>INDEX(Define!B:B,MATCH(H125,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="str">
+        <f>INDEX(Define!E:E,MATCH(M125,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O125">
+        <v>12</v>
+      </c>
+      <c r="P125" t="str">
+        <f>INDEX(Define!H:H,MATCH(O125,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q125">
+        <v>101</v>
+      </c>
+      <c r="R125" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q125,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125" t="str">
+        <f>INDEX(Define!N:N,MATCH(S125,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126">
+        <v>4103</v>
+      </c>
+      <c r="B126">
+        <v>4103</v>
+      </c>
+      <c r="C126" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
+        <v>ATK+\d</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="str">
+        <f>INDEX(Define!X:X,MATCH(D126,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="str">
+        <f>INDEX(Define!B:B,MATCH(H126,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="str">
+        <f>INDEX(Define!E:E,MATCH(M126,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O126">
+        <v>12</v>
+      </c>
+      <c r="P126" t="str">
+        <f>INDEX(Define!H:H,MATCH(O126,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q126">
+        <v>101</v>
+      </c>
+      <c r="R126" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q126,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126" t="str">
+        <f>INDEX(Define!N:N,MATCH(S126,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="V126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127">
+        <v>4104</v>
+      </c>
+      <c r="B127">
+        <v>4104</v>
+      </c>
+      <c r="C127" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
+        <v>DEF+\d</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="str">
+        <f>INDEX(Define!X:X,MATCH(D127,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="str">
+        <f>INDEX(Define!B:B,MATCH(H127,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="str">
+        <f>INDEX(Define!E:E,MATCH(M127,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O127">
+        <v>12</v>
+      </c>
+      <c r="P127" t="str">
+        <f>INDEX(Define!H:H,MATCH(O127,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q127">
+        <v>101</v>
+      </c>
+      <c r="R127" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q127,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127" t="str">
+        <f>INDEX(Define!N:N,MATCH(S127,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128">
+        <v>4105</v>
+      </c>
+      <c r="B128">
+        <v>4105</v>
+      </c>
+      <c r="C128" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
+        <v>SPD+\d</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="str">
+        <f>INDEX(Define!X:X,MATCH(D128,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="str">
+        <f>INDEX(Define!B:B,MATCH(H128,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="str">
+        <f>INDEX(Define!E:E,MATCH(M128,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O128">
+        <v>12</v>
+      </c>
+      <c r="P128" t="str">
+        <f>INDEX(Define!H:H,MATCH(O128,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q128">
+        <v>101</v>
+      </c>
+      <c r="R128" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q128,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128" t="str">
+        <f>INDEX(Define!N:N,MATCH(S128,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="V128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129">
+        <v>4201</v>
+      </c>
+      <c r="B129">
+        <v>4201</v>
+      </c>
+      <c r="C129" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
+        <v>\d</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="str">
+        <f>INDEX(Define!X:X,MATCH(D129,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="str">
+        <f>INDEX(Define!B:B,MATCH(H129,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="str">
+        <f>INDEX(Define!E:E,MATCH(M129,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O129">
+        <v>12</v>
+      </c>
+      <c r="P129" t="str">
+        <f>INDEX(Define!H:H,MATCH(O129,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q129">
+        <v>101</v>
+      </c>
+      <c r="R129" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q129,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129" t="str">
+        <f>INDEX(Define!N:N,MATCH(S129,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U129">
+        <v>1</v>
+      </c>
+      <c r="V129">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11106,10 +11976,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -14330,6 +15200,237 @@
         <v>0</v>
       </c>
       <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>4001</v>
+      </c>
+      <c r="B141">
+        <v>401</v>
+      </c>
+      <c r="C141" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B141,Define!P:P))</f>
+        <v>コマンドLvアップ</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>4002</v>
+      </c>
+      <c r="B142">
+        <v>401</v>
+      </c>
+      <c r="C142" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B142,Define!P:P))</f>
+        <v>コマンドLvアップ</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>4003</v>
+      </c>
+      <c r="B143">
+        <v>401</v>
+      </c>
+      <c r="C143" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B143,Define!P:P))</f>
+        <v>コマンドLvアップ</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>4004</v>
+      </c>
+      <c r="B144">
+        <v>401</v>
+      </c>
+      <c r="C144" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B144,Define!P:P))</f>
+        <v>コマンドLvアップ</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>4005</v>
+      </c>
+      <c r="B145">
+        <v>401</v>
+      </c>
+      <c r="C145" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B145,Define!P:P))</f>
+        <v>コマンドLvアップ</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>4101</v>
+      </c>
+      <c r="B146">
+        <v>402</v>
+      </c>
+      <c r="C146" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B146,Define!P:P))</f>
+        <v>ステータスアップ</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>4102</v>
+      </c>
+      <c r="B147">
+        <v>402</v>
+      </c>
+      <c r="C147" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B147,Define!P:P))</f>
+        <v>ステータスアップ</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>4103</v>
+      </c>
+      <c r="B148">
+        <v>402</v>
+      </c>
+      <c r="C148" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B148,Define!P:P))</f>
+        <v>ステータスアップ</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>4104</v>
+      </c>
+      <c r="B149">
+        <v>402</v>
+      </c>
+      <c r="C149" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B149,Define!P:P))</f>
+        <v>ステータスアップ</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>4105</v>
+      </c>
+      <c r="B150">
+        <v>402</v>
+      </c>
+      <c r="C150" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B150,Define!P:P))</f>
+        <v>ステータスアップ</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>4201</v>
+      </c>
+      <c r="B151">
+        <v>403</v>
+      </c>
+      <c r="C151" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B151,Define!P:P))</f>
+        <v>習得魔法追加</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>0</v>
       </c>
     </row>
@@ -15319,10 +16420,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -16618,6 +17719,127 @@
         <v>68</v>
       </c>
     </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>4001</v>
+      </c>
+      <c r="B118" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>4002</v>
+      </c>
+      <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>4003</v>
+      </c>
+      <c r="B120" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>4004</v>
+      </c>
+      <c r="B121" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>4005</v>
+      </c>
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>4101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>4102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>4103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>4104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>4105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>4201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -16627,10 +17849,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -16662,16 +17884,16 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="S1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="W1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -16679,49 +17901,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -16729,49 +17951,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -16779,49 +18001,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -16829,13 +18051,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -16847,31 +18069,31 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="4:24">
@@ -16879,43 +18101,43 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="4:24">
@@ -16923,37 +18145,37 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="7:24">
@@ -16961,51 +18183,57 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M8">
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="16:24">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="7:24">
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>327</v>
+      </c>
       <c r="P9">
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="16:24">
@@ -17013,19 +18241,19 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="16:24">
@@ -17033,19 +18261,19 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="16:22">
@@ -17053,13 +18281,13 @@
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="16:22">
@@ -17067,13 +18295,13 @@
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="16:22">
@@ -17081,13 +18309,13 @@
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="16:22">
@@ -17095,13 +18323,13 @@
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="16:22">
@@ -17109,13 +18337,13 @@
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="16:22">
@@ -17123,13 +18351,13 @@
         <v>303</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="16:22">
@@ -17137,13 +18365,13 @@
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="16:17">
@@ -17151,7 +18379,7 @@
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="16:17">
@@ -17159,7 +18387,7 @@
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="16:17">
@@ -17167,7 +18395,7 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="16:17">
@@ -17175,7 +18403,7 @@
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="16:17">
@@ -17183,7 +18411,7 @@
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="16:17">
@@ -17191,7 +18419,7 @@
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="16:17">
@@ -17199,7 +18427,31 @@
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>333</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="16:17">
+      <c r="P26">
+        <v>401</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17">
+      <c r="P27">
+        <v>402</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="16:17">
+      <c r="P28">
+        <v>403</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="363">
   <si>
     <t>Id</t>
   </si>
@@ -915,6 +915,12 @@
     <t>ステージ開始時に\dを入手する</t>
   </si>
   <si>
+    <t>すべて死せる魂</t>
+  </si>
+  <si>
+    <t>ヒロインの最大HpとMpを\dアップ</t>
+  </si>
+  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -1137,7 +1143,10 @@
     <t>ステータスアップ</t>
   </si>
   <si>
-    <t>習得魔法追加</t>
+    <t>魔法入手</t>
+  </si>
+  <si>
+    <t>最大HpとMpアップ</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1167,22 +1176,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,14 +1221,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1219,32 +1288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1256,55 +1304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,7 +1334,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,7 +1394,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,133 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,13 +1484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,21 +1525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1554,11 +1548,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,7 +1582,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,17 +1617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,145 +1633,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2533,10 +2542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -11966,6 +11975,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="130" spans="1:22">
+      <c r="A130">
+        <v>4301</v>
+      </c>
+      <c r="B130">
+        <v>4301</v>
+      </c>
+      <c r="C130" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
+        <v>すべて死せる魂</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="str">
+        <f>INDEX(Define!X:X,MATCH(D130,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="str">
+        <f>INDEX(Define!B:B,MATCH(H130,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="str">
+        <f>INDEX(Define!E:E,MATCH(M130,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O130">
+        <v>12</v>
+      </c>
+      <c r="P130" t="str">
+        <f>INDEX(Define!H:H,MATCH(O130,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q130">
+        <v>101</v>
+      </c>
+      <c r="R130" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q130,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130" t="str">
+        <f>INDEX(Define!N:N,MATCH(S130,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11976,15 +12057,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A153" sqref="$A153:$XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="12.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="12.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15422,7 +15504,7 @@
       </c>
       <c r="C151" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B151,Define!P:P))</f>
-        <v>習得魔法追加</v>
+        <v>魔法入手</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -15431,6 +15513,27 @@
         <v>0</v>
       </c>
       <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>4301</v>
+      </c>
+      <c r="B152">
+        <v>404</v>
+      </c>
+      <c r="C152" t="str">
+        <f>INDEX(Define!Q:Q,MATCH(B152,Define!P:P))</f>
+        <v>最大HpとMpアップ</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
         <v>0</v>
       </c>
     </row>
@@ -16420,7 +16523,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
@@ -17840,6 +17943,17 @@
         <v>284</v>
       </c>
     </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>4301</v>
+      </c>
+      <c r="B129" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17849,10 +17963,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -17884,16 +17998,16 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="U1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -17901,49 +18015,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -17951,49 +18065,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>293</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>291</v>
-      </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -18001,49 +18115,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>300</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>298</v>
-      </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -18051,13 +18165,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -18069,31 +18183,31 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="4:24">
@@ -18101,43 +18215,43 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="4:24">
@@ -18145,37 +18259,37 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J7">
         <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="U7">
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="7:24">
@@ -18183,31 +18297,31 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M8">
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P8">
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="U8">
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="7:24">
@@ -18215,25 +18329,25 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P9">
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="16:24">
@@ -18241,19 +18355,19 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W10">
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="16:24">
@@ -18261,19 +18375,19 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="U11">
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="W11">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="16:22">
@@ -18281,13 +18395,13 @@
         <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="U12">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="16:22">
@@ -18295,13 +18409,13 @@
         <v>201</v>
       </c>
       <c r="Q13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U13">
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="16:22">
@@ -18309,13 +18423,13 @@
         <v>202</v>
       </c>
       <c r="Q14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U14">
         <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="16:22">
@@ -18323,13 +18437,13 @@
         <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U15">
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="16:22">
@@ -18337,13 +18451,13 @@
         <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U16">
         <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="16:22">
@@ -18351,13 +18465,13 @@
         <v>303</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U17">
         <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="16:22">
@@ -18365,13 +18479,13 @@
         <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="U18">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="16:17">
@@ -18379,7 +18493,7 @@
         <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="16:17">
@@ -18387,7 +18501,7 @@
         <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="16:17">
@@ -18395,7 +18509,7 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="16:17">
@@ -18403,7 +18517,7 @@
         <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="16:17">
@@ -18411,7 +18525,7 @@
         <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="16:17">
@@ -18419,7 +18533,7 @@
         <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="16:17">
@@ -18427,7 +18541,7 @@
         <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="16:17">
@@ -18435,7 +18549,7 @@
         <v>401</v>
       </c>
       <c r="Q26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="16:17">
@@ -18443,7 +18557,7 @@
         <v>402</v>
       </c>
       <c r="Q27" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="16:17">
@@ -18451,7 +18565,15 @@
         <v>403</v>
       </c>
       <c r="Q28" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="16:17">
+      <c r="P29">
+        <v>404</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -915,7 +915,7 @@
     <t>ステージ開始時に\dを入手する</t>
   </si>
   <si>
-    <t>すべて死せる魂</t>
+    <t>すべて死せる魂+\d</t>
   </si>
   <si>
     <t>ヒロインの最大HpとMpを\dアップ</t>
@@ -1154,9 +1154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -1176,22 +1176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,25 +1197,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1236,14 +1228,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1259,15 +1258,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,29 +1289,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1312,8 +1303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,7 +1334,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,13 +1442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,67 +1484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,73 +1508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,41 +1525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1582,7 +1547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,6 +1563,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1619,8 +1617,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1633,16 +1633,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,127 +1651,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="C130" t="str">
         <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
-        <v>すべて死せる魂</v>
+        <v>すべて死せる魂+\d</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -16526,7 +16526,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -912,7 +912,7 @@
     <t>\d</t>
   </si>
   <si>
-    <t>ステージ開始時に\dを入手する</t>
+    <t>ステージ開始時に魔法を入手する</t>
   </si>
   <si>
     <t>すべて死せる魂+\d</t>
@@ -1154,10 +1154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1176,14 +1176,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,16 +1220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,15 +1265,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,21 +1303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1281,39 +1313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,7 +1334,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,132 +1490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1490,19 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,7 +1514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,17 +1528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,54 +1542,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,11 +1563,65 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,145 +1633,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16525,8 +16525,8 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1154,10 +1154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1175,13 +1175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1191,10 +1184,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1207,12 +1229,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1229,91 +1313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,25 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,25 +1352,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,31 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,19 +1400,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,13 +1472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,43 +1508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,6 +1525,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1539,8 +1602,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1560,71 +1625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1633,145 +1633,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15548,8 +15548,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -16525,7 +16525,7 @@
   <sheetPr/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Skills.xlsx
+++ b/Assets/Resources/Data/Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="382">
   <si>
     <t>Id</t>
   </si>
@@ -549,8 +549,15 @@
     <t>ペイシャンス</t>
   </si>
   <si>
-    <t>(条件)鈍足・火傷・暗闇状態で行動後
+    <t>(条件)状態異常状態で行動後
 Hpが8回復</t>
+  </si>
+  <si>
+    <t>アシッドラッシュ</t>
+  </si>
+  <si>
+    <t>(条件)攻撃成功時
+50%の確率で鈍足付与</t>
   </si>
   <si>
     <t>アイスエンチャント</t>
@@ -633,7 +640,7 @@
   </si>
   <si>
     <t>(条件)バトル開始時
-スタン・火傷・鈍足・呪い状態にかからなくなる</t>
+状態異常状態にならない</t>
   </si>
   <si>
     <t>メディケーション</t>
@@ -1067,24 +1074,27 @@
     <t>闇</t>
   </si>
   <si>
+    <t>追撃</t>
+  </si>
+  <si>
+    <t>単体・自身を除く</t>
+  </si>
+  <si>
+    <t>Mp回復</t>
+  </si>
+  <si>
+    <t>Mpが〇以下</t>
+  </si>
+  <si>
+    <t>超次元</t>
+  </si>
+  <si>
+    <t>アルカナ使用</t>
+  </si>
+  <si>
     <t>パーティ</t>
   </si>
   <si>
-    <t>単体・自身を除く</t>
-  </si>
-  <si>
-    <t>Mp回復</t>
-  </si>
-  <si>
-    <t>Mpが〇以下</t>
-  </si>
-  <si>
-    <t>超次元</t>
-  </si>
-  <si>
-    <t>アルカナ使用</t>
-  </si>
-  <si>
     <t>全体・自信を除く</t>
   </si>
   <si>
@@ -1167,6 +1177,9 @@
   </si>
   <si>
     <t>隷従属度</t>
+  </si>
+  <si>
+    <t>攻撃成功時〇%で</t>
   </si>
   <si>
     <t>アルカナ変更</t>
@@ -1204,10 +1217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1225,6 +1238,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1234,7 +1294,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,38 +1346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,36 +1360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1347,9 +1368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,13 +1377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,7 +1397,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1445,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,31 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,67 +1547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,19 +1565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,31 +1577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,6 +1588,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1599,30 +1675,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1636,45 +1688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1683,145 +1696,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2624,10 +2637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W137"/>
+  <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6509,7 +6522,7 @@
         <v>36</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -7004,21 +7017,21 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B58">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
-        <v>アイスエンチャント</v>
+        <v>アシッドラッシュ</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="str">
         <f>INDEX(Define!X:X,MATCH(D58,Define!W:W))</f>
-        <v>工作</v>
+        <v>自己強化</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7054,18 +7067,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R58" t="str">
         <f>INDEX(Define!K:K,MATCH(Q58,Define!J:J))</f>
-        <v>自身</v>
+        <v>追撃</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T58" t="str">
         <f>INDEX(Define!N:N,MATCH(S58,Define!M:M))</f>
-        <v>自身</v>
+        <v>単体</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -7077,26 +7090,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="12" customHeight="1" spans="1:23">
+    <row r="59" spans="1:23">
       <c r="A59">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="B59">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>アイスエンチャント</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E59" t="str">
         <f>INDEX(Define!X:X,MATCH(D59,Define!W:W))</f>
-        <v>元素</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
+        <v>工作</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7109,41 +7119,41 @@
         <v>単体</v>
       </c>
       <c r="J59">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" t="str">
         <f>INDEX(Define!E:E,MATCH(M59,Define!D:D))</f>
-        <v>光</v>
+        <v>氷</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="str">
         <f>INDEX(Define!H:H,MATCH(O59,Define!G:G))</f>
-        <v>魔法</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R59" t="str">
         <f>INDEX(Define!K:K,MATCH(Q59,Define!J:J))</f>
-        <v>相手</v>
+        <v>自身</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T59" t="str">
         <f>INDEX(Define!N:N,MATCH(S59,Define!M:M))</f>
-        <v>単体</v>
+        <v>自身</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -7157,14 +7167,14 @@
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:23">
       <c r="A60">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>ペネトレイト</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -7174,7 +7184,7 @@
         <v>元素</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7187,13 +7197,13 @@
         <v>単体</v>
       </c>
       <c r="J60">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
         <v>4</v>
@@ -7235,24 +7245,24 @@
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:23">
       <c r="A61">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B61">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>ペネトレイト</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="str">
         <f>INDEX(Define!X:X,MATCH(D61,Define!W:W))</f>
-        <v>光</v>
+        <v>元素</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7265,13 +7275,13 @@
         <v>単体</v>
       </c>
       <c r="J61">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>4</v>
@@ -7288,11 +7298,11 @@
         <v>魔法</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61" t="str">
         <f>INDEX(Define!K:K,MATCH(Q61,Define!J:J))</f>
-        <v>全員</v>
+        <v>相手</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -7313,14 +7323,14 @@
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:23">
       <c r="A62">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -7330,7 +7340,7 @@
         <v>光</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7343,7 +7353,7 @@
         <v>単体</v>
       </c>
       <c r="J62">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -7366,18 +7376,18 @@
         <v>魔法</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R62" t="str">
         <f>INDEX(Define!K:K,MATCH(Q62,Define!J:J))</f>
-        <v>味方</v>
+        <v>全員</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" t="str">
         <f>INDEX(Define!N:N,MATCH(S62,Define!M:M))</f>
-        <v>列</v>
+        <v>単体</v>
       </c>
       <c r="U62">
         <v>1</v>
@@ -7391,14 +7401,14 @@
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:23">
       <c r="A63">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -7408,7 +7418,7 @@
         <v>光</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7421,7 +7431,7 @@
         <v>単体</v>
       </c>
       <c r="J63">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -7444,18 +7454,18 @@
         <v>魔法</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R63" t="str">
         <f>INDEX(Define!K:K,MATCH(Q63,Define!J:J))</f>
-        <v>自身</v>
+        <v>味方</v>
       </c>
       <c r="S63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T63" t="str">
         <f>INDEX(Define!N:N,MATCH(S63,Define!M:M))</f>
-        <v>自身</v>
+        <v>列</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -7467,42 +7477,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" ht="12" customHeight="1" spans="1:23">
       <c r="A64">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B64">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>べネディクション</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E64" t="str">
         <f>INDEX(Define!X:X,MATCH(D64,Define!W:W))</f>
-        <v>半神</v>
+        <v>光</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="str">
         <f>INDEX(Define!B:B,MATCH(H64,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J64">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -7515,25 +7525,25 @@
         <v>光</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64" t="str">
         <f>INDEX(Define!H:H,MATCH(O64,Define!G:G))</f>
-        <v>神化</v>
+        <v>魔法</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R64" t="str">
         <f>INDEX(Define!K:K,MATCH(Q64,Define!J:J))</f>
-        <v>味方</v>
+        <v>自身</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T64" t="str">
         <f>INDEX(Define!N:N,MATCH(S64,Define!M:M))</f>
-        <v>全体</v>
+        <v>自身</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -7542,39 +7552,39 @@
         <v>1</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エリクシール</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" t="str">
         <f>INDEX(Define!X:X,MATCH(D65,Define!W:W))</f>
-        <v>覚醒</v>
+        <v>半神</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="str">
         <f>INDEX(Define!B:B,MATCH(H65,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J65">
         <v>40</v>
@@ -7593,11 +7603,11 @@
         <v>光</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P65" t="str">
         <f>INDEX(Define!H:H,MATCH(O65,Define!G:G))</f>
-        <v>覚醒</v>
+        <v>神化</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -7620,39 +7630,39 @@
         <v>1</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B66">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>エンジェルハイロウ</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="str">
         <f>INDEX(Define!X:X,MATCH(D66,Define!W:W))</f>
-        <v>半神</v>
+        <v>覚醒</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" t="str">
         <f>INDEX(Define!B:B,MATCH(H66,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J66">
         <v>40</v>
@@ -7671,18 +7681,18 @@
         <v>光</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66" t="str">
         <f>INDEX(Define!H:H,MATCH(O66,Define!G:G))</f>
-        <v>神化</v>
+        <v>覚醒</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R66" t="str">
         <f>INDEX(Define!K:K,MATCH(Q66,Define!J:J))</f>
-        <v>相手</v>
+        <v>味方</v>
       </c>
       <c r="S66">
         <v>3</v>
@@ -7703,34 +7713,34 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B67">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>エンジェルハイロウ</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="str">
         <f>INDEX(Define!X:X,MATCH(D67,Define!W:W))</f>
-        <v>覚醒</v>
+        <v>半神</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67" t="str">
         <f>INDEX(Define!B:B,MATCH(H67,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J67">
         <v>40</v>
@@ -7749,11 +7759,11 @@
         <v>光</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P67" t="str">
         <f>INDEX(Define!H:H,MATCH(O67,Define!G:G))</f>
-        <v>覚醒</v>
+        <v>神化</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -7763,17 +7773,17 @@
         <v>相手</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T67" t="str">
         <f>INDEX(Define!N:N,MATCH(S67,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W67">
         <v>1</v>
@@ -7781,24 +7791,24 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B68">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E68" t="str">
         <f>INDEX(Define!X:X,MATCH(D68,Define!W:W))</f>
-        <v>光</v>
+        <v>覚醒</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7814,7 +7824,7 @@
         <v>40</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -7827,18 +7837,18 @@
         <v>光</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P68" t="str">
         <f>INDEX(Define!H:H,MATCH(O68,Define!G:G))</f>
-        <v>魔法</v>
+        <v>覚醒</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68" t="str">
         <f>INDEX(Define!K:K,MATCH(Q68,Define!J:J))</f>
-        <v>味方</v>
+        <v>相手</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -7851,22 +7861,22 @@
         <v>1</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B69">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -7912,18 +7922,18 @@
         <v>魔法</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R69" t="str">
         <f>INDEX(Define!K:K,MATCH(Q69,Define!J:J))</f>
-        <v>自身</v>
+        <v>味方</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T69" t="str">
         <f>INDEX(Define!N:N,MATCH(S69,Define!M:M))</f>
-        <v>自身</v>
+        <v>単体</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -7932,26 +7942,29 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="12" customHeight="1" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B70">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" t="str">
         <f>INDEX(Define!X:X,MATCH(D70,Define!W:W))</f>
-        <v>自己強化</v>
+        <v>光</v>
+      </c>
+      <c r="F70" t="s">
+        <v>51</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -7964,13 +7977,13 @@
         <v>単体</v>
       </c>
       <c r="J70">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <v>4</v>
@@ -7980,11 +7993,11 @@
         <v>光</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" t="str">
         <f>INDEX(Define!H:H,MATCH(O70,Define!G:G))</f>
-        <v>パッシブ</v>
+        <v>魔法</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -8012,14 +8025,14 @@
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:23">
       <c r="A71">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B71">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>メディケーション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -8087,14 +8100,14 @@
     </row>
     <row r="72" ht="12" customHeight="1" spans="1:23">
       <c r="A72">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>メディケーション</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -8137,18 +8150,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R72" t="str">
         <f>INDEX(Define!K:K,MATCH(Q72,Define!J:J))</f>
-        <v>味方</v>
+        <v>自身</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T72" t="str">
         <f>INDEX(Define!N:N,MATCH(S72,Define!M:M))</f>
-        <v>全体</v>
+        <v>自身</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -8162,14 +8175,14 @@
     </row>
     <row r="73" ht="12" customHeight="1" spans="1:23">
       <c r="A73">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B73">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -8212,18 +8225,18 @@
         <v>パッシブ</v>
       </c>
       <c r="Q73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R73" t="str">
         <f>INDEX(Define!K:K,MATCH(Q73,Define!J:J))</f>
-        <v>自身</v>
+        <v>味方</v>
       </c>
       <c r="S73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T73" t="str">
         <f>INDEX(Define!N:N,MATCH(S73,Define!M:M))</f>
-        <v>自身</v>
+        <v>全体</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -8237,14 +8250,14 @@
     </row>
     <row r="74" ht="12" customHeight="1" spans="1:23">
       <c r="A74">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B74">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>アライアンス</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -8312,14 +8325,14 @@
     </row>
     <row r="75" ht="12" customHeight="1" spans="1:23">
       <c r="A75">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>アライアンス</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -8387,14 +8400,14 @@
     </row>
     <row r="76" ht="12" customHeight="1" spans="1:23">
       <c r="A76">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -8462,14 +8475,14 @@
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:23">
       <c r="A77">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B77">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(TextData!B:B,MATCH(B77,TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -8537,21 +8550,21 @@
     </row>
     <row r="78" ht="12" customHeight="1" spans="1:23">
       <c r="A78">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B78">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(TextData!B:B,MATCH(B78,TextData!A:A))</f>
-        <v>ホーリーエンチャント</v>
+        <v>スペリオール</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" t="str">
         <f>INDEX(Define!X:X,MATCH(D78,Define!W:W))</f>
-        <v>工作</v>
+        <v>自己強化</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -8612,24 +8625,21 @@
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:23">
       <c r="A79">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B79">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(TextData!B:B,MATCH(B79,TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ホーリーエンチャント</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" t="str">
         <f>INDEX(Define!X:X,MATCH(D79,Define!W:W))</f>
-        <v>超次元</v>
-      </c>
-      <c r="F79" t="s">
-        <v>19</v>
+        <v>工作</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8642,41 +8652,41 @@
         <v>単体</v>
       </c>
       <c r="J79">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" t="str">
         <f>INDEX(Define!E:E,MATCH(M79,Define!D:D))</f>
-        <v>闇</v>
+        <v>光</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="str">
         <f>INDEX(Define!H:H,MATCH(O79,Define!G:G))</f>
-        <v>魔法</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R79" t="str">
         <f>INDEX(Define!K:K,MATCH(Q79,Define!J:J))</f>
-        <v>相手</v>
+        <v>自身</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T79" t="str">
         <f>INDEX(Define!N:N,MATCH(S79,Define!M:M))</f>
-        <v>単体</v>
+        <v>自身</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -8690,14 +8700,14 @@
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:23">
       <c r="A80">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B80">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(TextData!B:B,MATCH(B80,TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -8707,23 +8717,23 @@
         <v>超次元</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80" t="str">
         <f>INDEX(Define!B:B,MATCH(H80,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J80">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -8750,14 +8760,14 @@
         <v>相手</v>
       </c>
       <c r="S80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T80" t="str">
         <f>INDEX(Define!N:N,MATCH(S80,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>1</v>
@@ -8768,14 +8778,14 @@
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:23">
       <c r="A81">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B81">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(TextData!B:B,MATCH(B81,TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -8785,23 +8795,23 @@
         <v>超次元</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81" t="str">
         <f>INDEX(Define!B:B,MATCH(H81,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J81">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -8828,14 +8838,14 @@
         <v>相手</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T81" t="str">
         <f>INDEX(Define!N:N,MATCH(S81,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V81">
         <v>1</v>
@@ -8846,14 +8856,14 @@
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:23">
       <c r="A82">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B82">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(TextData!B:B,MATCH(B82,TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -8863,7 +8873,7 @@
         <v>超次元</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -8876,10 +8886,10 @@
         <v>単体</v>
       </c>
       <c r="J82">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -8924,24 +8934,24 @@
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:23">
       <c r="A83">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B83">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(TextData!B:B,MATCH(B83,TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" t="str">
         <f>INDEX(Define!X:X,MATCH(D83,Define!W:W))</f>
-        <v>理術</v>
+        <v>超次元</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -9002,40 +9012,40 @@
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:23">
       <c r="A84">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B84">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(TextData!B:B,MATCH(B84,TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E84" t="str">
         <f>INDEX(Define!X:X,MATCH(D84,Define!W:W))</f>
-        <v>半神</v>
+        <v>理術</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" t="str">
         <f>INDEX(Define!B:B,MATCH(H84,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J84">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L84">
         <v>2</v>
@@ -9048,11 +9058,11 @@
         <v>闇</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P84" t="str">
         <f>INDEX(Define!H:H,MATCH(O84,Define!G:G))</f>
-        <v>神化</v>
+        <v>魔法</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -9062,14 +9072,14 @@
         <v>相手</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T84" t="str">
         <f>INDEX(Define!N:N,MATCH(S84,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84">
         <v>1</v>
@@ -9080,37 +9090,37 @@
     </row>
     <row r="85" ht="12" customHeight="1" spans="1:23">
       <c r="A85">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B85">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" t="str">
         <f>INDEX(Define!X:X,MATCH(D85,Define!W:W))</f>
-        <v>覚醒</v>
+        <v>半神</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85" t="str">
         <f>INDEX(Define!B:B,MATCH(H85,Define!A:A))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="J85">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -9126,11 +9136,11 @@
         <v>闇</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P85" t="str">
         <f>INDEX(Define!H:H,MATCH(O85,Define!G:G))</f>
-        <v>覚醒</v>
+        <v>神化</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -9140,14 +9150,14 @@
         <v>相手</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T85" t="str">
         <f>INDEX(Define!N:N,MATCH(S85,Define!M:M))</f>
-        <v>単体</v>
+        <v>全体</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V85">
         <v>1</v>
@@ -9158,24 +9168,24 @@
     </row>
     <row r="86" ht="12" customHeight="1" spans="1:23">
       <c r="A86">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B86">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX(TextData!B:B,MATCH(B86,TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E86" t="str">
         <f>INDEX(Define!X:X,MATCH(D86,Define!W:W))</f>
-        <v>理術</v>
+        <v>覚醒</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -9188,13 +9198,13 @@
         <v>単体</v>
       </c>
       <c r="J86">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>5</v>
@@ -9204,11 +9214,11 @@
         <v>闇</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P86" t="str">
         <f>INDEX(Define!H:H,MATCH(O86,Define!G:G))</f>
-        <v>魔法</v>
+        <v>覚醒</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -9236,21 +9246,24 @@
     </row>
     <row r="87" ht="12" customHeight="1" spans="1:23">
       <c r="A87">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B87">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ダークネス</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E87" t="str">
         <f>INDEX(Define!X:X,MATCH(D87,Define!W:W))</f>
-        <v>自己強化</v>
+        <v>理術</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -9263,10 +9276,10 @@
         <v>単体</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -9279,25 +9292,25 @@
         <v>闇</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="str">
         <f>INDEX(Define!H:H,MATCH(O87,Define!G:G))</f>
-        <v>パッシブ</v>
+        <v>魔法</v>
       </c>
       <c r="Q87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R87" t="str">
         <f>INDEX(Define!K:K,MATCH(Q87,Define!J:J))</f>
-        <v>自身</v>
+        <v>相手</v>
       </c>
       <c r="S87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T87" t="str">
         <f>INDEX(Define!N:N,MATCH(S87,Define!M:M))</f>
-        <v>自身</v>
+        <v>単体</v>
       </c>
       <c r="U87">
         <v>1</v>
@@ -9311,14 +9324,14 @@
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:23">
       <c r="A88">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B88">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -9386,14 +9399,14 @@
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:23">
       <c r="A89">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B89">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -9461,14 +9474,14 @@
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:23">
       <c r="A90">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -9536,14 +9549,14 @@
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:23">
       <c r="A91">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B91">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>クリープアウト</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -9611,14 +9624,14 @@
     </row>
     <row r="92" ht="12" customHeight="1" spans="1:23">
       <c r="A92">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B92">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>アンデッドペイン</v>
+        <v>クリープアウト</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -9686,21 +9699,21 @@
     </row>
     <row r="93" ht="12" customHeight="1" spans="1:23">
       <c r="A93">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B93">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>ダークエンチャント</v>
+        <v>アンデッドペイン</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="str">
         <f>INDEX(Define!X:X,MATCH(D93,Define!W:W))</f>
-        <v>工作</v>
+        <v>自己強化</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -9761,43 +9774,40 @@
     </row>
     <row r="94" ht="12" customHeight="1" spans="1:23">
       <c r="A94">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="B94">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>ダークエンチャント</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E94" t="str">
         <f>INDEX(Define!X:X,MATCH(D94,Define!W:W))</f>
-        <v>超次元</v>
-      </c>
-      <c r="F94" t="s">
-        <v>57</v>
+        <v>工作</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" t="str">
         <f>INDEX(Define!B:B,MATCH(H94,Define!A:A))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="J94">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -9807,28 +9817,28 @@
         <v>闇</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" t="str">
         <f>INDEX(Define!H:H,MATCH(O94,Define!G:G))</f>
-        <v>魔法</v>
+        <v>パッシブ</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R94" t="str">
         <f>INDEX(Define!K:K,MATCH(Q94,Define!J:J))</f>
-        <v>相手</v>
+        <v>自身</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T94" t="str">
         <f>INDEX(Define!N:N,MATCH(S94,Define!M:M))</f>
-        <v>単体</v>
+        <v>自身</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -9839,71 +9849,74 @@
     </row>
     <row r="95" ht="12" customHeight="1" spans="1:23">
       <c r="A95">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="B95">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>愚者</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95" t="str">
         <f>INDEX(Define!X:X,MATCH(D95,Define!W:W))</f>
-        <v>元素</v>
+        <v>超次元</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" t="str">
         <f>INDEX(Define!B:B,MATCH(H95,Define!A:A))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N95" t="str">
         <f>INDEX(Define!E:E,MATCH(M95,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P95" t="str">
         <f>INDEX(Define!H:H,MATCH(O95,Define!G:G))</f>
-        <v>アルカナ使用</v>
+        <v>魔法</v>
       </c>
       <c r="Q95">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R95" t="str">
         <f>INDEX(Define!K:K,MATCH(Q95,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>相手</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T95" t="str">
         <f>INDEX(Define!N:N,MATCH(S95,Define!M:M))</f>
-        <v>全体</v>
+        <v>単体</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -9914,14 +9927,14 @@
     </row>
     <row r="96" ht="12" customHeight="1" spans="1:23">
       <c r="A96">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B96">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>魔術師</v>
+        <v>愚者</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9964,11 +9977,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R96" t="str">
         <f>INDEX(Define!K:K,MATCH(Q96,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S96">
         <v>3</v>
@@ -9989,14 +10002,14 @@
     </row>
     <row r="97" ht="12" customHeight="1" spans="1:23">
       <c r="A97">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B97">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>女帝</v>
+        <v>魔術師</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -10064,14 +10077,14 @@
     </row>
     <row r="98" ht="12" customHeight="1" spans="1:23">
       <c r="A98">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B98">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>女教皇</v>
+        <v>女帝</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -10139,14 +10152,14 @@
     </row>
     <row r="99" ht="12" customHeight="1" spans="1:23">
       <c r="A99">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B99">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>皇帝</v>
+        <v>女教皇</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -10214,14 +10227,14 @@
     </row>
     <row r="100" ht="12" customHeight="1" spans="1:23">
       <c r="A100">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B100">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>法王</v>
+        <v>皇帝</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -10264,11 +10277,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q100">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R100" t="str">
         <f>INDEX(Define!K:K,MATCH(Q100,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S100">
         <v>3</v>
@@ -10289,14 +10302,14 @@
     </row>
     <row r="101" ht="12" customHeight="1" spans="1:23">
       <c r="A101">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B101">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>恋愛</v>
+        <v>法王</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -10339,11 +10352,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R101" t="str">
         <f>INDEX(Define!K:K,MATCH(Q101,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S101">
         <v>3</v>
@@ -10364,14 +10377,14 @@
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:23">
       <c r="A102">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B102">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>戦車</v>
+        <v>恋愛</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -10439,14 +10452,14 @@
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:23">
       <c r="A103">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B103">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>正義</v>
+        <v>戦車</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -10489,18 +10502,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q103">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R103" t="str">
         <f>INDEX(Define!K:K,MATCH(Q103,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T103" t="str">
         <f>INDEX(Define!N:N,MATCH(S103,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U103">
         <v>1</v>
@@ -10514,14 +10527,14 @@
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:23">
       <c r="A104">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B104">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>隠者</v>
+        <v>正義</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -10564,18 +10577,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R104" t="str">
         <f>INDEX(Define!K:K,MATCH(Q104,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T104" t="str">
         <f>INDEX(Define!N:N,MATCH(S104,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U104">
         <v>1</v>
@@ -10589,14 +10602,14 @@
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:23">
       <c r="A105">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B105">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>運命</v>
+        <v>隠者</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10639,18 +10652,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q105">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R105" t="str">
         <f>INDEX(Define!K:K,MATCH(Q105,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105" t="str">
         <f>INDEX(Define!N:N,MATCH(S105,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -10664,14 +10677,14 @@
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:23">
       <c r="A106">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B106">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
-        <v>剛毅</v>
+        <v>運命</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10714,18 +10727,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q106">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R106" t="str">
         <f>INDEX(Define!K:K,MATCH(Q106,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T106" t="str">
         <f>INDEX(Define!N:N,MATCH(S106,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U106">
         <v>1</v>
@@ -10739,14 +10752,14 @@
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:23">
       <c r="A107">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B107">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
-        <v>刑死者</v>
+        <v>剛毅</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10789,11 +10802,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R107" t="str">
         <f>INDEX(Define!K:K,MATCH(Q107,Define!J:J))</f>
-        <v>相手</v>
+        <v>味方</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -10814,14 +10827,14 @@
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:23">
       <c r="A108">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B108">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
-        <v>死神</v>
+        <v>刑死者</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10864,18 +10877,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q108">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R108" t="str">
         <f>INDEX(Define!K:K,MATCH(Q108,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>相手</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T108" t="str">
         <f>INDEX(Define!N:N,MATCH(S108,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U108">
         <v>1</v>
@@ -10889,14 +10902,14 @@
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:23">
       <c r="A109">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B109">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
-        <v>節制</v>
+        <v>死神</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -10939,18 +10952,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R109" t="str">
         <f>INDEX(Define!K:K,MATCH(Q109,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T109" t="str">
         <f>INDEX(Define!N:N,MATCH(S109,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U109">
         <v>1</v>
@@ -10964,14 +10977,14 @@
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:23">
       <c r="A110">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B110">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
-        <v>悪魔</v>
+        <v>節制</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -11014,18 +11027,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q110">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R110" t="str">
         <f>INDEX(Define!K:K,MATCH(Q110,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T110" t="str">
         <f>INDEX(Define!N:N,MATCH(S110,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -11039,14 +11052,14 @@
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:23">
       <c r="A111">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B111">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
-        <v>塔</v>
+        <v>悪魔</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -11089,18 +11102,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q111">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R111" t="str">
         <f>INDEX(Define!K:K,MATCH(Q111,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T111" t="str">
         <f>INDEX(Define!N:N,MATCH(S111,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -11114,14 +11127,14 @@
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:23">
       <c r="A112">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B112">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
-        <v>星</v>
+        <v>塔</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -11164,11 +11177,11 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q112">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R112" t="str">
         <f>INDEX(Define!K:K,MATCH(Q112,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S112">
         <v>3</v>
@@ -11189,14 +11202,14 @@
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:23">
       <c r="A113">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B113">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
-        <v>月</v>
+        <v>星</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -11264,14 +11277,14 @@
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:23">
       <c r="A114">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B114">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
-        <v>太陽</v>
+        <v>月</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -11321,11 +11334,11 @@
         <v>パーティ</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T114" t="str">
         <f>INDEX(Define!N:N,MATCH(S114,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U114">
         <v>1</v>
@@ -11339,14 +11352,14 @@
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:23">
       <c r="A115">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B115">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
-        <v>審判</v>
+        <v>太陽</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -11396,11 +11409,11 @@
         <v>パーティ</v>
       </c>
       <c r="S115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T115" t="str">
         <f>INDEX(Define!N:N,MATCH(S115,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -11414,14 +11427,14 @@
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:23">
       <c r="A116">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B116">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>杖</v>
+        <v>審判</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -11471,11 +11484,11 @@
         <v>パーティ</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T116" t="str">
         <f>INDEX(Define!N:N,MATCH(S116,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U116">
         <v>1</v>
@@ -11489,14 +11502,14 @@
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:23">
       <c r="A117">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B117">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
-        <v>器</v>
+        <v>杖</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -11564,14 +11577,14 @@
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:23">
       <c r="A118">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B118">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
-        <v>剣</v>
+        <v>器</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -11614,18 +11627,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="R118" t="str">
         <f>INDEX(Define!K:K,MATCH(Q118,Define!J:J))</f>
-        <v>味方</v>
+        <v>パーティ</v>
       </c>
       <c r="S118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T118" t="str">
         <f>INDEX(Define!N:N,MATCH(S118,Define!M:M))</f>
-        <v>全体</v>
+        <v>なし</v>
       </c>
       <c r="U118">
         <v>1</v>
@@ -11639,14 +11652,14 @@
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:23">
       <c r="A119">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B119">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
-        <v>貨幣</v>
+        <v>剣</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -11689,18 +11702,18 @@
         <v>アルカナ使用</v>
       </c>
       <c r="Q119">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="R119" t="str">
         <f>INDEX(Define!K:K,MATCH(Q119,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>味方</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T119" t="str">
         <f>INDEX(Define!N:N,MATCH(S119,Define!M:M))</f>
-        <v>なし</v>
+        <v>全体</v>
       </c>
       <c r="U119">
         <v>1</v>
@@ -11712,16 +11725,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" ht="12" customHeight="1" spans="1:23">
       <c r="A120">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="B120">
-        <v>2001</v>
+        <v>1025</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
-        <v>元素術・炎</v>
+        <v>貨幣</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -11734,11 +11747,11 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="str">
         <f>INDEX(Define!B:B,MATCH(H120,Define!A:A))</f>
-        <v>単体</v>
+        <v>なし</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -11750,32 +11763,32 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="str">
         <f>INDEX(Define!E:E,MATCH(M120,Define!D:D))</f>
-        <v>炎</v>
+        <v>なし</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P120" t="str">
         <f>INDEX(Define!H:H,MATCH(O120,Define!G:G))</f>
-        <v>なし</v>
+        <v>アルカナ使用</v>
       </c>
       <c r="Q120">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="R120" t="str">
         <f>INDEX(Define!K:K,MATCH(Q120,Define!J:J))</f>
-        <v>自身</v>
+        <v>パーティ</v>
       </c>
       <c r="S120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T120" t="str">
         <f>INDEX(Define!N:N,MATCH(S120,Define!M:M))</f>
-        <v>自身</v>
+        <v>なし</v>
       </c>
       <c r="U120">
         <v>1</v>
@@ -11789,14 +11802,14 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B121">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
-        <v>元素術・雷</v>
+        <v>元素術・炎</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -11825,11 +11838,11 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121" t="str">
         <f>INDEX(Define!E:E,MATCH(M121,Define!D:D))</f>
-        <v>雷</v>
+        <v>炎</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -11864,14 +11877,14 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B122">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
-        <v>元素術・氷</v>
+        <v>元素術・雷</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -11900,11 +11913,11 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N122" t="str">
         <f>INDEX(Define!E:E,MATCH(M122,Define!D:D))</f>
-        <v>氷</v>
+        <v>雷</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -11939,21 +11952,21 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B123">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
-        <v>光魔術</v>
+        <v>元素術・氷</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="str">
         <f>INDEX(Define!X:X,MATCH(D123,Define!W:W))</f>
-        <v>光</v>
+        <v>元素</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11975,11 +11988,11 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N123" t="str">
         <f>INDEX(Define!E:E,MATCH(M123,Define!D:D))</f>
-        <v>光</v>
+        <v>氷</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -12014,21 +12027,21 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B124">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
-        <v>超次元術</v>
+        <v>光魔術</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E124" t="str">
         <f>INDEX(Define!X:X,MATCH(D124,Define!W:W))</f>
-        <v>超次元</v>
+        <v>光</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -12050,11 +12063,11 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N124" t="str">
         <f>INDEX(Define!E:E,MATCH(M124,Define!D:D))</f>
-        <v>闇</v>
+        <v>光</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -12089,21 +12102,21 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B125">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
-        <v>はずす</v>
+        <v>超次元術</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125" t="str">
         <f>INDEX(Define!X:X,MATCH(D125,Define!W:W))</f>
-        <v>元素</v>
+        <v>超次元</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12125,11 +12138,11 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N125" t="str">
         <f>INDEX(Define!E:E,MATCH(M125,Define!D:D))</f>
-        <v>なし</v>
+        <v>闇</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -12164,14 +12177,14 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126">
-        <v>4001</v>
+        <v>2009</v>
       </c>
       <c r="B126">
-        <v>4001</v>
+        <v>2009</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
-        <v>人体錬成+\d</v>
+        <v>はずす</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -12184,11 +12197,11 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="str">
         <f>INDEX(Define!B:B,MATCH(H126,Define!A:A))</f>
-        <v>なし</v>
+        <v>単体</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -12207,25 +12220,25 @@
         <v>なし</v>
       </c>
       <c r="O126">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P126" t="str">
         <f>INDEX(Define!H:H,MATCH(O126,Define!G:G))</f>
-        <v>転生</v>
+        <v>なし</v>
       </c>
       <c r="Q126">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="R126" t="str">
         <f>INDEX(Define!K:K,MATCH(Q126,Define!J:J))</f>
-        <v>パーティ</v>
+        <v>自身</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T126" t="str">
         <f>INDEX(Define!N:N,MATCH(S126,Define!M:M))</f>
-        <v>なし</v>
+        <v>自身</v>
       </c>
       <c r="U126">
         <v>1</v>
@@ -12239,14 +12252,14 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B127">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
-        <v>理性拡張+\d</v>
+        <v>人体錬成+\d</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -12314,14 +12327,14 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B128">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
-        <v>存在修復+\d</v>
+        <v>理性拡張+\d</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -12389,14 +12402,14 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B129">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
-        <v>救済執行+\d</v>
+        <v>存在修復+\d</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -12464,14 +12477,14 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B130">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
-        <v>素子補充+\d</v>
+        <v>救済執行+\d</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -12539,14 +12552,14 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131">
-        <v>4101</v>
+        <v>4005</v>
       </c>
       <c r="B131">
-        <v>4101</v>
+        <v>4005</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(TextData!B:B,MATCH(B131,TextData!A:A))</f>
-        <v>最大Hp+\d</v>
+        <v>素子補充+\d</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -12614,14 +12627,14 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B132">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(TextData!B:B,MATCH(B132,TextData!A:A))</f>
-        <v>最大Mp+\d</v>
+        <v>最大Hp+\d</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -12689,14 +12702,14 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B133">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(TextData!B:B,MATCH(B133,TextData!A:A))</f>
-        <v>ATK+\d</v>
+        <v>最大Mp+\d</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -12764,14 +12777,14 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B134">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(TextData!B:B,MATCH(B134,TextData!A:A))</f>
-        <v>DEF+\d</v>
+        <v>ATK+\d</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -12839,14 +12852,14 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="B135">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(TextData!B:B,MATCH(B135,TextData!A:A))</f>
-        <v>SPD+\d</v>
+        <v>DEF+\d</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -12914,14 +12927,14 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136">
-        <v>4201</v>
+        <v>4105</v>
       </c>
       <c r="B136">
-        <v>4201</v>
+        <v>4105</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(TextData!B:B,MATCH(B136,TextData!A:A))</f>
-        <v>\d</v>
+        <v>SPD+\d</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -12989,14 +13002,14 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137">
-        <v>4301</v>
+        <v>4201</v>
       </c>
       <c r="B137">
-        <v>4301</v>
+        <v>4201</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(TextData!B:B,MATCH(B137,TextData!A:A))</f>
-        <v>すべて死せる魂+\d</v>
+        <v>\d</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -13059,6 +13072,81 @@
         <v>1</v>
       </c>
       <c r="W137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138">
+        <v>4301</v>
+      </c>
+      <c r="B138">
+        <v>4301</v>
+      </c>
+      <c r="C138" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B138,TextData!A:A))</f>
+        <v>すべて死せる魂+\d</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="str">
+        <f>INDEX(Define!X:X,MATCH(D138,Define!W:W))</f>
+        <v>元素</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="str">
+        <f>INDEX(Define!B:B,MATCH(H138,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="str">
+        <f>INDEX(Define!E:E,MATCH(M138,Define!D:D))</f>
+        <v>なし</v>
+      </c>
+      <c r="O138">
+        <v>12</v>
+      </c>
+      <c r="P138" t="str">
+        <f>INDEX(Define!H:H,MATCH(O138,Define!G:G))</f>
+        <v>転生</v>
+      </c>
+      <c r="Q138">
+        <v>101</v>
+      </c>
+      <c r="R138" t="str">
+        <f>INDEX(Define!K:K,MATCH(Q138,Define!J:J))</f>
+        <v>パーティ</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138" t="str">
+        <f>INDEX(Define!N:N,MATCH(S138,Define!M:M))</f>
+        <v>なし</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138">
         <v>1</v>
       </c>
     </row>
@@ -13072,10 +13160,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -14661,48 +14749,52 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B68">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B68,Define!P:P))</f>
-        <v>属性適性増加</v>
+        <v>ステート付与</v>
       </c>
       <c r="D68">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>氷適性</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>鈍足</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B69,Define!P:P))</f>
-        <v>Hpダメージ</v>
+        <v>属性適性増加</v>
       </c>
       <c r="D69">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G69" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D69,[1]TextData!A:A))</f>
+        <v>氷適性</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -14710,41 +14802,41 @@
         <v>401</v>
       </c>
       <c r="B70">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B70,Define!P:P))</f>
-        <v>アンデッド特攻</v>
+        <v>Hpダメージ</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B71,Define!P:P))</f>
-        <v>効果無視Hpダメージ</v>
+        <v>アンデッド特攻</v>
       </c>
       <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>150</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -14752,41 +14844,41 @@
         <v>402</v>
       </c>
       <c r="B72">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B72,Define!P:P))</f>
-        <v>アンデッド特攻</v>
+        <v>効果無視Hpダメージ</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B73,Define!P:P))</f>
-        <v>Hp回復</v>
+        <v>アンデッド特攻</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -14794,20 +14886,20 @@
         <v>403</v>
       </c>
       <c r="B74">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(Define!Q:Q,MATCH(B74,Define!P:P))</f>
-        <v>回復特性</v>
+        <v>Hp回復</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -14815,45 +14907,41 @@
         <v>403</v>
       </c>
       <c r="B75">
-        <v>202</v>
+        <v>201</v>
       </